--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>175000</v>
+        <v>152300</v>
       </c>
       <c r="E8" s="3">
-        <v>169900</v>
+        <v>207500</v>
       </c>
       <c r="F8" s="3">
-        <v>196600</v>
+        <v>166800</v>
       </c>
       <c r="G8" s="3">
-        <v>269700</v>
+        <v>161800</v>
       </c>
       <c r="H8" s="3">
-        <v>174500</v>
+        <v>187300</v>
       </c>
       <c r="I8" s="3">
+        <v>256900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K8" s="3">
         <v>157200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>190200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>231400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>187400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>229400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>167500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>207900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>25300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>1400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-6300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>46300</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
         <v>43000</v>
       </c>
       <c r="F15" s="3">
-        <v>43000</v>
+        <v>44100</v>
       </c>
       <c r="G15" s="3">
-        <v>47100</v>
+        <v>40900</v>
       </c>
       <c r="H15" s="3">
-        <v>49000</v>
+        <v>41000</v>
       </c>
       <c r="I15" s="3">
+        <v>44800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K15" s="3">
         <v>45800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>45300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>52300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>50400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>41500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>42900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>48800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>160800</v>
+        <v>156400</v>
       </c>
       <c r="E17" s="3">
-        <v>198500</v>
+        <v>162500</v>
       </c>
       <c r="F17" s="3">
-        <v>178200</v>
+        <v>153200</v>
       </c>
       <c r="G17" s="3">
-        <v>212800</v>
+        <v>189100</v>
       </c>
       <c r="H17" s="3">
-        <v>156600</v>
+        <v>169700</v>
       </c>
       <c r="I17" s="3">
+        <v>202700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K17" s="3">
         <v>187500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>180800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>176400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>164000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>175800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>172900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>158300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14200</v>
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
-        <v>-28700</v>
+        <v>45000</v>
       </c>
       <c r="F18" s="3">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="G18" s="3">
-        <v>56900</v>
+        <v>-27300</v>
       </c>
       <c r="H18" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="I18" s="3">
+        <v>54200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-30300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>55000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>23400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>53600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>49600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3700</v>
+        <v>-31100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>24600</v>
       </c>
       <c r="F20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-11200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>56900</v>
+        <v>9200</v>
       </c>
       <c r="E21" s="3">
-        <v>10900</v>
+        <v>112600</v>
       </c>
       <c r="F21" s="3">
-        <v>63500</v>
+        <v>54200</v>
       </c>
       <c r="G21" s="3">
-        <v>102600</v>
+        <v>10400</v>
       </c>
       <c r="H21" s="3">
-        <v>66800</v>
+        <v>60500</v>
       </c>
       <c r="I21" s="3">
+        <v>97700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>61600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>108000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>79400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>98100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>39700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>89700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>7300</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3300</v>
+        <v>-35200</v>
       </c>
       <c r="E23" s="3">
-        <v>-38800</v>
+        <v>63700</v>
       </c>
       <c r="F23" s="3">
-        <v>14400</v>
+        <v>3100</v>
       </c>
       <c r="G23" s="3">
-        <v>48700</v>
+        <v>-37000</v>
       </c>
       <c r="H23" s="3">
-        <v>11300</v>
+        <v>13700</v>
       </c>
       <c r="I23" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-48300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>22300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>49600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>14100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>9900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>38200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>38200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>31600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>23100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>38200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>31600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>38200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>31600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>23100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,32 +1704,32 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+        <v>-4900</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-63900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3700</v>
+        <v>31100</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>-24600</v>
       </c>
       <c r="F32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>11200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>31600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>23100</v>
+      </c>
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>31600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>23100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>31600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>23100</v>
+      </c>
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>31600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>23100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181400</v>
+        <v>111200</v>
       </c>
       <c r="E41" s="3">
-        <v>397700</v>
+        <v>124200</v>
       </c>
       <c r="F41" s="3">
-        <v>250600</v>
+        <v>172800</v>
       </c>
       <c r="G41" s="3">
-        <v>246100</v>
+        <v>378900</v>
       </c>
       <c r="H41" s="3">
-        <v>320000</v>
+        <v>238800</v>
       </c>
       <c r="I41" s="3">
+        <v>234500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>304800</v>
+      </c>
+      <c r="K41" s="3">
         <v>312900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>209100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>202600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>282000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>378600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>201000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>161600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2234,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118800</v>
+        <v>104900</v>
       </c>
       <c r="E43" s="3">
-        <v>84300</v>
+        <v>130100</v>
       </c>
       <c r="F43" s="3">
-        <v>240600</v>
+        <v>113200</v>
       </c>
       <c r="G43" s="3">
-        <v>161400</v>
+        <v>80300</v>
       </c>
       <c r="H43" s="3">
-        <v>119800</v>
+        <v>229200</v>
       </c>
       <c r="I43" s="3">
+        <v>153700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K43" s="3">
         <v>218300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>152200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>160500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>111200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>135300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>114100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>163800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="E44" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="F44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="O44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20300</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>19300</v>
       </c>
       <c r="G45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
-        <v>700</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>323900</v>
+        <v>233200</v>
       </c>
       <c r="E46" s="3">
-        <v>502000</v>
+        <v>273700</v>
       </c>
       <c r="F46" s="3">
-        <v>494600</v>
+        <v>308600</v>
       </c>
       <c r="G46" s="3">
-        <v>411700</v>
+        <v>478300</v>
       </c>
       <c r="H46" s="3">
-        <v>443900</v>
+        <v>471100</v>
       </c>
       <c r="I46" s="3">
+        <v>392200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>422900</v>
+      </c>
+      <c r="K46" s="3">
         <v>534500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>366700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>369100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>399100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>520200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>322100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>332900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54200</v>
+        <v>52300</v>
       </c>
       <c r="E47" s="3">
-        <v>12800</v>
+        <v>50000</v>
       </c>
       <c r="F47" s="3">
-        <v>13600</v>
+        <v>51600</v>
       </c>
       <c r="G47" s="3">
-        <v>14100</v>
+        <v>12200</v>
       </c>
       <c r="H47" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="I47" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K47" s="3">
         <v>6800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>13000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>20100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>19700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>364000</v>
+        <v>350600</v>
       </c>
       <c r="E48" s="3">
-        <v>350400</v>
+        <v>349100</v>
       </c>
       <c r="F48" s="3">
-        <v>336300</v>
+        <v>346800</v>
       </c>
       <c r="G48" s="3">
-        <v>337000</v>
+        <v>333800</v>
       </c>
       <c r="H48" s="3">
-        <v>337900</v>
+        <v>320400</v>
       </c>
       <c r="I48" s="3">
+        <v>321100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>321900</v>
+      </c>
+      <c r="K48" s="3">
         <v>353000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>352800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>661600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>340100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>337400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>339900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>339900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1015700</v>
+        <v>966500</v>
       </c>
       <c r="E49" s="3">
-        <v>994000</v>
+        <v>934100</v>
       </c>
       <c r="F49" s="3">
-        <v>928900</v>
+        <v>967600</v>
       </c>
       <c r="G49" s="3">
-        <v>956000</v>
+        <v>946900</v>
       </c>
       <c r="H49" s="3">
-        <v>992100</v>
+        <v>885000</v>
       </c>
       <c r="I49" s="3">
+        <v>910700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>945200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1033800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>972200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2008800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1050900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>935900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>931700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1018200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>71800</v>
+        <v>68000</v>
       </c>
       <c r="E52" s="3">
-        <v>75600</v>
+        <v>66300</v>
       </c>
       <c r="F52" s="3">
-        <v>74800</v>
+        <v>68400</v>
       </c>
       <c r="G52" s="3">
-        <v>77800</v>
+        <v>72000</v>
       </c>
       <c r="H52" s="3">
-        <v>86600</v>
+        <v>71200</v>
       </c>
       <c r="I52" s="3">
+        <v>74100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K52" s="3">
         <v>88100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>104000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>102600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>177500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>186700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>192900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>194100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1829600</v>
+        <v>1670600</v>
       </c>
       <c r="E54" s="3">
-        <v>1934700</v>
+        <v>1673300</v>
       </c>
       <c r="F54" s="3">
-        <v>1848200</v>
+        <v>1743000</v>
       </c>
       <c r="G54" s="3">
-        <v>1796700</v>
+        <v>1843100</v>
       </c>
       <c r="H54" s="3">
-        <v>1874300</v>
+        <v>1760700</v>
       </c>
       <c r="I54" s="3">
+        <v>1711600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1785600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1998400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1786500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1832200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1980600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2000400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1806400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1890700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>221600</v>
+        <v>235500</v>
       </c>
       <c r="E57" s="3">
-        <v>297800</v>
+        <v>187300</v>
       </c>
       <c r="F57" s="3">
-        <v>240100</v>
+        <v>211100</v>
       </c>
       <c r="G57" s="3">
-        <v>233500</v>
+        <v>283700</v>
       </c>
       <c r="H57" s="3">
-        <v>239200</v>
+        <v>228700</v>
       </c>
       <c r="I57" s="3">
+        <v>222400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>227900</v>
+      </c>
+      <c r="K57" s="3">
         <v>346500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>270000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>238600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>264200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>248200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>232300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>219500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="F58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>11700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>272900</v>
+        <v>127400</v>
       </c>
       <c r="E59" s="3">
-        <v>249500</v>
+        <v>188700</v>
       </c>
       <c r="F59" s="3">
-        <v>212200</v>
+        <v>258000</v>
       </c>
       <c r="G59" s="3">
-        <v>175100</v>
+        <v>237700</v>
       </c>
       <c r="H59" s="3">
-        <v>293800</v>
+        <v>202200</v>
       </c>
       <c r="I59" s="3">
+        <v>166800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>279800</v>
+      </c>
+      <c r="K59" s="3">
         <v>238400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>99100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>157200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>262900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>279700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>141200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>204600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>497600</v>
+        <v>367800</v>
       </c>
       <c r="E60" s="3">
-        <v>554400</v>
+        <v>384600</v>
       </c>
       <c r="F60" s="3">
-        <v>455200</v>
+        <v>474000</v>
       </c>
       <c r="G60" s="3">
-        <v>415700</v>
+        <v>528200</v>
       </c>
       <c r="H60" s="3">
-        <v>535900</v>
+        <v>433600</v>
       </c>
       <c r="I60" s="3">
+        <v>396000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>510500</v>
+      </c>
+      <c r="K60" s="3">
         <v>596600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>376800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>407800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>535200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>535400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>377100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>432200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>675400</v>
+        <v>641000</v>
       </c>
       <c r="E61" s="3">
-        <v>653900</v>
+        <v>604100</v>
       </c>
       <c r="F61" s="3">
-        <v>637800</v>
+        <v>648300</v>
       </c>
       <c r="G61" s="3">
-        <v>649700</v>
+        <v>622900</v>
       </c>
       <c r="H61" s="3">
-        <v>636600</v>
+        <v>607600</v>
       </c>
       <c r="I61" s="3">
+        <v>619000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>606500</v>
+      </c>
+      <c r="K61" s="3">
         <v>629200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>590800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>619200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>623500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>649100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>679800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>692400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125700</v>
+        <v>151700</v>
       </c>
       <c r="E62" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>114900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>180700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>160500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>135900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>220400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>189900</v>
+      </c>
+      <c r="M62" s="3">
+        <v>181100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>172900</v>
+      </c>
+      <c r="O62" s="3">
         <v>189700</v>
       </c>
-      <c r="F62" s="3">
-        <v>168500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>146000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>142700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>220400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>189900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>181100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>172900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>189700</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>146700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>150200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1298700</v>
+        <v>1160600</v>
       </c>
       <c r="E66" s="3">
-        <v>1397900</v>
+        <v>1105500</v>
       </c>
       <c r="F66" s="3">
-        <v>1261500</v>
+        <v>1237200</v>
       </c>
       <c r="G66" s="3">
-        <v>1211300</v>
+        <v>1331800</v>
       </c>
       <c r="H66" s="3">
-        <v>1315200</v>
+        <v>1201800</v>
       </c>
       <c r="I66" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1446200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1157500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1208100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1331600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1374200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1203600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1274800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>495300</v>
+        <v>473500</v>
       </c>
       <c r="E72" s="3">
-        <v>493700</v>
+        <v>515300</v>
       </c>
       <c r="F72" s="3">
-        <v>537500</v>
+        <v>471900</v>
       </c>
       <c r="G72" s="3">
-        <v>542400</v>
+        <v>470300</v>
       </c>
       <c r="H72" s="3">
-        <v>507600</v>
+        <v>512100</v>
       </c>
       <c r="I72" s="3">
+        <v>516700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>483600</v>
+      </c>
+      <c r="K72" s="3">
         <v>498700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>556100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>565500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>590400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>577100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>562200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>582100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>530900</v>
+        <v>510000</v>
       </c>
       <c r="E76" s="3">
-        <v>536800</v>
+        <v>567800</v>
       </c>
       <c r="F76" s="3">
-        <v>586700</v>
+        <v>505800</v>
       </c>
       <c r="G76" s="3">
-        <v>585300</v>
+        <v>511400</v>
       </c>
       <c r="H76" s="3">
-        <v>559100</v>
+        <v>558900</v>
       </c>
       <c r="I76" s="3">
+        <v>557600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>532600</v>
+      </c>
+      <c r="K76" s="3">
         <v>552200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>629000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>624100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>649100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>626200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>602800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>615800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>31600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>23100</v>
+      </c>
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>31600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>23100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>46300</v>
+        <v>44400</v>
       </c>
       <c r="E83" s="3">
         <v>43000</v>
       </c>
       <c r="F83" s="3">
-        <v>43000</v>
+        <v>44100</v>
       </c>
       <c r="G83" s="3">
-        <v>47100</v>
+        <v>40900</v>
       </c>
       <c r="H83" s="3">
-        <v>49000</v>
+        <v>41000</v>
       </c>
       <c r="I83" s="3">
+        <v>44800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K83" s="3">
         <v>45800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>45300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>52300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>50400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>41500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>42900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>48800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18600</v>
+        <v>32400</v>
       </c>
       <c r="E89" s="3">
-        <v>194100</v>
+        <v>-18700</v>
       </c>
       <c r="F89" s="3">
-        <v>28800</v>
+        <v>-17700</v>
       </c>
       <c r="G89" s="3">
-        <v>-54800</v>
+        <v>184900</v>
       </c>
       <c r="H89" s="3">
-        <v>148400</v>
+        <v>27400</v>
       </c>
       <c r="I89" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K89" s="3">
         <v>130000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>27400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-57900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>23400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>231800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>52400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-55900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4100</v>
+        <v>-5700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6300</v>
+        <v>-12200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2000</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>-6300</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-208600</v>
+        <v>-31800</v>
       </c>
       <c r="E94" s="3">
-        <v>-39400</v>
+        <v>-20900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4700</v>
+        <v>-198800</v>
       </c>
       <c r="G94" s="3">
-        <v>-24000</v>
+        <v>-37600</v>
       </c>
       <c r="H94" s="3">
-        <v>-140400</v>
+        <v>-4500</v>
       </c>
       <c r="I94" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-21300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-20800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-116400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-31700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-15100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-14400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-15600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-15100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="P100" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11400</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>7500</v>
+        <v>-8500</v>
       </c>
       <c r="F101" s="3">
-        <v>-4500</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>-4300</v>
       </c>
       <c r="I101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K101" s="3">
         <v>9500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-216300</v>
+        <v>-13100</v>
       </c>
       <c r="E102" s="3">
-        <v>147100</v>
+        <v>-48600</v>
       </c>
       <c r="F102" s="3">
-        <v>4500</v>
+        <v>-206100</v>
       </c>
       <c r="G102" s="3">
-        <v>-73800</v>
+        <v>140100</v>
       </c>
       <c r="H102" s="3">
-        <v>7100</v>
+        <v>4300</v>
       </c>
       <c r="I102" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K102" s="3">
         <v>103800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-79500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-96600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>179500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>39400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-54700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>152300</v>
+        <v>163400</v>
       </c>
       <c r="E8" s="3">
-        <v>207500</v>
+        <v>222600</v>
       </c>
       <c r="F8" s="3">
-        <v>166800</v>
+        <v>178800</v>
       </c>
       <c r="G8" s="3">
-        <v>161800</v>
+        <v>173600</v>
       </c>
       <c r="H8" s="3">
-        <v>187300</v>
+        <v>200900</v>
       </c>
       <c r="I8" s="3">
-        <v>256900</v>
+        <v>275500</v>
       </c>
       <c r="J8" s="3">
-        <v>166300</v>
+        <v>178300</v>
       </c>
       <c r="K8" s="3">
         <v>157200</v>
@@ -1023,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>24100</v>
+        <v>25900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1067,22 +1067,22 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>43000</v>
+        <v>46100</v>
       </c>
       <c r="F15" s="3">
-        <v>44100</v>
+        <v>47300</v>
       </c>
       <c r="G15" s="3">
-        <v>40900</v>
+        <v>43900</v>
       </c>
       <c r="H15" s="3">
-        <v>41000</v>
+        <v>44000</v>
       </c>
       <c r="I15" s="3">
-        <v>44800</v>
+        <v>48100</v>
       </c>
       <c r="J15" s="3">
-        <v>46700</v>
+        <v>50100</v>
       </c>
       <c r="K15" s="3">
         <v>45800</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156400</v>
+        <v>167800</v>
       </c>
       <c r="E17" s="3">
-        <v>162500</v>
+        <v>174300</v>
       </c>
       <c r="F17" s="3">
-        <v>153200</v>
+        <v>164300</v>
       </c>
       <c r="G17" s="3">
-        <v>189100</v>
+        <v>202800</v>
       </c>
       <c r="H17" s="3">
-        <v>169700</v>
+        <v>182000</v>
       </c>
       <c r="I17" s="3">
-        <v>202700</v>
+        <v>217400</v>
       </c>
       <c r="J17" s="3">
-        <v>149200</v>
+        <v>160000</v>
       </c>
       <c r="K17" s="3">
         <v>187500</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4100</v>
+        <v>-4400</v>
       </c>
       <c r="E18" s="3">
-        <v>45000</v>
+        <v>48300</v>
       </c>
       <c r="F18" s="3">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="G18" s="3">
-        <v>-27300</v>
+        <v>-29300</v>
       </c>
       <c r="H18" s="3">
-        <v>17600</v>
+        <v>18900</v>
       </c>
       <c r="I18" s="3">
-        <v>54200</v>
+        <v>58100</v>
       </c>
       <c r="J18" s="3">
-        <v>17100</v>
+        <v>18300</v>
       </c>
       <c r="K18" s="3">
         <v>-30300</v>
@@ -1251,22 +1251,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31100</v>
+        <v>-33300</v>
       </c>
       <c r="E20" s="3">
-        <v>24600</v>
+        <v>26400</v>
       </c>
       <c r="F20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9200</v>
+        <v>9900</v>
       </c>
       <c r="E21" s="3">
-        <v>112600</v>
+        <v>120700</v>
       </c>
       <c r="F21" s="3">
-        <v>54200</v>
+        <v>58100</v>
       </c>
       <c r="G21" s="3">
-        <v>10400</v>
+        <v>11200</v>
       </c>
       <c r="H21" s="3">
-        <v>60500</v>
+        <v>64800</v>
       </c>
       <c r="I21" s="3">
-        <v>97700</v>
+        <v>104800</v>
       </c>
       <c r="J21" s="3">
-        <v>63600</v>
+        <v>68200</v>
       </c>
       <c r="K21" s="3">
         <v>4200</v>
@@ -1354,22 +1354,22 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G22" s="3">
         <v>6900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="3">
         <v>6500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6100</v>
       </c>
       <c r="K22" s="3">
         <v>6800</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35200</v>
+        <v>-37700</v>
       </c>
       <c r="E23" s="3">
-        <v>63700</v>
+        <v>68300</v>
       </c>
       <c r="F23" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G23" s="3">
-        <v>-37000</v>
+        <v>-39700</v>
       </c>
       <c r="H23" s="3">
-        <v>13700</v>
+        <v>14700</v>
       </c>
       <c r="I23" s="3">
-        <v>46400</v>
+        <v>49700</v>
       </c>
       <c r="J23" s="3">
-        <v>10800</v>
+        <v>11600</v>
       </c>
       <c r="K23" s="3">
         <v>-48300</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7000</v>
+        <v>-7500</v>
       </c>
       <c r="E24" s="3">
-        <v>15700</v>
+        <v>16800</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="3">
-        <v>-9700</v>
+        <v>-10400</v>
       </c>
       <c r="H24" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="I24" s="3">
-        <v>13400</v>
+        <v>14400</v>
       </c>
       <c r="J24" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K24" s="3">
         <v>-3900</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28100</v>
+        <v>-30200</v>
       </c>
       <c r="E26" s="3">
-        <v>48000</v>
+        <v>51500</v>
       </c>
       <c r="F26" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="3">
-        <v>-27300</v>
+        <v>-29300</v>
       </c>
       <c r="H26" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I26" s="3">
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="J26" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="K26" s="3">
         <v>-44500</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28100</v>
+        <v>-30200</v>
       </c>
       <c r="E27" s="3">
-        <v>48000</v>
+        <v>51500</v>
       </c>
       <c r="F27" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-27300</v>
+        <v>-29300</v>
       </c>
       <c r="H27" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I27" s="3">
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="J27" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="K27" s="3">
         <v>-44500</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-4900</v>
+        <v>-5300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1851,22 +1851,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31100</v>
+        <v>33300</v>
       </c>
       <c r="E32" s="3">
-        <v>-24600</v>
+        <v>-26400</v>
       </c>
       <c r="F32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
-        <v>3200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28100</v>
+        <v>-30200</v>
       </c>
       <c r="E33" s="3">
-        <v>43100</v>
+        <v>46200</v>
       </c>
       <c r="F33" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G33" s="3">
-        <v>-27300</v>
+        <v>-29300</v>
       </c>
       <c r="H33" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I33" s="3">
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="J33" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="K33" s="3">
         <v>-44500</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28100</v>
+        <v>-30200</v>
       </c>
       <c r="E35" s="3">
-        <v>43100</v>
+        <v>46200</v>
       </c>
       <c r="F35" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G35" s="3">
-        <v>-27300</v>
+        <v>-29300</v>
       </c>
       <c r="H35" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I35" s="3">
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="J35" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="K35" s="3">
         <v>-44500</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111200</v>
+        <v>119200</v>
       </c>
       <c r="E41" s="3">
-        <v>124200</v>
+        <v>133200</v>
       </c>
       <c r="F41" s="3">
-        <v>172800</v>
+        <v>185300</v>
       </c>
       <c r="G41" s="3">
-        <v>378900</v>
+        <v>406300</v>
       </c>
       <c r="H41" s="3">
-        <v>238800</v>
+        <v>256000</v>
       </c>
       <c r="I41" s="3">
-        <v>234500</v>
+        <v>251500</v>
       </c>
       <c r="J41" s="3">
-        <v>304800</v>
+        <v>326900</v>
       </c>
       <c r="K41" s="3">
         <v>312900</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>104900</v>
+        <v>112500</v>
       </c>
       <c r="E43" s="3">
-        <v>130100</v>
+        <v>139500</v>
       </c>
       <c r="F43" s="3">
-        <v>113200</v>
+        <v>121400</v>
       </c>
       <c r="G43" s="3">
-        <v>80300</v>
+        <v>86100</v>
       </c>
       <c r="H43" s="3">
-        <v>229200</v>
+        <v>245800</v>
       </c>
       <c r="I43" s="3">
-        <v>153700</v>
+        <v>164900</v>
       </c>
       <c r="J43" s="3">
-        <v>114100</v>
+        <v>122400</v>
       </c>
       <c r="K43" s="3">
         <v>218300</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="F44" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H44" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I44" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J44" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K44" s="3">
         <v>1800</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>15300</v>
       </c>
       <c r="E45" s="3">
-        <v>16300</v>
+        <v>17400</v>
       </c>
       <c r="F45" s="3">
-        <v>19300</v>
+        <v>20700</v>
       </c>
       <c r="G45" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
       </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>233200</v>
+        <v>250100</v>
       </c>
       <c r="E46" s="3">
-        <v>273700</v>
+        <v>293500</v>
       </c>
       <c r="F46" s="3">
-        <v>308600</v>
+        <v>330900</v>
       </c>
       <c r="G46" s="3">
-        <v>478300</v>
+        <v>512900</v>
       </c>
       <c r="H46" s="3">
-        <v>471100</v>
+        <v>505300</v>
       </c>
       <c r="I46" s="3">
-        <v>392200</v>
+        <v>420600</v>
       </c>
       <c r="J46" s="3">
-        <v>422900</v>
+        <v>453500</v>
       </c>
       <c r="K46" s="3">
         <v>534500</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>52300</v>
+        <v>56000</v>
       </c>
       <c r="E47" s="3">
-        <v>50000</v>
+        <v>53600</v>
       </c>
       <c r="F47" s="3">
-        <v>51600</v>
+        <v>55300</v>
       </c>
       <c r="G47" s="3">
-        <v>12200</v>
+        <v>13100</v>
       </c>
       <c r="H47" s="3">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="I47" s="3">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="J47" s="3">
-        <v>13200</v>
+        <v>14100</v>
       </c>
       <c r="K47" s="3">
         <v>6800</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>350600</v>
+        <v>376000</v>
       </c>
       <c r="E48" s="3">
-        <v>349100</v>
+        <v>374400</v>
       </c>
       <c r="F48" s="3">
-        <v>346800</v>
+        <v>371900</v>
       </c>
       <c r="G48" s="3">
-        <v>333800</v>
+        <v>357900</v>
       </c>
       <c r="H48" s="3">
-        <v>320400</v>
+        <v>343600</v>
       </c>
       <c r="I48" s="3">
-        <v>321100</v>
+        <v>344300</v>
       </c>
       <c r="J48" s="3">
-        <v>321900</v>
+        <v>345200</v>
       </c>
       <c r="K48" s="3">
         <v>353000</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>966500</v>
+        <v>1036500</v>
       </c>
       <c r="E49" s="3">
-        <v>934100</v>
+        <v>1001800</v>
       </c>
       <c r="F49" s="3">
-        <v>967600</v>
+        <v>1037700</v>
       </c>
       <c r="G49" s="3">
-        <v>946900</v>
+        <v>1015500</v>
       </c>
       <c r="H49" s="3">
-        <v>885000</v>
+        <v>949100</v>
       </c>
       <c r="I49" s="3">
-        <v>910700</v>
+        <v>976700</v>
       </c>
       <c r="J49" s="3">
-        <v>945200</v>
+        <v>1013600</v>
       </c>
       <c r="K49" s="3">
         <v>1033800</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68000</v>
+        <v>72900</v>
       </c>
       <c r="E52" s="3">
-        <v>66300</v>
+        <v>71100</v>
       </c>
       <c r="F52" s="3">
-        <v>68400</v>
+        <v>73400</v>
       </c>
       <c r="G52" s="3">
-        <v>72000</v>
+        <v>77200</v>
       </c>
       <c r="H52" s="3">
-        <v>71200</v>
+        <v>76400</v>
       </c>
       <c r="I52" s="3">
-        <v>74100</v>
+        <v>79500</v>
       </c>
       <c r="J52" s="3">
-        <v>82500</v>
+        <v>88400</v>
       </c>
       <c r="K52" s="3">
         <v>88100</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1670600</v>
+        <v>1791500</v>
       </c>
       <c r="E54" s="3">
-        <v>1673300</v>
+        <v>1794500</v>
       </c>
       <c r="F54" s="3">
-        <v>1743000</v>
+        <v>1869200</v>
       </c>
       <c r="G54" s="3">
-        <v>1843100</v>
+        <v>1976600</v>
       </c>
       <c r="H54" s="3">
-        <v>1760700</v>
+        <v>1888200</v>
       </c>
       <c r="I54" s="3">
-        <v>1711600</v>
+        <v>1835600</v>
       </c>
       <c r="J54" s="3">
-        <v>1785600</v>
+        <v>1914900</v>
       </c>
       <c r="K54" s="3">
         <v>1998400</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>235500</v>
+        <v>252600</v>
       </c>
       <c r="E57" s="3">
-        <v>187300</v>
+        <v>200900</v>
       </c>
       <c r="F57" s="3">
-        <v>211100</v>
+        <v>226400</v>
       </c>
       <c r="G57" s="3">
-        <v>283700</v>
+        <v>304300</v>
       </c>
       <c r="H57" s="3">
-        <v>228700</v>
+        <v>245300</v>
       </c>
       <c r="I57" s="3">
-        <v>222400</v>
+        <v>238500</v>
       </c>
       <c r="J57" s="3">
-        <v>227900</v>
+        <v>244400</v>
       </c>
       <c r="K57" s="3">
         <v>346500</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>8500</v>
+        <v>9100</v>
       </c>
       <c r="F58" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="G58" s="3">
-        <v>6700</v>
+        <v>7200</v>
       </c>
       <c r="H58" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="I58" s="3">
-        <v>6800</v>
+        <v>7300</v>
       </c>
       <c r="J58" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K58" s="3">
         <v>11700</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>127400</v>
+        <v>136600</v>
       </c>
       <c r="E59" s="3">
-        <v>188700</v>
+        <v>202400</v>
       </c>
       <c r="F59" s="3">
-        <v>258000</v>
+        <v>276700</v>
       </c>
       <c r="G59" s="3">
-        <v>237700</v>
+        <v>254900</v>
       </c>
       <c r="H59" s="3">
-        <v>202200</v>
+        <v>216800</v>
       </c>
       <c r="I59" s="3">
-        <v>166800</v>
+        <v>178900</v>
       </c>
       <c r="J59" s="3">
-        <v>279800</v>
+        <v>300100</v>
       </c>
       <c r="K59" s="3">
         <v>238400</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>367800</v>
+        <v>394500</v>
       </c>
       <c r="E60" s="3">
-        <v>384600</v>
+        <v>412400</v>
       </c>
       <c r="F60" s="3">
-        <v>474000</v>
+        <v>508400</v>
       </c>
       <c r="G60" s="3">
-        <v>528200</v>
+        <v>566400</v>
       </c>
       <c r="H60" s="3">
-        <v>433600</v>
+        <v>465000</v>
       </c>
       <c r="I60" s="3">
-        <v>396000</v>
+        <v>424700</v>
       </c>
       <c r="J60" s="3">
-        <v>510500</v>
+        <v>547500</v>
       </c>
       <c r="K60" s="3">
         <v>596600</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>641000</v>
+        <v>687500</v>
       </c>
       <c r="E61" s="3">
-        <v>604100</v>
+        <v>647800</v>
       </c>
       <c r="F61" s="3">
-        <v>648300</v>
+        <v>695300</v>
       </c>
       <c r="G61" s="3">
-        <v>622900</v>
+        <v>668000</v>
       </c>
       <c r="H61" s="3">
-        <v>607600</v>
+        <v>651600</v>
       </c>
       <c r="I61" s="3">
-        <v>619000</v>
+        <v>663800</v>
       </c>
       <c r="J61" s="3">
-        <v>606500</v>
+        <v>650400</v>
       </c>
       <c r="K61" s="3">
         <v>629200</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>151700</v>
+        <v>162700</v>
       </c>
       <c r="E62" s="3">
-        <v>116900</v>
+        <v>125400</v>
       </c>
       <c r="F62" s="3">
-        <v>114900</v>
+        <v>123200</v>
       </c>
       <c r="G62" s="3">
-        <v>180700</v>
+        <v>193800</v>
       </c>
       <c r="H62" s="3">
-        <v>160500</v>
+        <v>172100</v>
       </c>
       <c r="I62" s="3">
-        <v>139000</v>
+        <v>149100</v>
       </c>
       <c r="J62" s="3">
-        <v>135900</v>
+        <v>145800</v>
       </c>
       <c r="K62" s="3">
         <v>220400</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1160600</v>
+        <v>1244700</v>
       </c>
       <c r="E66" s="3">
-        <v>1105500</v>
+        <v>1185600</v>
       </c>
       <c r="F66" s="3">
-        <v>1237200</v>
+        <v>1326800</v>
       </c>
       <c r="G66" s="3">
-        <v>1331800</v>
+        <v>1428200</v>
       </c>
       <c r="H66" s="3">
-        <v>1201800</v>
+        <v>1288800</v>
       </c>
       <c r="I66" s="3">
-        <v>1154000</v>
+        <v>1237600</v>
       </c>
       <c r="J66" s="3">
-        <v>1252900</v>
+        <v>1343700</v>
       </c>
       <c r="K66" s="3">
         <v>1446200</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>473500</v>
+        <v>507700</v>
       </c>
       <c r="E72" s="3">
-        <v>515300</v>
+        <v>552600</v>
       </c>
       <c r="F72" s="3">
-        <v>471900</v>
+        <v>506000</v>
       </c>
       <c r="G72" s="3">
-        <v>470300</v>
+        <v>504400</v>
       </c>
       <c r="H72" s="3">
-        <v>512100</v>
+        <v>549200</v>
       </c>
       <c r="I72" s="3">
-        <v>516700</v>
+        <v>554200</v>
       </c>
       <c r="J72" s="3">
-        <v>483600</v>
+        <v>518600</v>
       </c>
       <c r="K72" s="3">
         <v>498700</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>510000</v>
+        <v>546900</v>
       </c>
       <c r="E76" s="3">
-        <v>567800</v>
+        <v>608900</v>
       </c>
       <c r="F76" s="3">
-        <v>505800</v>
+        <v>542400</v>
       </c>
       <c r="G76" s="3">
-        <v>511400</v>
+        <v>548400</v>
       </c>
       <c r="H76" s="3">
-        <v>558900</v>
+        <v>599400</v>
       </c>
       <c r="I76" s="3">
-        <v>557600</v>
+        <v>598000</v>
       </c>
       <c r="J76" s="3">
-        <v>532600</v>
+        <v>571200</v>
       </c>
       <c r="K76" s="3">
         <v>552200</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28100</v>
+        <v>-30200</v>
       </c>
       <c r="E81" s="3">
-        <v>43100</v>
+        <v>46200</v>
       </c>
       <c r="F81" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G81" s="3">
-        <v>-27300</v>
+        <v>-29300</v>
       </c>
       <c r="H81" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I81" s="3">
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="J81" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="K81" s="3">
         <v>-44500</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44400</v>
+        <v>47600</v>
       </c>
       <c r="E83" s="3">
-        <v>43000</v>
+        <v>46100</v>
       </c>
       <c r="F83" s="3">
-        <v>44100</v>
+        <v>47300</v>
       </c>
       <c r="G83" s="3">
-        <v>40900</v>
+        <v>43900</v>
       </c>
       <c r="H83" s="3">
-        <v>41000</v>
+        <v>44000</v>
       </c>
       <c r="I83" s="3">
-        <v>44800</v>
+        <v>48100</v>
       </c>
       <c r="J83" s="3">
-        <v>46700</v>
+        <v>50100</v>
       </c>
       <c r="K83" s="3">
         <v>45800</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32400</v>
+        <v>34700</v>
       </c>
       <c r="E89" s="3">
-        <v>-18700</v>
+        <v>-20100</v>
       </c>
       <c r="F89" s="3">
-        <v>-17700</v>
+        <v>-19000</v>
       </c>
       <c r="G89" s="3">
-        <v>184900</v>
+        <v>198300</v>
       </c>
       <c r="H89" s="3">
-        <v>27400</v>
+        <v>29400</v>
       </c>
       <c r="I89" s="3">
-        <v>-52200</v>
+        <v>-56000</v>
       </c>
       <c r="J89" s="3">
-        <v>141400</v>
+        <v>151600</v>
       </c>
       <c r="K89" s="3">
         <v>130000</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5700</v>
+        <v>-6200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-4200</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-6400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="J91" s="3">
-        <v>-6000</v>
+        <v>-6500</v>
       </c>
       <c r="K91" s="3">
         <v>-4800</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31800</v>
+        <v>-34200</v>
       </c>
       <c r="E94" s="3">
-        <v>-20900</v>
+        <v>-22400</v>
       </c>
       <c r="F94" s="3">
-        <v>-198800</v>
+        <v>-213200</v>
       </c>
       <c r="G94" s="3">
-        <v>-37600</v>
+        <v>-40300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4500</v>
+        <v>-4800</v>
       </c>
       <c r="I94" s="3">
-        <v>-22900</v>
+        <v>-24500</v>
       </c>
       <c r="J94" s="3">
-        <v>-133800</v>
+        <v>-143500</v>
       </c>
       <c r="K94" s="3">
         <v>-21300</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-14400</v>
+        <v>-15500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18600</v>
+        <v>-19900</v>
       </c>
       <c r="E100" s="3">
         <v>-500</v>
@@ -4830,16 +4830,16 @@
         <v>-500</v>
       </c>
       <c r="G100" s="3">
-        <v>-14400</v>
+        <v>-15500</v>
       </c>
       <c r="H100" s="3">
-        <v>-14300</v>
+        <v>-15300</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-4600</v>
+        <v>-5000</v>
       </c>
       <c r="K100" s="3">
         <v>-14400</v>
@@ -4871,25 +4871,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="E101" s="3">
-        <v>-8500</v>
+        <v>-9100</v>
       </c>
       <c r="F101" s="3">
-        <v>10800</v>
+        <v>11600</v>
       </c>
       <c r="G101" s="3">
-        <v>7200</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-4300</v>
+        <v>-4600</v>
       </c>
       <c r="I101" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="J101" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K101" s="3">
         <v>9500</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13100</v>
+        <v>-14000</v>
       </c>
       <c r="E102" s="3">
-        <v>-48600</v>
+        <v>-52100</v>
       </c>
       <c r="F102" s="3">
-        <v>-206100</v>
+        <v>-221000</v>
       </c>
       <c r="G102" s="3">
-        <v>140100</v>
+        <v>150300</v>
       </c>
       <c r="H102" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="I102" s="3">
-        <v>-70300</v>
+        <v>-75400</v>
       </c>
       <c r="J102" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="K102" s="3">
         <v>103800</v>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,145 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>163400</v>
+        <v>145100</v>
       </c>
       <c r="E8" s="3">
-        <v>222600</v>
+        <v>108500</v>
       </c>
       <c r="F8" s="3">
-        <v>178800</v>
+        <v>164700</v>
       </c>
       <c r="G8" s="3">
-        <v>173600</v>
+        <v>224300</v>
       </c>
       <c r="H8" s="3">
-        <v>200900</v>
+        <v>180300</v>
       </c>
       <c r="I8" s="3">
+        <v>174900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>202500</v>
+      </c>
+      <c r="K8" s="3">
         <v>275500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>178300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>157200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>190200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>231400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>187400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>229400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>167500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>207900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1042,70 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>25900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-6300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,49 +1113,55 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>46100</v>
+        <v>46300</v>
       </c>
       <c r="F15" s="3">
-        <v>47300</v>
+        <v>48000</v>
       </c>
       <c r="G15" s="3">
-        <v>43900</v>
+        <v>46400</v>
       </c>
       <c r="H15" s="3">
-        <v>44000</v>
+        <v>47700</v>
       </c>
       <c r="I15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K15" s="3">
         <v>48100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>50100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>45800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>45300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>52300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>50400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>41500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>42900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>48800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>167800</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>174300</v>
+        <v>160300</v>
       </c>
       <c r="F17" s="3">
-        <v>164300</v>
+        <v>169100</v>
       </c>
       <c r="G17" s="3">
-        <v>202800</v>
+        <v>175700</v>
       </c>
       <c r="H17" s="3">
-        <v>182000</v>
+        <v>165600</v>
       </c>
       <c r="I17" s="3">
+        <v>204500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>183500</v>
+      </c>
+      <c r="K17" s="3">
         <v>217400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>160000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>187500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>180800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>176400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>164000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>175800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>172900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>158300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="E18" s="3">
-        <v>48300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>14500</v>
-      </c>
       <c r="G18" s="3">
-        <v>-29300</v>
+        <v>48600</v>
       </c>
       <c r="H18" s="3">
-        <v>18900</v>
+        <v>14600</v>
       </c>
       <c r="I18" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K18" s="3">
         <v>58100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>18300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-30300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>55000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>23400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>53600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>49600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-33300</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>26400</v>
+        <v>-2600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3700</v>
+        <v>-26700</v>
       </c>
       <c r="G20" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-11200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>9900</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>120700</v>
+        <v>-3100</v>
       </c>
       <c r="F21" s="3">
-        <v>58100</v>
+        <v>16900</v>
       </c>
       <c r="G21" s="3">
+        <v>121700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>58600</v>
+      </c>
+      <c r="I21" s="3">
         <v>11200</v>
       </c>
-      <c r="H21" s="3">
-        <v>64800</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K21" s="3">
         <v>104800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>68200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>61600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>108000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>79400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>98100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>39700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>89700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,149 +1434,167 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6900</v>
-      </c>
       <c r="H22" s="3">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
         <v>7000</v>
       </c>
       <c r="J22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37700</v>
+        <v>-36000</v>
       </c>
       <c r="E23" s="3">
-        <v>68300</v>
+        <v>-62000</v>
       </c>
       <c r="F23" s="3">
-        <v>3300</v>
+        <v>-38000</v>
       </c>
       <c r="G23" s="3">
-        <v>-39700</v>
+        <v>68900</v>
       </c>
       <c r="H23" s="3">
-        <v>14700</v>
+        <v>3400</v>
       </c>
       <c r="I23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K23" s="3">
         <v>49700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-48300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>49300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>22300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>49600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>33800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7500</v>
+        <v>4300</v>
       </c>
       <c r="E24" s="3">
-        <v>16800</v>
+        <v>-12300</v>
       </c>
       <c r="F24" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-30200</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>51500</v>
+        <v>-49700</v>
       </c>
       <c r="F26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>10100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>35400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-44500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>38200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>31600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-30200</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>51500</v>
+        <v>-49700</v>
       </c>
       <c r="F27" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>10100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>35400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-44500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>38200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>31600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>23100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1704,38 +1826,38 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G29" s="3">
         <v>-5300</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-63900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>33300</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>-26400</v>
+        <v>2600</v>
       </c>
       <c r="F32" s="3">
-        <v>3700</v>
+        <v>26700</v>
       </c>
       <c r="G32" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>11200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-30200</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>46200</v>
+        <v>-48600</v>
       </c>
       <c r="F33" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>46600</v>
+      </c>
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>10100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>35400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-44500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-25700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>31600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-30200</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>46200</v>
+        <v>-48600</v>
       </c>
       <c r="F35" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>46600</v>
+      </c>
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>10100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>35400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-44500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-25700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>31600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>119200</v>
+        <v>78500</v>
       </c>
       <c r="E41" s="3">
-        <v>133200</v>
+        <v>68600</v>
       </c>
       <c r="F41" s="3">
-        <v>185300</v>
+        <v>120200</v>
       </c>
       <c r="G41" s="3">
-        <v>406300</v>
+        <v>134300</v>
       </c>
       <c r="H41" s="3">
-        <v>256000</v>
+        <v>186800</v>
       </c>
       <c r="I41" s="3">
+        <v>409600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K41" s="3">
         <v>251500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>326900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>312900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>209100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>202600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>282000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>378600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>201000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>161600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2420,406 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112500</v>
+        <v>130800</v>
       </c>
       <c r="E43" s="3">
-        <v>139500</v>
+        <v>217600</v>
       </c>
       <c r="F43" s="3">
-        <v>121400</v>
+        <v>113400</v>
       </c>
       <c r="G43" s="3">
-        <v>86100</v>
+        <v>140700</v>
       </c>
       <c r="H43" s="3">
-        <v>245800</v>
+        <v>122400</v>
       </c>
       <c r="I43" s="3">
+        <v>86800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>247800</v>
+      </c>
+      <c r="K43" s="3">
         <v>164900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>122400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>218300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>152200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>160500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>111200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>135300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>114100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>163800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15300</v>
+        <v>28900</v>
       </c>
       <c r="E45" s="3">
-        <v>17400</v>
+        <v>10200</v>
       </c>
       <c r="F45" s="3">
-        <v>20700</v>
+        <v>15400</v>
       </c>
       <c r="G45" s="3">
         <v>17600</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
+        <v>20900</v>
       </c>
       <c r="I45" s="3">
-        <v>800</v>
+        <v>17800</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>6000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>250100</v>
+      <c r="D46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>293500</v>
+        <v>299300</v>
       </c>
       <c r="F46" s="3">
-        <v>330900</v>
+        <v>252100</v>
       </c>
       <c r="G46" s="3">
-        <v>512900</v>
+        <v>295900</v>
       </c>
       <c r="H46" s="3">
-        <v>505300</v>
+        <v>333600</v>
       </c>
       <c r="I46" s="3">
+        <v>517000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>509300</v>
+      </c>
+      <c r="K46" s="3">
         <v>420600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>453500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>534500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>366700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>369100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>399100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>520200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>322100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>332900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56000</v>
+        <v>33400</v>
       </c>
       <c r="E47" s="3">
-        <v>53600</v>
+        <v>58200</v>
       </c>
       <c r="F47" s="3">
-        <v>55300</v>
+        <v>56500</v>
       </c>
       <c r="G47" s="3">
-        <v>13100</v>
+        <v>54000</v>
       </c>
       <c r="H47" s="3">
-        <v>13900</v>
+        <v>55800</v>
       </c>
       <c r="I47" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K47" s="3">
         <v>14400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>14100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>16200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>13000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>20100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>19700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>376000</v>
+        <v>370100</v>
       </c>
       <c r="E48" s="3">
-        <v>374400</v>
+        <v>372600</v>
       </c>
       <c r="F48" s="3">
-        <v>371900</v>
+        <v>379000</v>
       </c>
       <c r="G48" s="3">
-        <v>357900</v>
+        <v>377400</v>
       </c>
       <c r="H48" s="3">
-        <v>343600</v>
+        <v>374900</v>
       </c>
       <c r="I48" s="3">
+        <v>360800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>346300</v>
+      </c>
+      <c r="K48" s="3">
         <v>344300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>345200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>353000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>352800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>661600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>340100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>337400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>339900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>339900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1036500</v>
+        <v>1039400</v>
       </c>
       <c r="E49" s="3">
-        <v>1001800</v>
+        <v>1032100</v>
       </c>
       <c r="F49" s="3">
-        <v>1037700</v>
+        <v>1044800</v>
       </c>
       <c r="G49" s="3">
-        <v>1015500</v>
+        <v>1009800</v>
       </c>
       <c r="H49" s="3">
-        <v>949100</v>
+        <v>1046000</v>
       </c>
       <c r="I49" s="3">
+        <v>1023700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>956700</v>
+      </c>
+      <c r="K49" s="3">
         <v>976700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1013600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1033800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>972200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2008800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1050900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>935900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>931700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1018200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72900</v>
+        <v>73800</v>
       </c>
       <c r="E52" s="3">
-        <v>71100</v>
+        <v>79800</v>
       </c>
       <c r="F52" s="3">
-        <v>73400</v>
+        <v>73500</v>
       </c>
       <c r="G52" s="3">
-        <v>77200</v>
+        <v>71700</v>
       </c>
       <c r="H52" s="3">
-        <v>76400</v>
+        <v>74000</v>
       </c>
       <c r="I52" s="3">
+        <v>77800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K52" s="3">
         <v>79500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>88400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>88100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>104000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>102600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>177500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>186700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>192900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>194100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1791500</v>
+        <v>1759500</v>
       </c>
       <c r="E54" s="3">
-        <v>1794500</v>
+        <v>1841900</v>
       </c>
       <c r="F54" s="3">
-        <v>1869200</v>
+        <v>1805900</v>
       </c>
       <c r="G54" s="3">
-        <v>1976600</v>
+        <v>1808900</v>
       </c>
       <c r="H54" s="3">
-        <v>1888200</v>
+        <v>1884200</v>
       </c>
       <c r="I54" s="3">
+        <v>1992500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1903300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1835600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1914900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1998400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1786500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1832200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1980600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1806400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1890700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>252600</v>
+        <v>251400</v>
       </c>
       <c r="E57" s="3">
-        <v>200900</v>
+        <v>287700</v>
       </c>
       <c r="F57" s="3">
-        <v>226400</v>
+        <v>254600</v>
       </c>
       <c r="G57" s="3">
-        <v>304300</v>
+        <v>202500</v>
       </c>
       <c r="H57" s="3">
-        <v>245300</v>
+        <v>228300</v>
       </c>
       <c r="I57" s="3">
+        <v>306700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>247300</v>
+      </c>
+      <c r="K57" s="3">
         <v>238500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>244400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>346500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>270000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>238600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>264200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>248200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>232300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>219500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="F58" s="3">
         <v>5300</v>
       </c>
       <c r="G58" s="3">
-        <v>7200</v>
+        <v>9200</v>
       </c>
       <c r="H58" s="3">
-        <v>2900</v>
+        <v>5300</v>
       </c>
       <c r="I58" s="3">
         <v>7300</v>
       </c>
       <c r="J58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>11900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136600</v>
+        <v>230400</v>
       </c>
       <c r="E59" s="3">
-        <v>202400</v>
+        <v>233800</v>
       </c>
       <c r="F59" s="3">
-        <v>276700</v>
+        <v>137700</v>
       </c>
       <c r="G59" s="3">
-        <v>254900</v>
+        <v>204000</v>
       </c>
       <c r="H59" s="3">
-        <v>216800</v>
+        <v>278900</v>
       </c>
       <c r="I59" s="3">
+        <v>257000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K59" s="3">
         <v>178900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>238400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>99100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>157200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>262900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>279700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>141200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>204600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>394500</v>
+      <c r="D60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>412400</v>
+        <v>530400</v>
       </c>
       <c r="F60" s="3">
-        <v>508400</v>
+        <v>397600</v>
       </c>
       <c r="G60" s="3">
-        <v>566400</v>
+        <v>415700</v>
       </c>
       <c r="H60" s="3">
-        <v>465000</v>
+        <v>512400</v>
       </c>
       <c r="I60" s="3">
+        <v>571000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>468800</v>
+      </c>
+      <c r="K60" s="3">
         <v>424700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>547500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>596600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>376800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>407800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>535200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>535400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>377100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>432200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>687500</v>
+        <v>666400</v>
       </c>
       <c r="E61" s="3">
-        <v>647800</v>
+        <v>696800</v>
       </c>
       <c r="F61" s="3">
-        <v>695300</v>
+        <v>693000</v>
       </c>
       <c r="G61" s="3">
-        <v>668000</v>
+        <v>653000</v>
       </c>
       <c r="H61" s="3">
-        <v>651600</v>
+        <v>700900</v>
       </c>
       <c r="I61" s="3">
+        <v>673400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>656800</v>
+      </c>
+      <c r="K61" s="3">
         <v>663800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>650400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>629200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>590800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>619200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>623500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>649100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>679800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>692400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>162700</v>
+        <v>155500</v>
       </c>
       <c r="E62" s="3">
-        <v>125400</v>
+        <v>147200</v>
       </c>
       <c r="F62" s="3">
-        <v>123200</v>
+        <v>164000</v>
       </c>
       <c r="G62" s="3">
-        <v>193800</v>
+        <v>126400</v>
       </c>
       <c r="H62" s="3">
-        <v>172100</v>
+        <v>124200</v>
       </c>
       <c r="I62" s="3">
+        <v>195300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K62" s="3">
         <v>149100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>145800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>220400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>189900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>181100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>172900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>189700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>146700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>150200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>1244700</v>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>1185600</v>
+        <v>1374300</v>
       </c>
       <c r="F66" s="3">
-        <v>1326800</v>
+        <v>1254700</v>
       </c>
       <c r="G66" s="3">
-        <v>1428200</v>
+        <v>1195100</v>
       </c>
       <c r="H66" s="3">
-        <v>1288800</v>
+        <v>1337500</v>
       </c>
       <c r="I66" s="3">
+        <v>1439700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1299100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1237600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1343700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1446200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1157500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1208100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1331600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1374200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1203600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1274800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>507700</v>
+        <v>409000</v>
       </c>
       <c r="E72" s="3">
-        <v>552600</v>
+        <v>447700</v>
       </c>
       <c r="F72" s="3">
-        <v>506000</v>
+        <v>511800</v>
       </c>
       <c r="G72" s="3">
-        <v>504400</v>
+        <v>557000</v>
       </c>
       <c r="H72" s="3">
-        <v>549200</v>
+        <v>510100</v>
       </c>
       <c r="I72" s="3">
+        <v>508400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>553600</v>
+      </c>
+      <c r="K72" s="3">
         <v>554200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>518600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>498700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>556100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>565500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>590400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>577100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>562200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>582100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>546900</v>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>608900</v>
+        <v>467600</v>
       </c>
       <c r="F76" s="3">
-        <v>542400</v>
+        <v>551300</v>
       </c>
       <c r="G76" s="3">
-        <v>548400</v>
+        <v>613800</v>
       </c>
       <c r="H76" s="3">
-        <v>599400</v>
+        <v>546700</v>
       </c>
       <c r="I76" s="3">
+        <v>552800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>604200</v>
+      </c>
+      <c r="K76" s="3">
         <v>598000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>571200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>552200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>629000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>624100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>649100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>626200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>602800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>615800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-30200</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>46200</v>
+        <v>-48600</v>
       </c>
       <c r="F81" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>46600</v>
+      </c>
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>10100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>35400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-44500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-25700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>31600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>47600</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>46100</v>
+        <v>51300</v>
       </c>
       <c r="F83" s="3">
-        <v>47300</v>
+        <v>48000</v>
       </c>
       <c r="G83" s="3">
-        <v>43900</v>
+        <v>46400</v>
       </c>
       <c r="H83" s="3">
-        <v>44000</v>
+        <v>47700</v>
       </c>
       <c r="I83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K83" s="3">
         <v>48100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>50100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>45800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>45300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>52300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>50400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>41500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>42900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>48800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34700</v>
+        <v>83000</v>
       </c>
       <c r="E89" s="3">
-        <v>-20100</v>
+        <v>-700</v>
       </c>
       <c r="F89" s="3">
-        <v>-19000</v>
+        <v>35000</v>
       </c>
       <c r="G89" s="3">
-        <v>198300</v>
+        <v>-20300</v>
       </c>
       <c r="H89" s="3">
-        <v>29400</v>
+        <v>-19100</v>
       </c>
       <c r="I89" s="3">
+        <v>199900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-56000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>151600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>130000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>27400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-57900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>23400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>231800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>52400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-55900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34200</v>
+        <v>-71100</v>
       </c>
       <c r="E94" s="3">
-        <v>-22400</v>
+        <v>-11500</v>
       </c>
       <c r="F94" s="3">
-        <v>-213200</v>
+        <v>-34400</v>
       </c>
       <c r="G94" s="3">
-        <v>-40300</v>
+        <v>-22600</v>
       </c>
       <c r="H94" s="3">
-        <v>-4800</v>
+        <v>-214900</v>
       </c>
       <c r="I94" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-143500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-21300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-20800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-116400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-31700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,49 +5092,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-15900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-15500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-15600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-14300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19900</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-15500</v>
       </c>
-      <c r="H100" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-14300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-15100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5300</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-9100</v>
+        <v>1400</v>
       </c>
       <c r="F101" s="3">
-        <v>11600</v>
+        <v>5400</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>-9200</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>11700</v>
       </c>
       <c r="I101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>9500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-5300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-14000</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-52100</v>
+        <v>-51500</v>
       </c>
       <c r="F102" s="3">
-        <v>-221000</v>
+        <v>-14100</v>
       </c>
       <c r="G102" s="3">
-        <v>150300</v>
+        <v>-52500</v>
       </c>
       <c r="H102" s="3">
+        <v>-222800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>151500</v>
+      </c>
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-75400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>103800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-79500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-96600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>179500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>39400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-54700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>145100</v>
+        <v>237400</v>
       </c>
       <c r="E8" s="3">
-        <v>108500</v>
+        <v>149700</v>
       </c>
       <c r="F8" s="3">
-        <v>164700</v>
+        <v>111900</v>
       </c>
       <c r="G8" s="3">
-        <v>224300</v>
+        <v>169900</v>
       </c>
       <c r="H8" s="3">
-        <v>180300</v>
+        <v>231400</v>
       </c>
       <c r="I8" s="3">
-        <v>174900</v>
+        <v>185900</v>
       </c>
       <c r="J8" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K8" s="3">
         <v>202500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>275500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>178300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>231400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>187400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>167500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>207900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>5000</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>5200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>25900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-6300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,55 +1135,58 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>46300</v>
+        <v>48500</v>
       </c>
       <c r="F15" s="3">
-        <v>48000</v>
+        <v>47700</v>
       </c>
       <c r="G15" s="3">
-        <v>46400</v>
+        <v>49500</v>
       </c>
       <c r="H15" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="I15" s="3">
+        <v>49200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K15" s="3">
         <v>44300</v>
       </c>
-      <c r="J15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>52300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>50400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>42900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>170800</v>
       </c>
       <c r="E17" s="3">
-        <v>160300</v>
+        <v>186800</v>
       </c>
       <c r="F17" s="3">
-        <v>169100</v>
+        <v>165400</v>
       </c>
       <c r="G17" s="3">
-        <v>175700</v>
+        <v>174400</v>
       </c>
       <c r="H17" s="3">
-        <v>165600</v>
+        <v>181200</v>
       </c>
       <c r="I17" s="3">
-        <v>204500</v>
+        <v>170800</v>
       </c>
       <c r="J17" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K17" s="3">
         <v>183500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>217400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>187500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>180800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>176400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>164000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>175800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>172900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>158300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>66600</v>
       </c>
       <c r="E18" s="3">
-        <v>-51800</v>
+        <v>-37200</v>
       </c>
       <c r="F18" s="3">
-        <v>-4400</v>
+        <v>-53500</v>
       </c>
       <c r="G18" s="3">
-        <v>48600</v>
+        <v>-4600</v>
       </c>
       <c r="H18" s="3">
-        <v>14600</v>
+        <v>50200</v>
       </c>
       <c r="I18" s="3">
-        <v>-29500</v>
+        <v>15100</v>
       </c>
       <c r="J18" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K18" s="3">
         <v>19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>55000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>49600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>27000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2600</v>
+        <v>6100</v>
       </c>
       <c r="F20" s="3">
-        <v>-26700</v>
+        <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>26600</v>
+        <v>-27500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3800</v>
+        <v>27400</v>
       </c>
       <c r="I20" s="3">
-        <v>-3500</v>
+        <v>-3900</v>
       </c>
       <c r="J20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>94700</v>
       </c>
       <c r="E21" s="3">
-        <v>-3100</v>
+        <v>17400</v>
       </c>
       <c r="F21" s="3">
-        <v>16900</v>
+        <v>-3200</v>
       </c>
       <c r="G21" s="3">
-        <v>121700</v>
+        <v>17400</v>
       </c>
       <c r="H21" s="3">
-        <v>58600</v>
+        <v>125500</v>
       </c>
       <c r="I21" s="3">
-        <v>11200</v>
+        <v>60400</v>
       </c>
       <c r="J21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K21" s="3">
         <v>65400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>104800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>61600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>79400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>98100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>89700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,167 +1473,176 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>7500</v>
+        <v>6100</v>
       </c>
       <c r="F22" s="3">
-        <v>6900</v>
+        <v>7700</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="H22" s="3">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="I22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="J22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="S22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-36000</v>
+        <v>93600</v>
       </c>
       <c r="E23" s="3">
-        <v>-62000</v>
+        <v>-37200</v>
       </c>
       <c r="F23" s="3">
-        <v>-38000</v>
+        <v>-63900</v>
       </c>
       <c r="G23" s="3">
-        <v>68900</v>
+        <v>-39200</v>
       </c>
       <c r="H23" s="3">
-        <v>3400</v>
+        <v>71100</v>
       </c>
       <c r="I23" s="3">
-        <v>-40000</v>
+        <v>3500</v>
       </c>
       <c r="J23" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K23" s="3">
         <v>14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="E24" s="3">
-        <v>-12300</v>
+        <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>-13800</v>
+        <v>-12700</v>
       </c>
       <c r="G24" s="3">
-        <v>17000</v>
+        <v>-14200</v>
       </c>
       <c r="H24" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
-        <v>-10500</v>
-      </c>
       <c r="J24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>87600</v>
       </c>
       <c r="E26" s="3">
-        <v>-49700</v>
+        <v>-37000</v>
       </c>
       <c r="F26" s="3">
-        <v>-24300</v>
+        <v>-51200</v>
       </c>
       <c r="G26" s="3">
-        <v>51900</v>
+        <v>-25000</v>
       </c>
       <c r="H26" s="3">
+        <v>53600</v>
+      </c>
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-29500</v>
-      </c>
       <c r="J26" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K26" s="3">
         <v>10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-44500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>87600</v>
       </c>
       <c r="E27" s="3">
-        <v>-49700</v>
+        <v>-37000</v>
       </c>
       <c r="F27" s="3">
-        <v>-24300</v>
+        <v>-51200</v>
       </c>
       <c r="G27" s="3">
-        <v>51900</v>
+        <v>-25000</v>
       </c>
       <c r="H27" s="3">
+        <v>53600</v>
+      </c>
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-29500</v>
-      </c>
       <c r="J27" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1826,19 +1886,19 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F29" s="3">
         <v>1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>-6200</v>
-      </c>
       <c r="G29" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+        <v>-6400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1846,21 +1906,21 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-63900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-27000</v>
       </c>
       <c r="E32" s="3">
-        <v>2600</v>
+        <v>-6100</v>
       </c>
       <c r="F32" s="3">
-        <v>26700</v>
+        <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>-26600</v>
+        <v>27500</v>
       </c>
       <c r="H32" s="3">
-        <v>3800</v>
+        <v>-27400</v>
       </c>
       <c r="I32" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="J32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>87600</v>
       </c>
       <c r="E33" s="3">
-        <v>-48600</v>
+        <v>-41600</v>
       </c>
       <c r="F33" s="3">
-        <v>-30400</v>
+        <v>-50100</v>
       </c>
       <c r="G33" s="3">
-        <v>46600</v>
+        <v>-31400</v>
       </c>
       <c r="H33" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-29500</v>
-      </c>
       <c r="J33" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K33" s="3">
         <v>10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>87600</v>
       </c>
       <c r="E35" s="3">
-        <v>-48600</v>
+        <v>-41600</v>
       </c>
       <c r="F35" s="3">
-        <v>-30400</v>
+        <v>-50100</v>
       </c>
       <c r="G35" s="3">
-        <v>46600</v>
+        <v>-31400</v>
       </c>
       <c r="H35" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-29500</v>
-      </c>
       <c r="J35" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K35" s="3">
         <v>10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78500</v>
+        <v>110700</v>
       </c>
       <c r="E41" s="3">
-        <v>68600</v>
+        <v>80900</v>
       </c>
       <c r="F41" s="3">
-        <v>120200</v>
+        <v>70800</v>
       </c>
       <c r="G41" s="3">
-        <v>134300</v>
+        <v>123900</v>
       </c>
       <c r="H41" s="3">
-        <v>186800</v>
+        <v>138500</v>
       </c>
       <c r="I41" s="3">
-        <v>409600</v>
+        <v>192700</v>
       </c>
       <c r="J41" s="3">
+        <v>422400</v>
+      </c>
+      <c r="K41" s="3">
         <v>258100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>251500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>326900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>312900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>209100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>202600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>282000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>378600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>201000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>161600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>130800</v>
+        <v>178900</v>
       </c>
       <c r="E43" s="3">
-        <v>217600</v>
+        <v>135000</v>
       </c>
       <c r="F43" s="3">
-        <v>113400</v>
+        <v>224400</v>
       </c>
       <c r="G43" s="3">
-        <v>140700</v>
+        <v>116900</v>
       </c>
       <c r="H43" s="3">
+        <v>145100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>126200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>89600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>247800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>164900</v>
+      </c>
+      <c r="M43" s="3">
         <v>122400</v>
       </c>
-      <c r="I43" s="3">
-        <v>86800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>247800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>164900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>122400</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>218300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>152200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>160500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>135300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>114100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>163800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="E44" s="3">
-        <v>2900</v>
+        <v>4900</v>
       </c>
       <c r="F44" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G44" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H44" s="3">
         <v>3500</v>
       </c>
       <c r="I44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1800</v>
       </c>
       <c r="N44" s="3">
         <v>1800</v>
       </c>
       <c r="O44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28900</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>10200</v>
+        <v>29800</v>
       </c>
       <c r="F45" s="3">
-        <v>15400</v>
+        <v>10500</v>
       </c>
       <c r="G45" s="3">
-        <v>17600</v>
+        <v>15900</v>
       </c>
       <c r="H45" s="3">
-        <v>20900</v>
+        <v>18100</v>
       </c>
       <c r="I45" s="3">
-        <v>17800</v>
+        <v>21500</v>
       </c>
       <c r="J45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
+      <c r="D46" s="3">
+        <v>318100</v>
       </c>
       <c r="E46" s="3">
-        <v>299300</v>
+        <v>250500</v>
       </c>
       <c r="F46" s="3">
-        <v>252100</v>
+        <v>308700</v>
       </c>
       <c r="G46" s="3">
-        <v>295900</v>
+        <v>260000</v>
       </c>
       <c r="H46" s="3">
-        <v>333600</v>
+        <v>305200</v>
       </c>
       <c r="I46" s="3">
-        <v>517000</v>
+        <v>344100</v>
       </c>
       <c r="J46" s="3">
+        <v>533200</v>
+      </c>
+      <c r="K46" s="3">
         <v>509300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>420600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>453500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>534500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>366700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>369100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>399100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>520200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>322100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>332900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33400</v>
+        <v>47100</v>
       </c>
       <c r="E47" s="3">
-        <v>58200</v>
+        <v>34400</v>
       </c>
       <c r="F47" s="3">
-        <v>56500</v>
+        <v>60000</v>
       </c>
       <c r="G47" s="3">
-        <v>54000</v>
+        <v>58300</v>
       </c>
       <c r="H47" s="3">
-        <v>55800</v>
+        <v>55700</v>
       </c>
       <c r="I47" s="3">
-        <v>13200</v>
+        <v>57500</v>
       </c>
       <c r="J47" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K47" s="3">
         <v>14000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>370100</v>
+        <v>378700</v>
       </c>
       <c r="E48" s="3">
-        <v>372600</v>
+        <v>381700</v>
       </c>
       <c r="F48" s="3">
-        <v>379000</v>
+        <v>384300</v>
       </c>
       <c r="G48" s="3">
-        <v>377400</v>
+        <v>390900</v>
       </c>
       <c r="H48" s="3">
-        <v>374900</v>
+        <v>389300</v>
       </c>
       <c r="I48" s="3">
-        <v>360800</v>
+        <v>386600</v>
       </c>
       <c r="J48" s="3">
+        <v>372100</v>
+      </c>
+      <c r="K48" s="3">
         <v>346300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>344300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>345200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>353000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>352800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>661600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>340100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>337400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>339900</v>
       </c>
       <c r="S48" s="3">
         <v>339900</v>
       </c>
       <c r="T48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="U48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1039400</v>
+        <v>1067600</v>
       </c>
       <c r="E49" s="3">
-        <v>1032100</v>
+        <v>1072000</v>
       </c>
       <c r="F49" s="3">
-        <v>1044800</v>
+        <v>1064500</v>
       </c>
       <c r="G49" s="3">
-        <v>1009800</v>
+        <v>1077600</v>
       </c>
       <c r="H49" s="3">
-        <v>1046000</v>
+        <v>1041500</v>
       </c>
       <c r="I49" s="3">
-        <v>1023700</v>
+        <v>1078900</v>
       </c>
       <c r="J49" s="3">
+        <v>1055800</v>
+      </c>
+      <c r="K49" s="3">
         <v>956700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>976700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1013600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1033800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>972200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2008800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1050900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>935900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>931700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1018200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73800</v>
+        <v>85600</v>
       </c>
       <c r="E52" s="3">
-        <v>79800</v>
+        <v>76100</v>
       </c>
       <c r="F52" s="3">
-        <v>73500</v>
+        <v>82400</v>
       </c>
       <c r="G52" s="3">
-        <v>71700</v>
+        <v>75800</v>
       </c>
       <c r="H52" s="3">
         <v>74000</v>
       </c>
       <c r="I52" s="3">
-        <v>77800</v>
+        <v>76300</v>
       </c>
       <c r="J52" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K52" s="3">
         <v>77000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>88100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>102600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>177500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>186700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>192900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>194100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1759500</v>
+        <v>1897200</v>
       </c>
       <c r="E54" s="3">
-        <v>1841900</v>
+        <v>1814700</v>
       </c>
       <c r="F54" s="3">
-        <v>1805900</v>
+        <v>1899800</v>
       </c>
       <c r="G54" s="3">
-        <v>1808900</v>
+        <v>1862600</v>
       </c>
       <c r="H54" s="3">
-        <v>1884200</v>
+        <v>1865700</v>
       </c>
       <c r="I54" s="3">
-        <v>1992500</v>
+        <v>1943400</v>
       </c>
       <c r="J54" s="3">
+        <v>2055000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1903300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1835600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1914900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1998400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1786500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1832200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1980600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2000400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1806400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1890700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>251400</v>
+        <v>237600</v>
       </c>
       <c r="E57" s="3">
-        <v>287700</v>
+        <v>259300</v>
       </c>
       <c r="F57" s="3">
-        <v>254600</v>
+        <v>296700</v>
       </c>
       <c r="G57" s="3">
-        <v>202500</v>
+        <v>262600</v>
       </c>
       <c r="H57" s="3">
-        <v>228300</v>
+        <v>208900</v>
       </c>
       <c r="I57" s="3">
-        <v>306700</v>
+        <v>235400</v>
       </c>
       <c r="J57" s="3">
+        <v>316400</v>
+      </c>
+      <c r="K57" s="3">
         <v>247300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>238500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>244400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>346500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>270000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>238600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>264200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>248200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>232300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>219500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4000</v>
+        <v>90200</v>
       </c>
       <c r="E58" s="3">
-        <v>8900</v>
+        <v>4200</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
+        <v>9200</v>
       </c>
       <c r="G58" s="3">
-        <v>9200</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>5300</v>
+        <v>9500</v>
       </c>
       <c r="I58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="J58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230400</v>
+        <v>206300</v>
       </c>
       <c r="E59" s="3">
-        <v>233800</v>
+        <v>237600</v>
       </c>
       <c r="F59" s="3">
-        <v>137700</v>
+        <v>241100</v>
       </c>
       <c r="G59" s="3">
-        <v>204000</v>
+        <v>142100</v>
       </c>
       <c r="H59" s="3">
-        <v>278900</v>
+        <v>210400</v>
       </c>
       <c r="I59" s="3">
-        <v>257000</v>
+        <v>287600</v>
       </c>
       <c r="J59" s="3">
+        <v>265000</v>
+      </c>
+      <c r="K59" s="3">
         <v>218600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>238400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>157200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>262900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>279700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>141200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
+      <c r="D60" s="3">
+        <v>534100</v>
       </c>
       <c r="E60" s="3">
-        <v>530400</v>
+        <v>501100</v>
       </c>
       <c r="F60" s="3">
-        <v>397600</v>
+        <v>547000</v>
       </c>
       <c r="G60" s="3">
-        <v>415700</v>
+        <v>410100</v>
       </c>
       <c r="H60" s="3">
-        <v>512400</v>
+        <v>428800</v>
       </c>
       <c r="I60" s="3">
-        <v>571000</v>
+        <v>528500</v>
       </c>
       <c r="J60" s="3">
+        <v>588900</v>
+      </c>
+      <c r="K60" s="3">
         <v>468800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>424700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>547500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>596600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>376800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>407800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>535200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>535400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>377100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>432200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>666400</v>
+        <v>651300</v>
       </c>
       <c r="E61" s="3">
-        <v>696800</v>
+        <v>687300</v>
       </c>
       <c r="F61" s="3">
-        <v>693000</v>
+        <v>718600</v>
       </c>
       <c r="G61" s="3">
-        <v>653000</v>
+        <v>714700</v>
       </c>
       <c r="H61" s="3">
-        <v>700900</v>
+        <v>673500</v>
       </c>
       <c r="I61" s="3">
-        <v>673400</v>
+        <v>722900</v>
       </c>
       <c r="J61" s="3">
+        <v>694500</v>
+      </c>
+      <c r="K61" s="3">
         <v>656800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>663800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>650400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>629200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>590800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>619200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>623500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>649100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>679800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>692400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>155500</v>
+        <v>154900</v>
       </c>
       <c r="E62" s="3">
-        <v>147200</v>
+        <v>160400</v>
       </c>
       <c r="F62" s="3">
-        <v>164000</v>
+        <v>151800</v>
       </c>
       <c r="G62" s="3">
-        <v>126400</v>
+        <v>169200</v>
       </c>
       <c r="H62" s="3">
-        <v>124200</v>
+        <v>130400</v>
       </c>
       <c r="I62" s="3">
-        <v>195300</v>
+        <v>128100</v>
       </c>
       <c r="J62" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K62" s="3">
         <v>173500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>149100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>145800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>220400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>189900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>181100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>172900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>189700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>146700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>150200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>1340300</v>
       </c>
       <c r="E66" s="3">
-        <v>1374300</v>
+        <v>1348700</v>
       </c>
       <c r="F66" s="3">
-        <v>1254700</v>
+        <v>1417500</v>
       </c>
       <c r="G66" s="3">
-        <v>1195100</v>
+        <v>1294000</v>
       </c>
       <c r="H66" s="3">
-        <v>1337500</v>
+        <v>1232600</v>
       </c>
       <c r="I66" s="3">
-        <v>1439700</v>
+        <v>1379500</v>
       </c>
       <c r="J66" s="3">
+        <v>1484900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1299100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1237600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1343700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1446200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1157500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1208100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1331600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1374200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1203600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1274800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>409000</v>
+        <v>510200</v>
       </c>
       <c r="E72" s="3">
-        <v>447700</v>
+        <v>421900</v>
       </c>
       <c r="F72" s="3">
-        <v>511800</v>
+        <v>461700</v>
       </c>
       <c r="G72" s="3">
-        <v>557000</v>
+        <v>527900</v>
       </c>
       <c r="H72" s="3">
-        <v>510100</v>
+        <v>574500</v>
       </c>
       <c r="I72" s="3">
-        <v>508400</v>
+        <v>526100</v>
       </c>
       <c r="J72" s="3">
+        <v>524400</v>
+      </c>
+      <c r="K72" s="3">
         <v>553600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>554200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>518600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>498700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>556100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>565500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>590400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>577100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>562200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>582100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>556900</v>
       </c>
       <c r="E76" s="3">
-        <v>467600</v>
+        <v>466000</v>
       </c>
       <c r="F76" s="3">
-        <v>551300</v>
+        <v>482300</v>
       </c>
       <c r="G76" s="3">
-        <v>613800</v>
+        <v>568600</v>
       </c>
       <c r="H76" s="3">
-        <v>546700</v>
+        <v>633000</v>
       </c>
       <c r="I76" s="3">
-        <v>552800</v>
+        <v>563900</v>
       </c>
       <c r="J76" s="3">
+        <v>570200</v>
+      </c>
+      <c r="K76" s="3">
         <v>604200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>598000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>571200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>552200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>629000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>624100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>649100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>626200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>602800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>615800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>87600</v>
       </c>
       <c r="E81" s="3">
-        <v>-48600</v>
+        <v>-41600</v>
       </c>
       <c r="F81" s="3">
-        <v>-30400</v>
+        <v>-50100</v>
       </c>
       <c r="G81" s="3">
-        <v>46600</v>
+        <v>-31400</v>
       </c>
       <c r="H81" s="3">
+        <v>48100</v>
+      </c>
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-29500</v>
-      </c>
       <c r="J81" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K81" s="3">
         <v>10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,55 +4630,58 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>51300</v>
+        <v>48500</v>
       </c>
       <c r="F83" s="3">
-        <v>48000</v>
+        <v>52900</v>
       </c>
       <c r="G83" s="3">
-        <v>46400</v>
+        <v>49500</v>
       </c>
       <c r="H83" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="I83" s="3">
+        <v>49200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K83" s="3">
         <v>44300</v>
       </c>
-      <c r="J83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>83000</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
+        <v>85600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>35000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-20300</v>
+        <v>36100</v>
       </c>
       <c r="H89" s="3">
-        <v>-19100</v>
+        <v>-20900</v>
       </c>
       <c r="I89" s="3">
-        <v>199900</v>
+        <v>-19700</v>
       </c>
       <c r="J89" s="3">
+        <v>206200</v>
+      </c>
+      <c r="K89" s="3">
         <v>29600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-56000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>151600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>130000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-57900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>231800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>52400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-55900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71100</v>
+        <v>-51200</v>
       </c>
       <c r="E94" s="3">
-        <v>-11500</v>
+        <v>-73400</v>
       </c>
       <c r="F94" s="3">
-        <v>-34400</v>
+        <v>-11900</v>
       </c>
       <c r="G94" s="3">
-        <v>-22600</v>
+        <v>-35500</v>
       </c>
       <c r="H94" s="3">
-        <v>-214900</v>
+        <v>-23300</v>
       </c>
       <c r="I94" s="3">
-        <v>-40600</v>
+        <v>-221600</v>
       </c>
       <c r="J94" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-143500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-116400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-15900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-16300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5104,43 +5337,46 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500</v>
+        <v>81800</v>
       </c>
       <c r="E100" s="3">
-        <v>-40700</v>
+        <v>-600</v>
       </c>
       <c r="F100" s="3">
-        <v>-20100</v>
+        <v>-41900</v>
       </c>
       <c r="G100" s="3">
-        <v>-500</v>
+        <v>-20700</v>
       </c>
       <c r="H100" s="3">
         <v>-500</v>
       </c>
       <c r="I100" s="3">
-        <v>-15600</v>
+        <v>-500</v>
       </c>
       <c r="J100" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-15100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
-        <v>5400</v>
-      </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>5500</v>
       </c>
       <c r="H101" s="3">
-        <v>11700</v>
+        <v>-9500</v>
       </c>
       <c r="I101" s="3">
-        <v>7800</v>
+        <v>12100</v>
       </c>
       <c r="J101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>29800</v>
       </c>
       <c r="E102" s="3">
-        <v>-51500</v>
+        <v>10200</v>
       </c>
       <c r="F102" s="3">
-        <v>-14100</v>
+        <v>-53200</v>
       </c>
       <c r="G102" s="3">
-        <v>-52500</v>
+        <v>-14600</v>
       </c>
       <c r="H102" s="3">
-        <v>-222800</v>
+        <v>-54200</v>
       </c>
       <c r="I102" s="3">
-        <v>151500</v>
+        <v>-229800</v>
       </c>
       <c r="J102" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-75400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>103800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-79500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-96600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>179500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-54700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>237400</v>
+        <v>244700</v>
       </c>
       <c r="E8" s="3">
-        <v>149700</v>
+        <v>154200</v>
       </c>
       <c r="F8" s="3">
-        <v>111900</v>
+        <v>115300</v>
       </c>
       <c r="G8" s="3">
-        <v>169900</v>
+        <v>175000</v>
       </c>
       <c r="H8" s="3">
-        <v>231400</v>
+        <v>238400</v>
       </c>
       <c r="I8" s="3">
+        <v>191600</v>
+      </c>
+      <c r="J8" s="3">
         <v>185900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>180400</v>
       </c>
       <c r="K8" s="3">
         <v>202500</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>48500</v>
+        <v>50000</v>
       </c>
       <c r="F15" s="3">
-        <v>47700</v>
+        <v>49200</v>
       </c>
       <c r="G15" s="3">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="H15" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="I15" s="3">
-        <v>49200</v>
+        <v>50700</v>
       </c>
       <c r="J15" s="3">
-        <v>45700</v>
+        <v>47000</v>
       </c>
       <c r="K15" s="3">
         <v>44300</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>170800</v>
+        <v>176000</v>
       </c>
       <c r="E17" s="3">
-        <v>186800</v>
+        <v>192600</v>
       </c>
       <c r="F17" s="3">
-        <v>165400</v>
+        <v>170400</v>
       </c>
       <c r="G17" s="3">
-        <v>174400</v>
+        <v>179700</v>
       </c>
       <c r="H17" s="3">
-        <v>181200</v>
+        <v>186700</v>
       </c>
       <c r="I17" s="3">
-        <v>170800</v>
+        <v>176000</v>
       </c>
       <c r="J17" s="3">
-        <v>210900</v>
+        <v>217300</v>
       </c>
       <c r="K17" s="3">
         <v>183500</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>66600</v>
+        <v>68700</v>
       </c>
       <c r="E18" s="3">
-        <v>-37200</v>
+        <v>-38300</v>
       </c>
       <c r="F18" s="3">
-        <v>-53500</v>
+        <v>-55100</v>
       </c>
       <c r="G18" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H18" s="3">
-        <v>50200</v>
+        <v>51700</v>
       </c>
       <c r="I18" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="J18" s="3">
-        <v>-30400</v>
+        <v>-31400</v>
       </c>
       <c r="K18" s="3">
         <v>19000</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27000</v>
+        <v>27800</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G20" s="3">
-        <v>-27500</v>
+        <v>-28300</v>
       </c>
       <c r="H20" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="I20" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J20" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K20" s="3">
         <v>2000</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94700</v>
+        <v>97600</v>
       </c>
       <c r="E21" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="F21" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G21" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="H21" s="3">
-        <v>125500</v>
+        <v>129300</v>
       </c>
       <c r="I21" s="3">
-        <v>60400</v>
+        <v>62200</v>
       </c>
       <c r="J21" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="K21" s="3">
         <v>65400</v>
@@ -1473,22 +1473,22 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="G22" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H22" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I22" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J22" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K22" s="3">
         <v>6200</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>93600</v>
+        <v>96500</v>
       </c>
       <c r="E23" s="3">
-        <v>-37200</v>
+        <v>-38300</v>
       </c>
       <c r="F23" s="3">
-        <v>-63900</v>
+        <v>-65900</v>
       </c>
       <c r="G23" s="3">
-        <v>-39200</v>
+        <v>-40400</v>
       </c>
       <c r="H23" s="3">
-        <v>71100</v>
+        <v>73200</v>
       </c>
       <c r="I23" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J23" s="3">
-        <v>-41200</v>
+        <v>-42500</v>
       </c>
       <c r="K23" s="3">
         <v>14800</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>-12700</v>
+        <v>-13100</v>
       </c>
       <c r="G24" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="H24" s="3">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="I24" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="3">
-        <v>-10800</v>
+        <v>-11100</v>
       </c>
       <c r="K24" s="3">
         <v>4600</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="E26" s="3">
-        <v>-37000</v>
+        <v>-38200</v>
       </c>
       <c r="F26" s="3">
-        <v>-51200</v>
+        <v>-52800</v>
       </c>
       <c r="G26" s="3">
-        <v>-25000</v>
+        <v>-25800</v>
       </c>
       <c r="H26" s="3">
-        <v>53600</v>
+        <v>55200</v>
       </c>
       <c r="I26" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J26" s="3">
-        <v>-30500</v>
+        <v>-31400</v>
       </c>
       <c r="K26" s="3">
         <v>10200</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="E27" s="3">
-        <v>-37000</v>
+        <v>-38200</v>
       </c>
       <c r="F27" s="3">
-        <v>-51200</v>
+        <v>-52800</v>
       </c>
       <c r="G27" s="3">
-        <v>-25000</v>
+        <v>-25800</v>
       </c>
       <c r="H27" s="3">
-        <v>53600</v>
+        <v>55200</v>
       </c>
       <c r="I27" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J27" s="3">
-        <v>-30500</v>
+        <v>-31400</v>
       </c>
       <c r="K27" s="3">
         <v>10200</v>
@@ -1886,16 +1886,16 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="F29" s="3">
         <v>1100</v>
       </c>
       <c r="G29" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="H29" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27000</v>
+        <v>-27800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G32" s="3">
-        <v>27500</v>
+        <v>28300</v>
       </c>
       <c r="H32" s="3">
-        <v>-27400</v>
+        <v>-28300</v>
       </c>
       <c r="I32" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K32" s="3">
         <v>-2000</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="E33" s="3">
-        <v>-41600</v>
+        <v>-42800</v>
       </c>
       <c r="F33" s="3">
-        <v>-50100</v>
+        <v>-51700</v>
       </c>
       <c r="G33" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>49500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-31400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>48100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-30500</v>
       </c>
       <c r="K33" s="3">
         <v>10200</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="E35" s="3">
-        <v>-41600</v>
+        <v>-42800</v>
       </c>
       <c r="F35" s="3">
-        <v>-50100</v>
+        <v>-51700</v>
       </c>
       <c r="G35" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>49500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-31400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>48100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-30500</v>
       </c>
       <c r="K35" s="3">
         <v>10200</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>110700</v>
+        <v>114100</v>
       </c>
       <c r="E41" s="3">
-        <v>80900</v>
+        <v>83400</v>
       </c>
       <c r="F41" s="3">
-        <v>70800</v>
+        <v>72900</v>
       </c>
       <c r="G41" s="3">
-        <v>123900</v>
+        <v>127700</v>
       </c>
       <c r="H41" s="3">
-        <v>138500</v>
+        <v>142700</v>
       </c>
       <c r="I41" s="3">
-        <v>192700</v>
+        <v>198500</v>
       </c>
       <c r="J41" s="3">
-        <v>422400</v>
+        <v>435300</v>
       </c>
       <c r="K41" s="3">
         <v>258100</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>178900</v>
+        <v>184400</v>
       </c>
       <c r="E43" s="3">
-        <v>135000</v>
+        <v>139100</v>
       </c>
       <c r="F43" s="3">
-        <v>224400</v>
+        <v>231200</v>
       </c>
       <c r="G43" s="3">
-        <v>116900</v>
+        <v>120500</v>
       </c>
       <c r="H43" s="3">
-        <v>145100</v>
+        <v>149500</v>
       </c>
       <c r="I43" s="3">
-        <v>126200</v>
+        <v>130100</v>
       </c>
       <c r="J43" s="3">
-        <v>89600</v>
+        <v>92300</v>
       </c>
       <c r="K43" s="3">
         <v>247800</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2900</v>
       </c>
       <c r="K44" s="3">
         <v>2800</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24700</v>
+        <v>25400</v>
       </c>
       <c r="E45" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="F45" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G45" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="H45" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="I45" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="J45" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>327800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>258200</v>
+      </c>
+      <c r="F46" s="3">
         <v>318100</v>
       </c>
-      <c r="E46" s="3">
-        <v>250500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>308700</v>
-      </c>
       <c r="G46" s="3">
-        <v>260000</v>
+        <v>268000</v>
       </c>
       <c r="H46" s="3">
-        <v>305200</v>
+        <v>314500</v>
       </c>
       <c r="I46" s="3">
-        <v>344100</v>
+        <v>354600</v>
       </c>
       <c r="J46" s="3">
-        <v>533200</v>
+        <v>549500</v>
       </c>
       <c r="K46" s="3">
         <v>509300</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47100</v>
+        <v>48600</v>
       </c>
       <c r="E47" s="3">
-        <v>34400</v>
+        <v>35500</v>
       </c>
       <c r="F47" s="3">
+        <v>61800</v>
+      </c>
+      <c r="G47" s="3">
         <v>60000</v>
       </c>
-      <c r="G47" s="3">
-        <v>58300</v>
-      </c>
       <c r="H47" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="I47" s="3">
-        <v>57500</v>
+        <v>59300</v>
       </c>
       <c r="J47" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K47" s="3">
         <v>14000</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>378700</v>
+        <v>390300</v>
       </c>
       <c r="E48" s="3">
-        <v>381700</v>
+        <v>393400</v>
       </c>
       <c r="F48" s="3">
-        <v>384300</v>
+        <v>396000</v>
       </c>
       <c r="G48" s="3">
-        <v>390900</v>
+        <v>402900</v>
       </c>
       <c r="H48" s="3">
-        <v>389300</v>
+        <v>401200</v>
       </c>
       <c r="I48" s="3">
-        <v>386600</v>
+        <v>398400</v>
       </c>
       <c r="J48" s="3">
-        <v>372100</v>
+        <v>383500</v>
       </c>
       <c r="K48" s="3">
         <v>346300</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1067600</v>
+        <v>1100200</v>
       </c>
       <c r="E49" s="3">
-        <v>1072000</v>
+        <v>1104700</v>
       </c>
       <c r="F49" s="3">
-        <v>1064500</v>
+        <v>1097000</v>
       </c>
       <c r="G49" s="3">
-        <v>1077600</v>
+        <v>1110500</v>
       </c>
       <c r="H49" s="3">
-        <v>1041500</v>
+        <v>1073300</v>
       </c>
       <c r="I49" s="3">
-        <v>1078900</v>
+        <v>1111800</v>
       </c>
       <c r="J49" s="3">
-        <v>1055800</v>
+        <v>1088000</v>
       </c>
       <c r="K49" s="3">
         <v>956700</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85600</v>
+        <v>88200</v>
       </c>
       <c r="E52" s="3">
-        <v>76100</v>
+        <v>78400</v>
       </c>
       <c r="F52" s="3">
-        <v>82400</v>
+        <v>84900</v>
       </c>
       <c r="G52" s="3">
-        <v>75800</v>
+        <v>78100</v>
       </c>
       <c r="H52" s="3">
-        <v>74000</v>
+        <v>76200</v>
       </c>
       <c r="I52" s="3">
-        <v>76300</v>
+        <v>78600</v>
       </c>
       <c r="J52" s="3">
-        <v>80300</v>
+        <v>82700</v>
       </c>
       <c r="K52" s="3">
         <v>77000</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1897200</v>
+        <v>1955100</v>
       </c>
       <c r="E54" s="3">
-        <v>1814700</v>
+        <v>1870100</v>
       </c>
       <c r="F54" s="3">
-        <v>1899800</v>
+        <v>1957800</v>
       </c>
       <c r="G54" s="3">
-        <v>1862600</v>
+        <v>1919500</v>
       </c>
       <c r="H54" s="3">
-        <v>1865700</v>
+        <v>1922600</v>
       </c>
       <c r="I54" s="3">
-        <v>1943400</v>
+        <v>2002700</v>
       </c>
       <c r="J54" s="3">
-        <v>2055000</v>
+        <v>2117700</v>
       </c>
       <c r="K54" s="3">
         <v>1903300</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>237600</v>
+        <v>244800</v>
       </c>
       <c r="E57" s="3">
-        <v>259300</v>
+        <v>267200</v>
       </c>
       <c r="F57" s="3">
-        <v>296700</v>
+        <v>305800</v>
       </c>
       <c r="G57" s="3">
-        <v>262600</v>
+        <v>270600</v>
       </c>
       <c r="H57" s="3">
-        <v>208900</v>
+        <v>215200</v>
       </c>
       <c r="I57" s="3">
-        <v>235400</v>
+        <v>242600</v>
       </c>
       <c r="J57" s="3">
-        <v>316400</v>
+        <v>326000</v>
       </c>
       <c r="K57" s="3">
         <v>247300</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90200</v>
+        <v>92900</v>
       </c>
       <c r="E58" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="I58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J58" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K58" s="3">
         <v>2900</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206300</v>
+        <v>212600</v>
       </c>
       <c r="E59" s="3">
-        <v>237600</v>
+        <v>244900</v>
       </c>
       <c r="F59" s="3">
-        <v>241100</v>
+        <v>248500</v>
       </c>
       <c r="G59" s="3">
-        <v>142100</v>
+        <v>146400</v>
       </c>
       <c r="H59" s="3">
-        <v>210400</v>
+        <v>216800</v>
       </c>
       <c r="I59" s="3">
-        <v>287600</v>
+        <v>296400</v>
       </c>
       <c r="J59" s="3">
-        <v>265000</v>
+        <v>273100</v>
       </c>
       <c r="K59" s="3">
         <v>218600</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>534100</v>
+        <v>550400</v>
       </c>
       <c r="E60" s="3">
-        <v>501100</v>
+        <v>516400</v>
       </c>
       <c r="F60" s="3">
-        <v>547000</v>
+        <v>563700</v>
       </c>
       <c r="G60" s="3">
-        <v>410100</v>
+        <v>422600</v>
       </c>
       <c r="H60" s="3">
-        <v>428800</v>
+        <v>441900</v>
       </c>
       <c r="I60" s="3">
-        <v>528500</v>
+        <v>544700</v>
       </c>
       <c r="J60" s="3">
-        <v>588900</v>
+        <v>606900</v>
       </c>
       <c r="K60" s="3">
         <v>468800</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>651300</v>
+        <v>671200</v>
       </c>
       <c r="E61" s="3">
-        <v>687300</v>
+        <v>708300</v>
       </c>
       <c r="F61" s="3">
-        <v>718600</v>
+        <v>740600</v>
       </c>
       <c r="G61" s="3">
-        <v>714700</v>
+        <v>736600</v>
       </c>
       <c r="H61" s="3">
-        <v>673500</v>
+        <v>694100</v>
       </c>
       <c r="I61" s="3">
-        <v>722900</v>
+        <v>745000</v>
       </c>
       <c r="J61" s="3">
-        <v>694500</v>
+        <v>715700</v>
       </c>
       <c r="K61" s="3">
         <v>656800</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>154900</v>
+        <v>159700</v>
       </c>
       <c r="E62" s="3">
-        <v>160400</v>
+        <v>165300</v>
       </c>
       <c r="F62" s="3">
-        <v>151800</v>
+        <v>156400</v>
       </c>
       <c r="G62" s="3">
-        <v>169200</v>
+        <v>174400</v>
       </c>
       <c r="H62" s="3">
-        <v>130400</v>
+        <v>134300</v>
       </c>
       <c r="I62" s="3">
-        <v>128100</v>
+        <v>132000</v>
       </c>
       <c r="J62" s="3">
-        <v>201400</v>
+        <v>207600</v>
       </c>
       <c r="K62" s="3">
         <v>173500</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1340300</v>
+        <v>1381200</v>
       </c>
       <c r="E66" s="3">
-        <v>1348700</v>
+        <v>1389900</v>
       </c>
       <c r="F66" s="3">
-        <v>1417500</v>
+        <v>1460700</v>
       </c>
       <c r="G66" s="3">
-        <v>1294000</v>
+        <v>1333500</v>
       </c>
       <c r="H66" s="3">
-        <v>1232600</v>
+        <v>1270300</v>
       </c>
       <c r="I66" s="3">
-        <v>1379500</v>
+        <v>1421600</v>
       </c>
       <c r="J66" s="3">
-        <v>1484900</v>
+        <v>1530200</v>
       </c>
       <c r="K66" s="3">
         <v>1299100</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>510200</v>
+        <v>525800</v>
       </c>
       <c r="E72" s="3">
-        <v>421900</v>
+        <v>434800</v>
       </c>
       <c r="F72" s="3">
-        <v>461700</v>
+        <v>475800</v>
       </c>
       <c r="G72" s="3">
-        <v>527900</v>
+        <v>544000</v>
       </c>
       <c r="H72" s="3">
-        <v>574500</v>
+        <v>592000</v>
       </c>
       <c r="I72" s="3">
-        <v>526100</v>
+        <v>542200</v>
       </c>
       <c r="J72" s="3">
-        <v>524400</v>
+        <v>540400</v>
       </c>
       <c r="K72" s="3">
         <v>553600</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>556900</v>
+        <v>573900</v>
       </c>
       <c r="E76" s="3">
-        <v>466000</v>
+        <v>480200</v>
       </c>
       <c r="F76" s="3">
-        <v>482300</v>
+        <v>497000</v>
       </c>
       <c r="G76" s="3">
-        <v>568600</v>
+        <v>585900</v>
       </c>
       <c r="H76" s="3">
-        <v>633000</v>
+        <v>652400</v>
       </c>
       <c r="I76" s="3">
-        <v>563900</v>
+        <v>581100</v>
       </c>
       <c r="J76" s="3">
-        <v>570200</v>
+        <v>587600</v>
       </c>
       <c r="K76" s="3">
         <v>604200</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="E81" s="3">
-        <v>-41600</v>
+        <v>-42800</v>
       </c>
       <c r="F81" s="3">
-        <v>-50100</v>
+        <v>-51700</v>
       </c>
       <c r="G81" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>49500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-31400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>48100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-30500</v>
       </c>
       <c r="K81" s="3">
         <v>10200</v>
@@ -4630,22 +4630,22 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>48500</v>
+        <v>50000</v>
       </c>
       <c r="F83" s="3">
-        <v>52900</v>
+        <v>54600</v>
       </c>
       <c r="G83" s="3">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="H83" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="I83" s="3">
-        <v>49200</v>
+        <v>50700</v>
       </c>
       <c r="J83" s="3">
-        <v>45700</v>
+        <v>47000</v>
       </c>
       <c r="K83" s="3">
         <v>44300</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
-        <v>85600</v>
+        <v>88200</v>
       </c>
       <c r="F89" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G89" s="3">
-        <v>36100</v>
+        <v>37200</v>
       </c>
       <c r="H89" s="3">
-        <v>-20900</v>
+        <v>-21500</v>
       </c>
       <c r="I89" s="3">
-        <v>-19700</v>
+        <v>-20300</v>
       </c>
       <c r="J89" s="3">
-        <v>206200</v>
+        <v>212500</v>
       </c>
       <c r="K89" s="3">
         <v>29600</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="H91" s="3">
-        <v>-13600</v>
+        <v>-14000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="J91" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="K91" s="3">
         <v>-2100</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51200</v>
+        <v>-52700</v>
       </c>
       <c r="E94" s="3">
-        <v>-73400</v>
+        <v>-75600</v>
       </c>
       <c r="F94" s="3">
-        <v>-11900</v>
+        <v>-12300</v>
       </c>
       <c r="G94" s="3">
-        <v>-35500</v>
+        <v>-36600</v>
       </c>
       <c r="H94" s="3">
-        <v>-23300</v>
+        <v>-24000</v>
       </c>
       <c r="I94" s="3">
-        <v>-221600</v>
+        <v>-228400</v>
       </c>
       <c r="J94" s="3">
-        <v>-41900</v>
+        <v>-43100</v>
       </c>
       <c r="K94" s="3">
         <v>-4900</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16300</v>
+        <v>-16800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-16100</v>
+        <v>-16600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5558,16 +5558,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>81800</v>
+        <v>84300</v>
       </c>
       <c r="E100" s="3">
         <v>-600</v>
       </c>
       <c r="F100" s="3">
-        <v>-41900</v>
+        <v>-43200</v>
       </c>
       <c r="G100" s="3">
-        <v>-20700</v>
+        <v>-21400</v>
       </c>
       <c r="H100" s="3">
         <v>-500</v>
@@ -5576,7 +5576,7 @@
         <v>-500</v>
       </c>
       <c r="J100" s="3">
-        <v>-16100</v>
+        <v>-16600</v>
       </c>
       <c r="K100" s="3">
         <v>-15500</v>
@@ -5626,16 +5626,16 @@
         <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="I101" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="J101" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K101" s="3">
         <v>-4700</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="E102" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="F102" s="3">
-        <v>-53200</v>
+        <v>-54800</v>
       </c>
       <c r="G102" s="3">
-        <v>-14600</v>
+        <v>-15000</v>
       </c>
       <c r="H102" s="3">
-        <v>-54200</v>
+        <v>-55800</v>
       </c>
       <c r="I102" s="3">
-        <v>-229800</v>
+        <v>-236800</v>
       </c>
       <c r="J102" s="3">
-        <v>156200</v>
+        <v>161000</v>
       </c>
       <c r="K102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>244700</v>
+        <v>161300</v>
       </c>
       <c r="E8" s="3">
-        <v>154200</v>
+        <v>235800</v>
       </c>
       <c r="F8" s="3">
-        <v>115300</v>
+        <v>148700</v>
       </c>
       <c r="G8" s="3">
-        <v>175000</v>
+        <v>111100</v>
       </c>
       <c r="H8" s="3">
-        <v>238400</v>
+        <v>168700</v>
       </c>
       <c r="I8" s="3">
-        <v>191600</v>
+        <v>229800</v>
       </c>
       <c r="J8" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K8" s="3">
         <v>185900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>202500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>275500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>178300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>157200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>231400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>187400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>167500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>207900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,115 +1098,121 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>5400</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>5200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>25900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-6300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>47100</v>
       </c>
       <c r="E15" s="3">
-        <v>50000</v>
+        <v>49300</v>
       </c>
       <c r="F15" s="3">
-        <v>49200</v>
+        <v>48200</v>
       </c>
       <c r="G15" s="3">
-        <v>51000</v>
+        <v>47400</v>
       </c>
       <c r="H15" s="3">
-        <v>49400</v>
+        <v>49100</v>
       </c>
       <c r="I15" s="3">
-        <v>50700</v>
+        <v>47600</v>
       </c>
       <c r="J15" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K15" s="3">
         <v>47000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>50100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>52300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>50400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>42900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>176000</v>
+        <v>190800</v>
       </c>
       <c r="E17" s="3">
-        <v>192600</v>
+        <v>169600</v>
       </c>
       <c r="F17" s="3">
-        <v>170400</v>
+        <v>185600</v>
       </c>
       <c r="G17" s="3">
-        <v>179700</v>
+        <v>164200</v>
       </c>
       <c r="H17" s="3">
-        <v>186700</v>
+        <v>173200</v>
       </c>
       <c r="I17" s="3">
-        <v>176000</v>
+        <v>180000</v>
       </c>
       <c r="J17" s="3">
+        <v>169700</v>
+      </c>
+      <c r="K17" s="3">
         <v>217300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>183500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>217400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>187500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>180800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>176400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>164000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>175800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>172900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>158300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>68700</v>
+        <v>-29400</v>
       </c>
       <c r="E18" s="3">
-        <v>-38300</v>
+        <v>66200</v>
       </c>
       <c r="F18" s="3">
-        <v>-55100</v>
+        <v>-36900</v>
       </c>
       <c r="G18" s="3">
-        <v>-4700</v>
+        <v>-53100</v>
       </c>
       <c r="H18" s="3">
-        <v>51700</v>
+        <v>-4500</v>
       </c>
       <c r="I18" s="3">
-        <v>15600</v>
+        <v>49800</v>
       </c>
       <c r="J18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-31400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>55000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>49600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27800</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>33600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2800</v>
+        <v>6100</v>
       </c>
       <c r="G20" s="3">
-        <v>-28300</v>
+        <v>-2700</v>
       </c>
       <c r="H20" s="3">
-        <v>28300</v>
+        <v>-27300</v>
       </c>
       <c r="I20" s="3">
-        <v>-4000</v>
+        <v>27300</v>
       </c>
       <c r="J20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97600</v>
+        <v>22700</v>
       </c>
       <c r="E21" s="3">
-        <v>18000</v>
+        <v>149000</v>
       </c>
       <c r="F21" s="3">
-        <v>-3300</v>
+        <v>17300</v>
       </c>
       <c r="G21" s="3">
-        <v>17900</v>
+        <v>-3200</v>
       </c>
       <c r="H21" s="3">
-        <v>129300</v>
+        <v>17300</v>
       </c>
       <c r="I21" s="3">
-        <v>62200</v>
+        <v>124600</v>
       </c>
       <c r="J21" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K21" s="3">
         <v>12000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>65400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>104800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>61600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>79400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>98100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>89700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="F22" s="3">
-        <v>8000</v>
+        <v>6100</v>
       </c>
       <c r="G22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
-      <c r="I22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="T22" s="3">
         <v>6500</v>
       </c>
-      <c r="N22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>6700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>96500</v>
+        <v>-31400</v>
       </c>
       <c r="E23" s="3">
-        <v>-38300</v>
+        <v>93000</v>
       </c>
       <c r="F23" s="3">
-        <v>-65900</v>
+        <v>-36900</v>
       </c>
       <c r="G23" s="3">
-        <v>-40400</v>
+        <v>-63500</v>
       </c>
       <c r="H23" s="3">
-        <v>73200</v>
+        <v>-38900</v>
       </c>
       <c r="I23" s="3">
-        <v>3600</v>
+        <v>70600</v>
       </c>
       <c r="J23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-42500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-48300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6100</v>
+        <v>-9700</v>
       </c>
       <c r="E24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>-13100</v>
-      </c>
       <c r="G24" s="3">
-        <v>-14600</v>
+        <v>-12600</v>
       </c>
       <c r="H24" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="I24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>14400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>11100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>9900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>18000</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90300</v>
+        <v>-21700</v>
       </c>
       <c r="E26" s="3">
-        <v>-38200</v>
+        <v>97800</v>
       </c>
       <c r="F26" s="3">
-        <v>-52800</v>
+        <v>-36800</v>
       </c>
       <c r="G26" s="3">
-        <v>-25800</v>
+        <v>-50900</v>
       </c>
       <c r="H26" s="3">
-        <v>55200</v>
+        <v>-24900</v>
       </c>
       <c r="I26" s="3">
-        <v>1600</v>
+        <v>53200</v>
       </c>
       <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-44500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90300</v>
+        <v>-21700</v>
       </c>
       <c r="E27" s="3">
-        <v>-38200</v>
+        <v>97800</v>
       </c>
       <c r="F27" s="3">
-        <v>-52800</v>
+        <v>-36800</v>
       </c>
       <c r="G27" s="3">
-        <v>-25800</v>
+        <v>-50900</v>
       </c>
       <c r="H27" s="3">
-        <v>55200</v>
+        <v>-24900</v>
       </c>
       <c r="I27" s="3">
-        <v>1600</v>
+        <v>53200</v>
       </c>
       <c r="J27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>-3000</v>
       </c>
       <c r="E29" s="3">
-        <v>-4700</v>
+        <v>-10800</v>
       </c>
       <c r="F29" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G29" s="3">
         <v>1100</v>
       </c>
-      <c r="G29" s="3">
-        <v>-6500</v>
-      </c>
       <c r="H29" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-6300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1909,21 +1970,21 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-63900</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27800</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-33600</v>
       </c>
       <c r="F32" s="3">
-        <v>2800</v>
+        <v>-6100</v>
       </c>
       <c r="G32" s="3">
-        <v>28300</v>
+        <v>2700</v>
       </c>
       <c r="H32" s="3">
-        <v>-28300</v>
+        <v>27300</v>
       </c>
       <c r="I32" s="3">
-        <v>4000</v>
+        <v>-27300</v>
       </c>
       <c r="J32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90300</v>
+        <v>-24700</v>
       </c>
       <c r="E33" s="3">
-        <v>-42800</v>
+        <v>87000</v>
       </c>
       <c r="F33" s="3">
-        <v>-51700</v>
+        <v>-41300</v>
       </c>
       <c r="G33" s="3">
-        <v>-32300</v>
+        <v>-49800</v>
       </c>
       <c r="H33" s="3">
-        <v>49500</v>
+        <v>-31200</v>
       </c>
       <c r="I33" s="3">
-        <v>1600</v>
+        <v>47700</v>
       </c>
       <c r="J33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90300</v>
+        <v>-24700</v>
       </c>
       <c r="E35" s="3">
-        <v>-42800</v>
+        <v>87000</v>
       </c>
       <c r="F35" s="3">
-        <v>-51700</v>
+        <v>-41300</v>
       </c>
       <c r="G35" s="3">
-        <v>-32300</v>
+        <v>-49800</v>
       </c>
       <c r="H35" s="3">
-        <v>49500</v>
+        <v>-31200</v>
       </c>
       <c r="I35" s="3">
-        <v>1600</v>
+        <v>47700</v>
       </c>
       <c r="J35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>114100</v>
+        <v>115500</v>
       </c>
       <c r="E41" s="3">
-        <v>83400</v>
+        <v>109900</v>
       </c>
       <c r="F41" s="3">
-        <v>72900</v>
+        <v>80400</v>
       </c>
       <c r="G41" s="3">
-        <v>127700</v>
+        <v>70300</v>
       </c>
       <c r="H41" s="3">
-        <v>142700</v>
+        <v>123100</v>
       </c>
       <c r="I41" s="3">
-        <v>198500</v>
+        <v>137500</v>
       </c>
       <c r="J41" s="3">
+        <v>191300</v>
+      </c>
+      <c r="K41" s="3">
         <v>435300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>258100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>251500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>326900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>312900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>209100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>202600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>282000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>378600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>201000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>161600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>184400</v>
+        <v>116100</v>
       </c>
       <c r="E43" s="3">
-        <v>139100</v>
+        <v>177700</v>
       </c>
       <c r="F43" s="3">
-        <v>231200</v>
+        <v>134000</v>
       </c>
       <c r="G43" s="3">
-        <v>120500</v>
+        <v>222800</v>
       </c>
       <c r="H43" s="3">
-        <v>149500</v>
+        <v>116100</v>
       </c>
       <c r="I43" s="3">
-        <v>130100</v>
+        <v>144100</v>
       </c>
       <c r="J43" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K43" s="3">
         <v>92300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>247800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>164900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>122400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>218300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>152200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>160500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>111200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>135300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>114100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>163800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="3">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="F44" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="G44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1800</v>
       </c>
       <c r="O44" s="3">
         <v>1800</v>
       </c>
       <c r="P44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25400</v>
+        <v>18300</v>
       </c>
       <c r="E45" s="3">
-        <v>30700</v>
+        <v>24500</v>
       </c>
       <c r="F45" s="3">
-        <v>10900</v>
+        <v>29600</v>
       </c>
       <c r="G45" s="3">
-        <v>16400</v>
+        <v>10500</v>
       </c>
       <c r="H45" s="3">
-        <v>18700</v>
+        <v>15800</v>
       </c>
       <c r="I45" s="3">
-        <v>22200</v>
+        <v>18000</v>
       </c>
       <c r="J45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K45" s="3">
         <v>18900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>327800</v>
+        <v>253100</v>
       </c>
       <c r="E46" s="3">
-        <v>258200</v>
+        <v>315900</v>
       </c>
       <c r="F46" s="3">
-        <v>318100</v>
+        <v>248800</v>
       </c>
       <c r="G46" s="3">
-        <v>268000</v>
+        <v>306600</v>
       </c>
       <c r="H46" s="3">
-        <v>314500</v>
+        <v>258300</v>
       </c>
       <c r="I46" s="3">
-        <v>354600</v>
+        <v>303100</v>
       </c>
       <c r="J46" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K46" s="3">
         <v>549500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>509300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>420600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>453500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>534500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>366700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>369100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>399100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>520200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>322100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>332900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48600</v>
+        <v>36000</v>
       </c>
       <c r="E47" s="3">
-        <v>35500</v>
+        <v>46800</v>
       </c>
       <c r="F47" s="3">
-        <v>61800</v>
+        <v>34200</v>
       </c>
       <c r="G47" s="3">
-        <v>60000</v>
+        <v>59600</v>
       </c>
       <c r="H47" s="3">
-        <v>57400</v>
+        <v>57900</v>
       </c>
       <c r="I47" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="J47" s="3">
-        <v>14000</v>
+        <v>57100</v>
       </c>
       <c r="K47" s="3">
         <v>14000</v>
       </c>
       <c r="L47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M47" s="3">
         <v>14400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>390300</v>
+        <v>374100</v>
       </c>
       <c r="E48" s="3">
-        <v>393400</v>
+        <v>376100</v>
       </c>
       <c r="F48" s="3">
-        <v>396000</v>
+        <v>379100</v>
       </c>
       <c r="G48" s="3">
-        <v>402900</v>
+        <v>381600</v>
       </c>
       <c r="H48" s="3">
-        <v>401200</v>
+        <v>388200</v>
       </c>
       <c r="I48" s="3">
-        <v>398400</v>
+        <v>386600</v>
       </c>
       <c r="J48" s="3">
+        <v>384000</v>
+      </c>
+      <c r="K48" s="3">
         <v>383500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>346300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>344300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>345200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>353000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>352800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>661600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>340100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>337400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>339900</v>
       </c>
       <c r="T48" s="3">
         <v>339900</v>
       </c>
       <c r="U48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="V48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100200</v>
+        <v>1059100</v>
       </c>
       <c r="E49" s="3">
-        <v>1104700</v>
+        <v>1060300</v>
       </c>
       <c r="F49" s="3">
-        <v>1097000</v>
+        <v>1064600</v>
       </c>
       <c r="G49" s="3">
-        <v>1110500</v>
+        <v>1057200</v>
       </c>
       <c r="H49" s="3">
-        <v>1073300</v>
+        <v>1070200</v>
       </c>
       <c r="I49" s="3">
-        <v>1111800</v>
+        <v>1034400</v>
       </c>
       <c r="J49" s="3">
+        <v>1071500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1088000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>956700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>976700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1013600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1033800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>972200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2008800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1050900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>935900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>931700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1018200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88200</v>
+        <v>85300</v>
       </c>
       <c r="E52" s="3">
-        <v>78400</v>
+        <v>85000</v>
       </c>
       <c r="F52" s="3">
-        <v>84900</v>
+        <v>75600</v>
       </c>
       <c r="G52" s="3">
-        <v>78100</v>
+        <v>81800</v>
       </c>
       <c r="H52" s="3">
-        <v>76200</v>
+        <v>75300</v>
       </c>
       <c r="I52" s="3">
-        <v>78600</v>
+        <v>73500</v>
       </c>
       <c r="J52" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K52" s="3">
         <v>82700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>88400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>88100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>104000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>102600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>177500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>186700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>192900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>194100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1955100</v>
+        <v>1807700</v>
       </c>
       <c r="E54" s="3">
-        <v>1870100</v>
+        <v>1884200</v>
       </c>
       <c r="F54" s="3">
-        <v>1957800</v>
+        <v>1802300</v>
       </c>
       <c r="G54" s="3">
-        <v>1919500</v>
+        <v>1886800</v>
       </c>
       <c r="H54" s="3">
-        <v>1922600</v>
+        <v>1849900</v>
       </c>
       <c r="I54" s="3">
-        <v>2002700</v>
+        <v>1852900</v>
       </c>
       <c r="J54" s="3">
+        <v>1930100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2117700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1903300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1835600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1914900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1998400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1786500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1832200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1980600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1806400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1890700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>244800</v>
+        <v>246000</v>
       </c>
       <c r="E57" s="3">
-        <v>267200</v>
+        <v>235900</v>
       </c>
       <c r="F57" s="3">
-        <v>305800</v>
+        <v>257500</v>
       </c>
       <c r="G57" s="3">
-        <v>270600</v>
+        <v>294700</v>
       </c>
       <c r="H57" s="3">
-        <v>215200</v>
+        <v>260800</v>
       </c>
       <c r="I57" s="3">
-        <v>242600</v>
+        <v>207400</v>
       </c>
       <c r="J57" s="3">
+        <v>233800</v>
+      </c>
+      <c r="K57" s="3">
         <v>326000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>247300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>244400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>346500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>270000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>264200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>248200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>232300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>219500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>92900</v>
+        <v>86800</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>89600</v>
       </c>
       <c r="F58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5600</v>
-      </c>
       <c r="J58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K58" s="3">
         <v>7700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>212600</v>
+        <v>167400</v>
       </c>
       <c r="E59" s="3">
-        <v>244900</v>
+        <v>204900</v>
       </c>
       <c r="F59" s="3">
-        <v>248500</v>
+        <v>236000</v>
       </c>
       <c r="G59" s="3">
-        <v>146400</v>
+        <v>239500</v>
       </c>
       <c r="H59" s="3">
-        <v>216800</v>
+        <v>141100</v>
       </c>
       <c r="I59" s="3">
-        <v>296400</v>
+        <v>209000</v>
       </c>
       <c r="J59" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K59" s="3">
         <v>273100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>238400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>99100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>157200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>262900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>279700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>141200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>204600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>550400</v>
+        <v>500200</v>
       </c>
       <c r="E60" s="3">
-        <v>516400</v>
+        <v>530400</v>
       </c>
       <c r="F60" s="3">
-        <v>563700</v>
+        <v>497600</v>
       </c>
       <c r="G60" s="3">
-        <v>422600</v>
+        <v>543300</v>
       </c>
       <c r="H60" s="3">
-        <v>441900</v>
+        <v>407300</v>
       </c>
       <c r="I60" s="3">
-        <v>544700</v>
+        <v>425800</v>
       </c>
       <c r="J60" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K60" s="3">
         <v>606900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>468800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>424700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>547500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>596600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>376800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>407800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>535200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>535400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>377100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>432200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>671200</v>
+        <v>639900</v>
       </c>
       <c r="E61" s="3">
-        <v>708300</v>
+        <v>646800</v>
       </c>
       <c r="F61" s="3">
-        <v>740600</v>
+        <v>682600</v>
       </c>
       <c r="G61" s="3">
-        <v>736600</v>
+        <v>713700</v>
       </c>
       <c r="H61" s="3">
-        <v>694100</v>
+        <v>709800</v>
       </c>
       <c r="I61" s="3">
-        <v>745000</v>
+        <v>668900</v>
       </c>
       <c r="J61" s="3">
+        <v>717900</v>
+      </c>
+      <c r="K61" s="3">
         <v>715700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>656800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>663800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>650400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>629200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>590800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>619200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>623500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>649100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>679800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>692400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>159700</v>
+        <v>150000</v>
       </c>
       <c r="E62" s="3">
-        <v>165300</v>
+        <v>153900</v>
       </c>
       <c r="F62" s="3">
-        <v>156400</v>
+        <v>159300</v>
       </c>
       <c r="G62" s="3">
-        <v>174400</v>
+        <v>150800</v>
       </c>
       <c r="H62" s="3">
-        <v>134300</v>
+        <v>168000</v>
       </c>
       <c r="I62" s="3">
-        <v>132000</v>
+        <v>129500</v>
       </c>
       <c r="J62" s="3">
+        <v>127200</v>
+      </c>
+      <c r="K62" s="3">
         <v>207600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>145800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>220400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>189900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>181100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>172900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>189700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>146700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>150200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1381200</v>
+        <v>1290100</v>
       </c>
       <c r="E66" s="3">
-        <v>1389900</v>
+        <v>1331100</v>
       </c>
       <c r="F66" s="3">
-        <v>1460700</v>
+        <v>1339500</v>
       </c>
       <c r="G66" s="3">
-        <v>1333500</v>
+        <v>1407800</v>
       </c>
       <c r="H66" s="3">
-        <v>1270300</v>
+        <v>1285200</v>
       </c>
       <c r="I66" s="3">
-        <v>1421600</v>
+        <v>1224200</v>
       </c>
       <c r="J66" s="3">
+        <v>1370000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1530200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1299100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1237600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1343700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1446200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1157500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1208100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1331600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1374200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1203600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1274800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>525800</v>
+        <v>468100</v>
       </c>
       <c r="E72" s="3">
-        <v>434800</v>
+        <v>506700</v>
       </c>
       <c r="F72" s="3">
-        <v>475800</v>
+        <v>419000</v>
       </c>
       <c r="G72" s="3">
-        <v>544000</v>
+        <v>458500</v>
       </c>
       <c r="H72" s="3">
-        <v>592000</v>
+        <v>524300</v>
       </c>
       <c r="I72" s="3">
-        <v>542200</v>
+        <v>570600</v>
       </c>
       <c r="J72" s="3">
+        <v>522500</v>
+      </c>
+      <c r="K72" s="3">
         <v>540400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>553600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>554200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>518600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>498700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>556100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>565500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>590400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>577100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>562200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>582100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>573900</v>
+        <v>517600</v>
       </c>
       <c r="E76" s="3">
-        <v>480200</v>
+        <v>553100</v>
       </c>
       <c r="F76" s="3">
-        <v>497000</v>
+        <v>462800</v>
       </c>
       <c r="G76" s="3">
-        <v>585900</v>
+        <v>479000</v>
       </c>
       <c r="H76" s="3">
-        <v>652400</v>
+        <v>564700</v>
       </c>
       <c r="I76" s="3">
-        <v>581100</v>
+        <v>628700</v>
       </c>
       <c r="J76" s="3">
+        <v>560000</v>
+      </c>
+      <c r="K76" s="3">
         <v>587600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>604200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>598000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>571200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>552200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>629000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>624100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>649100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>626200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>602800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>615800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90300</v>
+        <v>-24700</v>
       </c>
       <c r="E81" s="3">
-        <v>-42800</v>
+        <v>87000</v>
       </c>
       <c r="F81" s="3">
-        <v>-51700</v>
+        <v>-41300</v>
       </c>
       <c r="G81" s="3">
-        <v>-32300</v>
+        <v>-49800</v>
       </c>
       <c r="H81" s="3">
-        <v>49500</v>
+        <v>-31200</v>
       </c>
       <c r="I81" s="3">
-        <v>1600</v>
+        <v>47700</v>
       </c>
       <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>47100</v>
       </c>
       <c r="E83" s="3">
-        <v>50000</v>
+        <v>49300</v>
       </c>
       <c r="F83" s="3">
-        <v>54600</v>
+        <v>48200</v>
       </c>
       <c r="G83" s="3">
-        <v>51000</v>
+        <v>52600</v>
       </c>
       <c r="H83" s="3">
-        <v>49400</v>
+        <v>49100</v>
       </c>
       <c r="I83" s="3">
-        <v>50700</v>
+        <v>47600</v>
       </c>
       <c r="J83" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>36800</v>
       </c>
       <c r="E89" s="3">
-        <v>88200</v>
+        <v>-1400</v>
       </c>
       <c r="F89" s="3">
-        <v>-800</v>
+        <v>85000</v>
       </c>
       <c r="G89" s="3">
-        <v>37200</v>
+        <v>-700</v>
       </c>
       <c r="H89" s="3">
-        <v>-21500</v>
+        <v>35900</v>
       </c>
       <c r="I89" s="3">
-        <v>-20300</v>
+        <v>-20800</v>
       </c>
       <c r="J89" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K89" s="3">
         <v>212500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-56000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>151600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>130000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-57900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>231800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>52400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-55900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1900</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52700</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
-        <v>-75600</v>
+        <v>-50800</v>
       </c>
       <c r="F94" s="3">
-        <v>-12300</v>
+        <v>-72900</v>
       </c>
       <c r="G94" s="3">
-        <v>-36600</v>
+        <v>-11800</v>
       </c>
       <c r="H94" s="3">
-        <v>-24000</v>
+        <v>-35300</v>
       </c>
       <c r="I94" s="3">
-        <v>-228400</v>
+        <v>-23100</v>
       </c>
       <c r="J94" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-143500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-116400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5328,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-16200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5340,11 +5574,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5352,11 +5586,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-14300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5364,19 +5598,22 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>84300</v>
+        <v>-15200</v>
       </c>
       <c r="E100" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-43200</v>
-      </c>
       <c r="G100" s="3">
-        <v>-21400</v>
+        <v>-41700</v>
       </c>
       <c r="H100" s="3">
-        <v>-500</v>
+        <v>-20600</v>
       </c>
       <c r="I100" s="3">
         <v>-500</v>
       </c>
       <c r="J100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-16600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-15100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>5700</v>
-      </c>
       <c r="H101" s="3">
-        <v>-9800</v>
+        <v>5500</v>
       </c>
       <c r="I101" s="3">
-        <v>12500</v>
+        <v>-9400</v>
       </c>
       <c r="J101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K101" s="3">
         <v>8200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30700</v>
+        <v>5600</v>
       </c>
       <c r="E102" s="3">
-        <v>10500</v>
+        <v>29600</v>
       </c>
       <c r="F102" s="3">
-        <v>-54800</v>
+        <v>10100</v>
       </c>
       <c r="G102" s="3">
-        <v>-15000</v>
+        <v>-52800</v>
       </c>
       <c r="H102" s="3">
-        <v>-55800</v>
+        <v>-14500</v>
       </c>
       <c r="I102" s="3">
-        <v>-236800</v>
+        <v>-53800</v>
       </c>
       <c r="J102" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="K102" s="3">
         <v>161000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-75400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>103800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-79500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-96600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>179500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-54700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>161300</v>
+        <v>168400</v>
       </c>
       <c r="E8" s="3">
-        <v>235800</v>
+        <v>125100</v>
       </c>
       <c r="F8" s="3">
-        <v>148700</v>
+        <v>157500</v>
       </c>
       <c r="G8" s="3">
-        <v>111100</v>
+        <v>230100</v>
       </c>
       <c r="H8" s="3">
-        <v>168700</v>
+        <v>145100</v>
       </c>
       <c r="I8" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K8" s="3">
         <v>229800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>184700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>185900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>202500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>275500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>178300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>157200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>190200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>231400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>187400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>229400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>167500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>207900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>25900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-6300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47100</v>
+        <v>51700</v>
       </c>
       <c r="E15" s="3">
-        <v>49300</v>
+        <v>44400</v>
       </c>
       <c r="F15" s="3">
-        <v>48200</v>
+        <v>46000</v>
       </c>
       <c r="G15" s="3">
-        <v>47400</v>
+        <v>48100</v>
       </c>
       <c r="H15" s="3">
-        <v>49100</v>
+        <v>47000</v>
       </c>
       <c r="I15" s="3">
+        <v>46300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K15" s="3">
         <v>47600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>48900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>47000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>44300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>48100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>50100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>45800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>45300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>52300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>50400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>41500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>42900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>48800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>190800</v>
+        <v>181900</v>
       </c>
       <c r="E17" s="3">
-        <v>169600</v>
+        <v>174000</v>
       </c>
       <c r="F17" s="3">
-        <v>185600</v>
+        <v>186200</v>
       </c>
       <c r="G17" s="3">
-        <v>164200</v>
+        <v>165600</v>
       </c>
       <c r="H17" s="3">
-        <v>173200</v>
+        <v>181100</v>
       </c>
       <c r="I17" s="3">
+        <v>160300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K17" s="3">
         <v>180000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>169700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>217300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>183500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>217400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>160000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>187500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>180800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>176400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>164000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>175800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>172900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>158300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-29400</v>
+        <v>-13500</v>
       </c>
       <c r="E18" s="3">
-        <v>66200</v>
+        <v>-48900</v>
       </c>
       <c r="F18" s="3">
-        <v>-36900</v>
+        <v>-28700</v>
       </c>
       <c r="G18" s="3">
-        <v>-53100</v>
+        <v>64600</v>
       </c>
       <c r="H18" s="3">
-        <v>-4500</v>
+        <v>-36000</v>
       </c>
       <c r="I18" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K18" s="3">
         <v>49800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>15000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-31400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>58100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>18300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-30300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>55000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>23400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>53600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>49600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5000</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>33600</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2700</v>
+        <v>32800</v>
       </c>
       <c r="H20" s="3">
-        <v>-27300</v>
+        <v>5900</v>
       </c>
       <c r="I20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="K20" s="3">
         <v>27300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-11200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-8700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22700</v>
+        <v>32300</v>
       </c>
       <c r="E21" s="3">
-        <v>149000</v>
+        <v>-4400</v>
       </c>
       <c r="F21" s="3">
-        <v>17300</v>
+        <v>22200</v>
       </c>
       <c r="G21" s="3">
-        <v>-3200</v>
+        <v>145400</v>
       </c>
       <c r="H21" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="I21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K21" s="3">
         <v>124600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>60000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>12000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>65400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>104800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>68200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>61600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>108000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>79400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>98100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>39700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>89700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,185 +1593,203 @@
         <v>7000</v>
       </c>
       <c r="E22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="R22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="U22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>6700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="U22" s="3">
-        <v>7100</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31400</v>
+        <v>-26400</v>
       </c>
       <c r="E23" s="3">
-        <v>93000</v>
+        <v>-56000</v>
       </c>
       <c r="F23" s="3">
-        <v>-36900</v>
+        <v>-30600</v>
       </c>
       <c r="G23" s="3">
-        <v>-63500</v>
+        <v>90700</v>
       </c>
       <c r="H23" s="3">
-        <v>-38900</v>
+        <v>-36000</v>
       </c>
       <c r="I23" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K23" s="3">
         <v>70600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-42500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>49700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-48300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>49300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>22300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>49600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>33800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9700</v>
+        <v>-5700</v>
       </c>
       <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="U24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="V24" s="3">
         <v>-4800</v>
       </c>
-      <c r="F24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>17400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>14400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>11100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>9900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>18000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-21700</v>
+        <v>-20700</v>
       </c>
       <c r="E26" s="3">
-        <v>97800</v>
+        <v>-57600</v>
       </c>
       <c r="F26" s="3">
-        <v>-36800</v>
+        <v>-21100</v>
       </c>
       <c r="G26" s="3">
-        <v>-50900</v>
+        <v>95500</v>
       </c>
       <c r="H26" s="3">
-        <v>-24900</v>
+        <v>-35900</v>
       </c>
       <c r="I26" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K26" s="3">
         <v>53200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>35400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-44500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>38200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>31600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>23100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-21700</v>
+        <v>-20700</v>
       </c>
       <c r="E27" s="3">
-        <v>97800</v>
+        <v>-57600</v>
       </c>
       <c r="F27" s="3">
-        <v>-36800</v>
+        <v>-21100</v>
       </c>
       <c r="G27" s="3">
-        <v>-50900</v>
+        <v>95500</v>
       </c>
       <c r="H27" s="3">
-        <v>-24900</v>
+        <v>-35900</v>
       </c>
       <c r="I27" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K27" s="3">
         <v>53200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>35400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-44500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>38200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>31600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>23100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,59 +2054,65 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3000</v>
       </c>
-      <c r="E29" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-4500</v>
-      </c>
       <c r="G29" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I29" s="3">
         <v>1100</v>
       </c>
-      <c r="H29" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-5400</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-63900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5000</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-33600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-6100</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>2700</v>
+        <v>-32800</v>
       </c>
       <c r="H32" s="3">
-        <v>27300</v>
+        <v>-5900</v>
       </c>
       <c r="I32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>11200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>8700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24700</v>
+        <v>-20700</v>
       </c>
       <c r="E33" s="3">
-        <v>87000</v>
+        <v>-143300</v>
       </c>
       <c r="F33" s="3">
-        <v>-41300</v>
+        <v>-24100</v>
       </c>
       <c r="G33" s="3">
-        <v>-49800</v>
+        <v>85000</v>
       </c>
       <c r="H33" s="3">
-        <v>-31200</v>
+        <v>-40300</v>
       </c>
       <c r="I33" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K33" s="3">
         <v>47700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>35400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-44500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-25700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>31600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>23100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24700</v>
+        <v>-20700</v>
       </c>
       <c r="E35" s="3">
-        <v>87000</v>
+        <v>-143300</v>
       </c>
       <c r="F35" s="3">
-        <v>-41300</v>
+        <v>-24100</v>
       </c>
       <c r="G35" s="3">
-        <v>-49800</v>
+        <v>85000</v>
       </c>
       <c r="H35" s="3">
-        <v>-31200</v>
+        <v>-40300</v>
       </c>
       <c r="I35" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K35" s="3">
         <v>47700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>35400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-44500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-25700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>31600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>23100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115500</v>
+        <v>131300</v>
       </c>
       <c r="E41" s="3">
-        <v>109900</v>
+        <v>147300</v>
       </c>
       <c r="F41" s="3">
-        <v>80400</v>
+        <v>112800</v>
       </c>
       <c r="G41" s="3">
-        <v>70300</v>
+        <v>107300</v>
       </c>
       <c r="H41" s="3">
-        <v>123100</v>
+        <v>78500</v>
       </c>
       <c r="I41" s="3">
+        <v>68600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K41" s="3">
         <v>137500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>191300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>435300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>258100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>251500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>326900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>312900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>209100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>202600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>282000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>378600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>201000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>161600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2791,490 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>116100</v>
+        <v>112400</v>
       </c>
       <c r="E43" s="3">
-        <v>177700</v>
+        <v>123100</v>
       </c>
       <c r="F43" s="3">
-        <v>134000</v>
+        <v>113300</v>
       </c>
       <c r="G43" s="3">
-        <v>222800</v>
+        <v>173400</v>
       </c>
       <c r="H43" s="3">
-        <v>116100</v>
+        <v>130800</v>
       </c>
       <c r="I43" s="3">
+        <v>217500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>113300</v>
+      </c>
+      <c r="K43" s="3">
         <v>144100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>125300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>92300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>247800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>164900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>122400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>218300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>152200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>160500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>111200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>135300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>114100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>163800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="N44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P44" s="3">
         <v>3500</v>
       </c>
-      <c r="J44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18300</v>
+        <v>36100</v>
       </c>
       <c r="E45" s="3">
-        <v>24500</v>
+        <v>10300</v>
       </c>
       <c r="F45" s="3">
-        <v>29600</v>
+        <v>17900</v>
       </c>
       <c r="G45" s="3">
-        <v>10500</v>
+        <v>23900</v>
       </c>
       <c r="H45" s="3">
-        <v>15800</v>
+        <v>28900</v>
       </c>
       <c r="I45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>800</v>
+      </c>
+      <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>5200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>6000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>253100</v>
+        <v>283500</v>
       </c>
       <c r="E46" s="3">
-        <v>315900</v>
+        <v>283500</v>
       </c>
       <c r="F46" s="3">
-        <v>248800</v>
+        <v>247100</v>
       </c>
       <c r="G46" s="3">
-        <v>306600</v>
+        <v>308400</v>
       </c>
       <c r="H46" s="3">
-        <v>258300</v>
+        <v>242900</v>
       </c>
       <c r="I46" s="3">
+        <v>299200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>252100</v>
+      </c>
+      <c r="K46" s="3">
         <v>303100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>341700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>549500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>509300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>420600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>453500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>534500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>366700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>369100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>399100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>520200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>322100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>332900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36000</v>
+        <v>56900</v>
       </c>
       <c r="E47" s="3">
-        <v>46800</v>
+        <v>27200</v>
       </c>
       <c r="F47" s="3">
-        <v>34200</v>
+        <v>35100</v>
       </c>
       <c r="G47" s="3">
-        <v>59600</v>
+        <v>45700</v>
       </c>
       <c r="H47" s="3">
-        <v>57900</v>
+        <v>33400</v>
       </c>
       <c r="I47" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>56500</v>
+      </c>
+      <c r="K47" s="3">
         <v>55400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>57100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>14000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>14000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>14400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>14100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>6800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>8600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>16200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>13000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>20100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>19700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>5600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>374100</v>
+        <v>361700</v>
       </c>
       <c r="E48" s="3">
-        <v>376100</v>
+        <v>362100</v>
       </c>
       <c r="F48" s="3">
-        <v>379100</v>
+        <v>365200</v>
       </c>
       <c r="G48" s="3">
-        <v>381600</v>
+        <v>367100</v>
       </c>
       <c r="H48" s="3">
-        <v>388200</v>
+        <v>370000</v>
       </c>
       <c r="I48" s="3">
+        <v>372500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>378900</v>
+      </c>
+      <c r="K48" s="3">
         <v>386600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>384000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>383500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>346300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>344300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>345200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>353000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>352800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>661600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>340100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>337400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>339900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>339900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1059100</v>
+        <v>1129900</v>
       </c>
       <c r="E49" s="3">
-        <v>1060300</v>
+        <v>1004300</v>
       </c>
       <c r="F49" s="3">
-        <v>1064600</v>
+        <v>1033700</v>
       </c>
       <c r="G49" s="3">
-        <v>1057200</v>
+        <v>1034900</v>
       </c>
       <c r="H49" s="3">
-        <v>1070200</v>
+        <v>1039100</v>
       </c>
       <c r="I49" s="3">
+        <v>1031800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1044600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1034400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1071500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1088000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>956700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>976700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1013600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1033800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>972200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2008800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1050900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>935900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>931700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1018200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85300</v>
+        <v>6800</v>
       </c>
       <c r="E52" s="3">
-        <v>85000</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>75600</v>
+        <v>83300</v>
       </c>
       <c r="G52" s="3">
-        <v>81800</v>
+        <v>83000</v>
       </c>
       <c r="H52" s="3">
-        <v>75300</v>
+        <v>73700</v>
       </c>
       <c r="I52" s="3">
+        <v>79800</v>
+      </c>
+      <c r="J52" s="3">
         <v>73500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="L52" s="3">
         <v>75800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>82700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>77000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>79500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>88400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>88100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>104000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>102600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>177500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>186700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>192900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>194100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1807700</v>
+        <v>1838800</v>
       </c>
       <c r="E54" s="3">
-        <v>1884200</v>
+        <v>1677600</v>
       </c>
       <c r="F54" s="3">
-        <v>1802300</v>
+        <v>1764400</v>
       </c>
       <c r="G54" s="3">
-        <v>1886800</v>
+        <v>1839000</v>
       </c>
       <c r="H54" s="3">
-        <v>1849900</v>
+        <v>1759100</v>
       </c>
       <c r="I54" s="3">
+        <v>1841500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1805500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1852900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1930100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2117700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1903300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1835600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1914900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1998400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1786500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1832200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1980600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2000400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1806400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1890700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>246000</v>
+        <v>311100</v>
       </c>
       <c r="E57" s="3">
-        <v>235900</v>
+        <v>256500</v>
       </c>
       <c r="F57" s="3">
-        <v>257500</v>
+        <v>240100</v>
       </c>
       <c r="G57" s="3">
-        <v>294700</v>
+        <v>230300</v>
       </c>
       <c r="H57" s="3">
-        <v>260800</v>
+        <v>251300</v>
       </c>
       <c r="I57" s="3">
+        <v>287600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>254500</v>
+      </c>
+      <c r="K57" s="3">
         <v>207400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>233800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>326000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>247300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>238500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>244400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>346500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>270000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>238600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>264200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>248200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>232300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>219500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>86800</v>
+        <v>84100</v>
       </c>
       <c r="E58" s="3">
-        <v>89600</v>
+        <v>88400</v>
       </c>
       <c r="F58" s="3">
-        <v>4100</v>
+        <v>84700</v>
       </c>
       <c r="G58" s="3">
-        <v>9100</v>
+        <v>87400</v>
       </c>
       <c r="H58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>11900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>8100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>8100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167400</v>
+        <v>261700</v>
       </c>
       <c r="E59" s="3">
-        <v>204900</v>
+        <v>166300</v>
       </c>
       <c r="F59" s="3">
-        <v>236000</v>
+        <v>163400</v>
       </c>
       <c r="G59" s="3">
-        <v>239500</v>
+        <v>200000</v>
       </c>
       <c r="H59" s="3">
-        <v>141100</v>
+        <v>230400</v>
       </c>
       <c r="I59" s="3">
+        <v>233700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>137700</v>
+      </c>
+      <c r="K59" s="3">
         <v>209000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>285700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>273100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>218600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>178900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>238400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>99100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>157200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>262900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>279700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>141200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>204600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500200</v>
+        <v>656900</v>
       </c>
       <c r="E60" s="3">
-        <v>530400</v>
+        <v>511200</v>
       </c>
       <c r="F60" s="3">
-        <v>497600</v>
+        <v>488200</v>
       </c>
       <c r="G60" s="3">
-        <v>543300</v>
+        <v>517700</v>
       </c>
       <c r="H60" s="3">
-        <v>407300</v>
+        <v>485700</v>
       </c>
       <c r="I60" s="3">
+        <v>530200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>397500</v>
+      </c>
+      <c r="K60" s="3">
         <v>425800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>524900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>606900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>468800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>424700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>547500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>596600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>376800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>407800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>535200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>535400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>377100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>432200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>639900</v>
+        <v>637800</v>
       </c>
       <c r="E61" s="3">
-        <v>646800</v>
+        <v>623100</v>
       </c>
       <c r="F61" s="3">
-        <v>682600</v>
+        <v>624600</v>
       </c>
       <c r="G61" s="3">
-        <v>713700</v>
+        <v>631300</v>
       </c>
       <c r="H61" s="3">
-        <v>709800</v>
+        <v>666200</v>
       </c>
       <c r="I61" s="3">
+        <v>696600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>692800</v>
+      </c>
+      <c r="K61" s="3">
         <v>668900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>717900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>715700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>656800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>663800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>650400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>629200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>590800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>619200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>623500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>649100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>679800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>692400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>150000</v>
+        <v>215700</v>
       </c>
       <c r="E62" s="3">
-        <v>153900</v>
+        <v>180500</v>
       </c>
       <c r="F62" s="3">
-        <v>159300</v>
+        <v>146400</v>
       </c>
       <c r="G62" s="3">
-        <v>150800</v>
+        <v>150200</v>
       </c>
       <c r="H62" s="3">
-        <v>168000</v>
+        <v>155400</v>
       </c>
       <c r="I62" s="3">
+        <v>147200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K62" s="3">
         <v>129500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>127200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>207600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>173500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>149100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>145800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>220400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>189900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>181100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>172900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>189700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>146700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>150200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1290100</v>
+        <v>1510500</v>
       </c>
       <c r="E66" s="3">
-        <v>1331100</v>
+        <v>1314900</v>
       </c>
       <c r="F66" s="3">
-        <v>1339500</v>
+        <v>1259200</v>
       </c>
       <c r="G66" s="3">
-        <v>1407800</v>
+        <v>1299200</v>
       </c>
       <c r="H66" s="3">
-        <v>1285200</v>
+        <v>1307400</v>
       </c>
       <c r="I66" s="3">
+        <v>1374000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1254400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1224200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1370000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1530200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1299100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1237600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1343700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1446200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1157500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1208100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1331600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1374200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1203600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1274800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>468100</v>
+        <v>279100</v>
       </c>
       <c r="E72" s="3">
-        <v>506700</v>
+        <v>313300</v>
       </c>
       <c r="F72" s="3">
-        <v>419000</v>
+        <v>456800</v>
       </c>
       <c r="G72" s="3">
-        <v>458500</v>
+        <v>494600</v>
       </c>
       <c r="H72" s="3">
-        <v>524300</v>
+        <v>408900</v>
       </c>
       <c r="I72" s="3">
+        <v>447600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>511700</v>
+      </c>
+      <c r="K72" s="3">
         <v>570600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>522500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>540400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>553600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>554200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>518600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>498700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>556100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>565500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>590400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>577100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>562200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>582100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>517600</v>
+        <v>328300</v>
       </c>
       <c r="E76" s="3">
-        <v>553100</v>
+        <v>362700</v>
       </c>
       <c r="F76" s="3">
-        <v>462800</v>
+        <v>505200</v>
       </c>
       <c r="G76" s="3">
-        <v>479000</v>
+        <v>539900</v>
       </c>
       <c r="H76" s="3">
-        <v>564700</v>
+        <v>451700</v>
       </c>
       <c r="I76" s="3">
+        <v>467500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>551100</v>
+      </c>
+      <c r="K76" s="3">
         <v>628700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>560000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>587600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>604200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>598000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>571200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>552200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>629000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>624100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>649100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>626200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>602800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>615800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24700</v>
+        <v>-20700</v>
       </c>
       <c r="E81" s="3">
-        <v>87000</v>
+        <v>-143300</v>
       </c>
       <c r="F81" s="3">
-        <v>-41300</v>
+        <v>-24100</v>
       </c>
       <c r="G81" s="3">
-        <v>-49800</v>
+        <v>85000</v>
       </c>
       <c r="H81" s="3">
-        <v>-31200</v>
+        <v>-40300</v>
       </c>
       <c r="I81" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K81" s="3">
         <v>47700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>35400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-44500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-25700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>31600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>23100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47100</v>
+        <v>51700</v>
       </c>
       <c r="E83" s="3">
-        <v>49300</v>
+        <v>44400</v>
       </c>
       <c r="F83" s="3">
-        <v>48200</v>
+        <v>46000</v>
       </c>
       <c r="G83" s="3">
-        <v>52600</v>
+        <v>48100</v>
       </c>
       <c r="H83" s="3">
-        <v>49100</v>
+        <v>47000</v>
       </c>
       <c r="I83" s="3">
+        <v>51300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K83" s="3">
         <v>47600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>48900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>44300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>48100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>50100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>45800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>45300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>52300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>50400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>41500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>42900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>48800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36800</v>
+        <v>84600</v>
       </c>
       <c r="E89" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>35900</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>82900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
-        <v>35900</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-20800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-19600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>212500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>29600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-56000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>151600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>130000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>27400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-57900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>23400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>231800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>52400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-55900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H91" s="3">
-        <v>-6400</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-9900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-11500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13200</v>
+        <v>-86200</v>
       </c>
       <c r="E94" s="3">
-        <v>-50800</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="3">
-        <v>-72900</v>
+        <v>-12900</v>
       </c>
       <c r="G94" s="3">
-        <v>-11800</v>
+        <v>-49600</v>
       </c>
       <c r="H94" s="3">
-        <v>-35300</v>
+        <v>-71100</v>
       </c>
       <c r="I94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-220100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-43100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-24500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-143500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-21300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-20800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-116400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-31700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>5300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,13 +6016,15 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-14200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5565,55 +6033,61 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-16200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-15800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-14300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-15000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-15600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="E100" s="3">
-        <v>81300</v>
+        <v>-500</v>
       </c>
       <c r="F100" s="3">
-        <v>-600</v>
+        <v>-14800</v>
       </c>
       <c r="G100" s="3">
-        <v>-41700</v>
+        <v>79300</v>
       </c>
       <c r="H100" s="3">
-        <v>-20600</v>
+        <v>-500</v>
       </c>
       <c r="I100" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-15500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-15100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-15700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2900</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>8200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>9500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>9000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5600</v>
+        <v>-16000</v>
       </c>
       <c r="E102" s="3">
-        <v>29600</v>
+        <v>34500</v>
       </c>
       <c r="F102" s="3">
-        <v>10100</v>
+        <v>5500</v>
       </c>
       <c r="G102" s="3">
-        <v>-52800</v>
+        <v>28900</v>
       </c>
       <c r="H102" s="3">
-        <v>-14500</v>
+        <v>9900</v>
       </c>
       <c r="I102" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-53800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-228200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>161000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-75400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>103800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-79500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-96600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>179500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>39400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-54700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>168400</v>
+        <v>241700</v>
       </c>
       <c r="E8" s="3">
-        <v>125100</v>
+        <v>164900</v>
       </c>
       <c r="F8" s="3">
-        <v>157500</v>
+        <v>122500</v>
       </c>
       <c r="G8" s="3">
-        <v>230100</v>
+        <v>154200</v>
       </c>
       <c r="H8" s="3">
-        <v>145100</v>
+        <v>225400</v>
       </c>
       <c r="I8" s="3">
-        <v>108500</v>
+        <v>142100</v>
       </c>
       <c r="J8" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K8" s="3">
         <v>164700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>184700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>185900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>202500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>275500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>178300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>157200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>190200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>231400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>187400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>229400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>167500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>207900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,19 +1143,22 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1147,124 +1166,130 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>5000</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+        <v>4900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>25900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-6300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>51700</v>
+        <v>55100</v>
       </c>
       <c r="E15" s="3">
-        <v>44400</v>
+        <v>50600</v>
       </c>
       <c r="F15" s="3">
-        <v>46000</v>
+        <v>43500</v>
       </c>
       <c r="G15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>47100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>46100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>47600</v>
+      </c>
+      <c r="M15" s="3">
+        <v>48900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="P15" s="3">
         <v>48100</v>
       </c>
-      <c r="H15" s="3">
-        <v>47000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>46300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>47600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>48900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>47000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>48100</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>50100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>52300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>50400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>42900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>48800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181900</v>
+        <v>234700</v>
       </c>
       <c r="E17" s="3">
-        <v>174000</v>
+        <v>178100</v>
       </c>
       <c r="F17" s="3">
-        <v>186200</v>
+        <v>170400</v>
       </c>
       <c r="G17" s="3">
-        <v>165600</v>
+        <v>182300</v>
       </c>
       <c r="H17" s="3">
-        <v>181100</v>
+        <v>162100</v>
       </c>
       <c r="I17" s="3">
-        <v>160300</v>
+        <v>177400</v>
       </c>
       <c r="J17" s="3">
+        <v>157000</v>
+      </c>
+      <c r="K17" s="3">
         <v>169100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>180000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>169700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>217300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>183500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>217400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>187500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>180800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>176400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>164000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>175800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>172900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>158300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13500</v>
+        <v>7000</v>
       </c>
       <c r="E18" s="3">
-        <v>-48900</v>
+        <v>-13200</v>
       </c>
       <c r="F18" s="3">
-        <v>-28700</v>
+        <v>-47900</v>
       </c>
       <c r="G18" s="3">
-        <v>64600</v>
+        <v>-28100</v>
       </c>
       <c r="H18" s="3">
-        <v>-36000</v>
+        <v>63200</v>
       </c>
       <c r="I18" s="3">
-        <v>-51800</v>
+        <v>-35300</v>
       </c>
       <c r="J18" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-31400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-30300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>55000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>49600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>32800</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="3">
-        <v>5900</v>
+        <v>32100</v>
       </c>
       <c r="I20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>32300</v>
+        <v>59300</v>
       </c>
       <c r="E21" s="3">
-        <v>-4400</v>
+        <v>31700</v>
       </c>
       <c r="F21" s="3">
-        <v>22200</v>
+        <v>-4300</v>
       </c>
       <c r="G21" s="3">
-        <v>145400</v>
+        <v>21700</v>
       </c>
       <c r="H21" s="3">
+        <v>142400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K21" s="3">
         <v>16900</v>
       </c>
-      <c r="I21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>16900</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>65400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>104800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>61600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>79400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>98100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>89700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7000</v>
       </c>
-      <c r="E22" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K22" s="3">
         <v>6900</v>
       </c>
-      <c r="G22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7100</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26400</v>
+        <v>-2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-56000</v>
+        <v>-25800</v>
       </c>
       <c r="F23" s="3">
-        <v>-30600</v>
+        <v>-54900</v>
       </c>
       <c r="G23" s="3">
-        <v>90700</v>
+        <v>-30000</v>
       </c>
       <c r="H23" s="3">
-        <v>-36000</v>
+        <v>88900</v>
       </c>
       <c r="I23" s="3">
-        <v>-61900</v>
+        <v>-35300</v>
       </c>
       <c r="J23" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-38000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-48300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>33800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5700</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
-        <v>-9500</v>
-      </c>
       <c r="G24" s="3">
-        <v>-4700</v>
+        <v>-9300</v>
       </c>
       <c r="H24" s="3">
-        <v>-200</v>
+        <v>-4600</v>
       </c>
       <c r="I24" s="3">
-        <v>-12300</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-57600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>95500</v>
-      </c>
       <c r="H26" s="3">
-        <v>-35900</v>
+        <v>93500</v>
       </c>
       <c r="I26" s="3">
-        <v>-49700</v>
+        <v>-35100</v>
       </c>
       <c r="J26" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-24300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-44500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-57600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>95500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-35900</v>
+        <v>93500</v>
       </c>
       <c r="I27" s="3">
-        <v>-49700</v>
+        <v>-35100</v>
       </c>
       <c r="J27" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-24300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-44500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,31 +2129,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-85700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-3000</v>
+        <v>-83900</v>
       </c>
       <c r="G29" s="3">
-        <v>-10500</v>
+        <v>-2900</v>
       </c>
       <c r="H29" s="3">
-        <v>-4400</v>
+        <v>-10300</v>
       </c>
       <c r="I29" s="3">
-        <v>1100</v>
+        <v>-4300</v>
       </c>
       <c r="J29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-6200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2101,21 +2161,21 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-63900</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-32800</v>
+        <v>-4800</v>
       </c>
       <c r="H32" s="3">
-        <v>-5900</v>
+        <v>-32100</v>
       </c>
       <c r="I32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20700</v>
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-143300</v>
+        <v>-20300</v>
       </c>
       <c r="F33" s="3">
-        <v>-24100</v>
+        <v>-140300</v>
       </c>
       <c r="G33" s="3">
-        <v>85000</v>
+        <v>-23600</v>
       </c>
       <c r="H33" s="3">
-        <v>-40300</v>
+        <v>83200</v>
       </c>
       <c r="I33" s="3">
-        <v>-48600</v>
+        <v>-39500</v>
       </c>
       <c r="J33" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-30400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-25700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20700</v>
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-143300</v>
+        <v>-20300</v>
       </c>
       <c r="F35" s="3">
-        <v>-24100</v>
+        <v>-140300</v>
       </c>
       <c r="G35" s="3">
-        <v>85000</v>
+        <v>-23600</v>
       </c>
       <c r="H35" s="3">
-        <v>-40300</v>
+        <v>83200</v>
       </c>
       <c r="I35" s="3">
-        <v>-48600</v>
+        <v>-39500</v>
       </c>
       <c r="J35" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-30400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-25700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131300</v>
+        <v>114000</v>
       </c>
       <c r="E41" s="3">
-        <v>147300</v>
+        <v>128600</v>
       </c>
       <c r="F41" s="3">
-        <v>112800</v>
+        <v>144300</v>
       </c>
       <c r="G41" s="3">
-        <v>107300</v>
+        <v>110400</v>
       </c>
       <c r="H41" s="3">
-        <v>78500</v>
+        <v>105100</v>
       </c>
       <c r="I41" s="3">
-        <v>68600</v>
+        <v>76800</v>
       </c>
       <c r="J41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K41" s="3">
         <v>120100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>191300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>435300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>258100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>251500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>326900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>312900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>209100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>202600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>282000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>378600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>201000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>161600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2886,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112400</v>
+        <v>164000</v>
       </c>
       <c r="E43" s="3">
-        <v>123100</v>
+        <v>110100</v>
       </c>
       <c r="F43" s="3">
+        <v>120600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>111000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>169900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>128100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K43" s="3">
         <v>113300</v>
       </c>
-      <c r="G43" s="3">
-        <v>173400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>130800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>217500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>113300</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>144100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>92300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>247800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>164900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>122400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>218300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>152200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>160500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>111200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>135300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>114100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>163800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2874,407 +2969,425 @@
         <v>3700</v>
       </c>
       <c r="E44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1800</v>
       </c>
       <c r="R44" s="3">
         <v>1800</v>
       </c>
       <c r="S44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T44" s="3">
         <v>2500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36100</v>
+        <v>28700</v>
       </c>
       <c r="E45" s="3">
-        <v>10300</v>
+        <v>35300</v>
       </c>
       <c r="F45" s="3">
-        <v>17900</v>
+        <v>10100</v>
       </c>
       <c r="G45" s="3">
-        <v>23900</v>
+        <v>17500</v>
       </c>
       <c r="H45" s="3">
-        <v>28900</v>
+        <v>23400</v>
       </c>
       <c r="I45" s="3">
-        <v>10200</v>
+        <v>28300</v>
       </c>
       <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>283500</v>
+        <v>310400</v>
       </c>
       <c r="E46" s="3">
-        <v>283500</v>
+        <v>277600</v>
       </c>
       <c r="F46" s="3">
-        <v>247100</v>
+        <v>277600</v>
       </c>
       <c r="G46" s="3">
-        <v>308400</v>
+        <v>242000</v>
       </c>
       <c r="H46" s="3">
-        <v>242900</v>
+        <v>302000</v>
       </c>
       <c r="I46" s="3">
-        <v>299200</v>
+        <v>237800</v>
       </c>
       <c r="J46" s="3">
+        <v>293100</v>
+      </c>
+      <c r="K46" s="3">
         <v>252100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>303100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>341700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>549500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>509300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>420600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>453500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>534500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>366700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>369100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>399100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>520200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>322100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>332900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56900</v>
+        <v>53500</v>
       </c>
       <c r="E47" s="3">
-        <v>27200</v>
+        <v>55700</v>
       </c>
       <c r="F47" s="3">
-        <v>35100</v>
+        <v>26600</v>
       </c>
       <c r="G47" s="3">
-        <v>45700</v>
+        <v>34400</v>
       </c>
       <c r="H47" s="3">
-        <v>33400</v>
+        <v>44800</v>
       </c>
       <c r="I47" s="3">
-        <v>58200</v>
+        <v>32700</v>
       </c>
       <c r="J47" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K47" s="3">
         <v>56500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>14000</v>
       </c>
       <c r="N47" s="3">
         <v>14000</v>
       </c>
       <c r="O47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P47" s="3">
         <v>14400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>361700</v>
+        <v>352000</v>
       </c>
       <c r="E48" s="3">
-        <v>362100</v>
+        <v>354200</v>
       </c>
       <c r="F48" s="3">
-        <v>365200</v>
+        <v>354600</v>
       </c>
       <c r="G48" s="3">
-        <v>367100</v>
+        <v>357600</v>
       </c>
       <c r="H48" s="3">
-        <v>370000</v>
+        <v>359500</v>
       </c>
       <c r="I48" s="3">
-        <v>372500</v>
+        <v>362400</v>
       </c>
       <c r="J48" s="3">
+        <v>364800</v>
+      </c>
+      <c r="K48" s="3">
         <v>378900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>386600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>384000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>383500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>346300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>344300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>345200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>353000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>352800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>661600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>340100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>337400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>339900</v>
       </c>
       <c r="W48" s="3">
         <v>339900</v>
       </c>
       <c r="X48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="Y48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1129900</v>
+        <v>1058800</v>
       </c>
       <c r="E49" s="3">
-        <v>1004300</v>
+        <v>1106600</v>
       </c>
       <c r="F49" s="3">
-        <v>1033700</v>
+        <v>983500</v>
       </c>
       <c r="G49" s="3">
-        <v>1034900</v>
+        <v>1012400</v>
       </c>
       <c r="H49" s="3">
-        <v>1039100</v>
+        <v>1013500</v>
       </c>
       <c r="I49" s="3">
-        <v>1031800</v>
+        <v>1017600</v>
       </c>
       <c r="J49" s="3">
+        <v>1010500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1044600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1034400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1071500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1088000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>956700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>976700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1013600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1033800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>972200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2008800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1050900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>935900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>931700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1018200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="E52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
-        <v>83300</v>
-      </c>
       <c r="G52" s="3">
-        <v>83000</v>
+        <v>81600</v>
       </c>
       <c r="H52" s="3">
-        <v>73700</v>
+        <v>81200</v>
       </c>
       <c r="I52" s="3">
-        <v>79800</v>
+        <v>72200</v>
       </c>
       <c r="J52" s="3">
-        <v>73500</v>
+        <v>78200</v>
       </c>
       <c r="K52" s="3">
         <v>73500</v>
       </c>
       <c r="L52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="M52" s="3">
         <v>75800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>77000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>88400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>88100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>104000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>102600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>177500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>186700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>192900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>194100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1838800</v>
+        <v>1780500</v>
       </c>
       <c r="E54" s="3">
-        <v>1677600</v>
+        <v>1800800</v>
       </c>
       <c r="F54" s="3">
-        <v>1764400</v>
+        <v>1642900</v>
       </c>
       <c r="G54" s="3">
-        <v>1839000</v>
+        <v>1727900</v>
       </c>
       <c r="H54" s="3">
-        <v>1759100</v>
+        <v>1801000</v>
       </c>
       <c r="I54" s="3">
-        <v>1841500</v>
+        <v>1722800</v>
       </c>
       <c r="J54" s="3">
+        <v>1803500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1805500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1852900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1930100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2117700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1903300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1835600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1914900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1998400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1786500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1832200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1980600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2000400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1806400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1890700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>311100</v>
+        <v>270300</v>
       </c>
       <c r="E57" s="3">
-        <v>256500</v>
+        <v>304700</v>
       </c>
       <c r="F57" s="3">
-        <v>240100</v>
+        <v>251200</v>
       </c>
       <c r="G57" s="3">
-        <v>230300</v>
+        <v>235100</v>
       </c>
       <c r="H57" s="3">
-        <v>251300</v>
+        <v>225500</v>
       </c>
       <c r="I57" s="3">
-        <v>287600</v>
+        <v>246100</v>
       </c>
       <c r="J57" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K57" s="3">
         <v>254500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>207400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>233800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>326000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>247300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>238500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>244400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>346500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>270000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>238600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>264200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>248200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>232300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>219500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84100</v>
+        <v>138100</v>
       </c>
       <c r="E58" s="3">
-        <v>88400</v>
+        <v>82400</v>
       </c>
       <c r="F58" s="3">
-        <v>84700</v>
+        <v>86600</v>
       </c>
       <c r="G58" s="3">
-        <v>87400</v>
+        <v>82900</v>
       </c>
       <c r="H58" s="3">
+        <v>85600</v>
+      </c>
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
-        <v>8900</v>
-      </c>
       <c r="J58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261700</v>
+        <v>208200</v>
       </c>
       <c r="E59" s="3">
-        <v>166300</v>
+        <v>256300</v>
       </c>
       <c r="F59" s="3">
-        <v>163400</v>
+        <v>162900</v>
       </c>
       <c r="G59" s="3">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="H59" s="3">
-        <v>230400</v>
+        <v>195800</v>
       </c>
       <c r="I59" s="3">
-        <v>233700</v>
+        <v>225600</v>
       </c>
       <c r="J59" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K59" s="3">
         <v>137700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>209000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>273100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>218600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>178900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>238400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>99100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>157200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>262900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>279700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>141200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>204600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>656900</v>
+        <v>616600</v>
       </c>
       <c r="E60" s="3">
-        <v>511200</v>
+        <v>643300</v>
       </c>
       <c r="F60" s="3">
-        <v>488200</v>
+        <v>500600</v>
       </c>
       <c r="G60" s="3">
-        <v>517700</v>
+        <v>478100</v>
       </c>
       <c r="H60" s="3">
-        <v>485700</v>
+        <v>507000</v>
       </c>
       <c r="I60" s="3">
-        <v>530200</v>
+        <v>475700</v>
       </c>
       <c r="J60" s="3">
+        <v>519300</v>
+      </c>
+      <c r="K60" s="3">
         <v>397500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>425800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>524900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>606900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>468800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>424700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>547500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>596600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>376800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>407800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>535200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>535400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>377100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>432200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>637800</v>
+        <v>625800</v>
       </c>
       <c r="E61" s="3">
-        <v>623100</v>
+        <v>624600</v>
       </c>
       <c r="F61" s="3">
-        <v>624600</v>
+        <v>610300</v>
       </c>
       <c r="G61" s="3">
-        <v>631300</v>
+        <v>611700</v>
       </c>
       <c r="H61" s="3">
-        <v>666200</v>
+        <v>618300</v>
       </c>
       <c r="I61" s="3">
-        <v>696600</v>
+        <v>652500</v>
       </c>
       <c r="J61" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K61" s="3">
         <v>692800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>668900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>717900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>715700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>656800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>663800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>650400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>629200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>590800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>619200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>623500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>649100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>679800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>692400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>215700</v>
+        <v>216500</v>
       </c>
       <c r="E62" s="3">
-        <v>180500</v>
+        <v>211300</v>
       </c>
       <c r="F62" s="3">
-        <v>146400</v>
+        <v>176800</v>
       </c>
       <c r="G62" s="3">
+        <v>143400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>147100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>152200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>164000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>129500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>127200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>207600</v>
+      </c>
+      <c r="O62" s="3">
+        <v>173500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>149100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>145800</v>
+      </c>
+      <c r="R62" s="3">
+        <v>220400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>189900</v>
+      </c>
+      <c r="T62" s="3">
+        <v>181100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>172900</v>
+      </c>
+      <c r="V62" s="3">
+        <v>189700</v>
+      </c>
+      <c r="W62" s="3">
+        <v>146700</v>
+      </c>
+      <c r="X62" s="3">
         <v>150200</v>
       </c>
-      <c r="H62" s="3">
-        <v>155400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>147200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>164000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>129500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>127200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>207600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>173500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>149100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>145800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>220400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>189900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>181100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>172900</v>
-      </c>
-      <c r="U62" s="3">
-        <v>189700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>146700</v>
-      </c>
-      <c r="W62" s="3">
-        <v>150200</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1510500</v>
+        <v>1458900</v>
       </c>
       <c r="E66" s="3">
-        <v>1314900</v>
+        <v>1479200</v>
       </c>
       <c r="F66" s="3">
-        <v>1259200</v>
+        <v>1287700</v>
       </c>
       <c r="G66" s="3">
-        <v>1299200</v>
+        <v>1233100</v>
       </c>
       <c r="H66" s="3">
-        <v>1307400</v>
+        <v>1272300</v>
       </c>
       <c r="I66" s="3">
-        <v>1374000</v>
+        <v>1280400</v>
       </c>
       <c r="J66" s="3">
+        <v>1345600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1254400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1224200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1370000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1530200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1299100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1237600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1343700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1446200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1157500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1208100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1331600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1374200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1203600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1274800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>279100</v>
+        <v>272100</v>
       </c>
       <c r="E72" s="3">
-        <v>313300</v>
+        <v>273400</v>
       </c>
       <c r="F72" s="3">
-        <v>456800</v>
+        <v>306800</v>
       </c>
       <c r="G72" s="3">
-        <v>494600</v>
+        <v>447400</v>
       </c>
       <c r="H72" s="3">
-        <v>408900</v>
+        <v>484300</v>
       </c>
       <c r="I72" s="3">
-        <v>447600</v>
+        <v>400500</v>
       </c>
       <c r="J72" s="3">
+        <v>438300</v>
+      </c>
+      <c r="K72" s="3">
         <v>511700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>570600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>522500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>540400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>553600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>554200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>518600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>498700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>556100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>565500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>590400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>577100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>562200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>582100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>328300</v>
+        <v>321700</v>
       </c>
       <c r="E76" s="3">
-        <v>362700</v>
+        <v>321600</v>
       </c>
       <c r="F76" s="3">
-        <v>505200</v>
+        <v>355200</v>
       </c>
       <c r="G76" s="3">
-        <v>539900</v>
+        <v>494800</v>
       </c>
       <c r="H76" s="3">
-        <v>451700</v>
+        <v>528700</v>
       </c>
       <c r="I76" s="3">
-        <v>467500</v>
+        <v>442400</v>
       </c>
       <c r="J76" s="3">
+        <v>457900</v>
+      </c>
+      <c r="K76" s="3">
         <v>551100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>628700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>560000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>587600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>604200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>598000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>571200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>552200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>629000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>624100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>649100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>626200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>602800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>615800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20700</v>
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-143300</v>
+        <v>-20300</v>
       </c>
       <c r="F81" s="3">
-        <v>-24100</v>
+        <v>-140300</v>
       </c>
       <c r="G81" s="3">
-        <v>85000</v>
+        <v>-23600</v>
       </c>
       <c r="H81" s="3">
-        <v>-40300</v>
+        <v>83200</v>
       </c>
       <c r="I81" s="3">
-        <v>-48600</v>
+        <v>-39500</v>
       </c>
       <c r="J81" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-30400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-25700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51700</v>
+        <v>55100</v>
       </c>
       <c r="E83" s="3">
-        <v>44400</v>
+        <v>50600</v>
       </c>
       <c r="F83" s="3">
-        <v>46000</v>
+        <v>43500</v>
       </c>
       <c r="G83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>47100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>46100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>47600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>48900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="P83" s="3">
         <v>48100</v>
       </c>
-      <c r="H83" s="3">
-        <v>47000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>51300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>48000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>47600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>48900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>47000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>48100</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>84600</v>
+        <v>-41100</v>
       </c>
       <c r="E89" s="3">
-        <v>33000</v>
+        <v>82900</v>
       </c>
       <c r="F89" s="3">
-        <v>35900</v>
+        <v>32300</v>
       </c>
       <c r="G89" s="3">
+        <v>35200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
-        <v>82900</v>
-      </c>
       <c r="I89" s="3">
+        <v>81200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>212500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-56000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>151600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>130000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-57900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>231800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>52400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-55900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86200</v>
+        <v>-24300</v>
       </c>
       <c r="E94" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="F94" s="3">
         <v>1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-12900</v>
-      </c>
       <c r="G94" s="3">
-        <v>-49600</v>
+        <v>-12600</v>
       </c>
       <c r="H94" s="3">
-        <v>-71100</v>
+        <v>-48600</v>
       </c>
       <c r="I94" s="3">
-        <v>-11500</v>
+        <v>-69700</v>
       </c>
       <c r="J94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-220100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-143500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-116400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,16 +6250,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-13900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6039,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-15800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-15500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6051,11 +6284,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-16600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6063,11 +6296,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-14300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6075,19 +6308,22 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-15000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-15600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14800</v>
+        <v>51600</v>
       </c>
       <c r="E100" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
-        <v>-14800</v>
-      </c>
       <c r="G100" s="3">
-        <v>79300</v>
+        <v>-14500</v>
       </c>
       <c r="H100" s="3">
+        <v>77700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-40700</v>
-      </c>
       <c r="J100" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-500</v>
       </c>
       <c r="L100" s="3">
         <v>-500</v>
       </c>
       <c r="M100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N100" s="3">
         <v>-16600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
       <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-15100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-100</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
-        <v>1400</v>
-      </c>
       <c r="J101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16000</v>
+        <v>-14600</v>
       </c>
       <c r="E102" s="3">
-        <v>34500</v>
+        <v>-15600</v>
       </c>
       <c r="F102" s="3">
-        <v>5500</v>
+        <v>33800</v>
       </c>
       <c r="G102" s="3">
-        <v>28900</v>
+        <v>5300</v>
       </c>
       <c r="H102" s="3">
-        <v>9900</v>
+        <v>28300</v>
       </c>
       <c r="I102" s="3">
-        <v>-51500</v>
+        <v>9600</v>
       </c>
       <c r="J102" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-228200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>161000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>103800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-79500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-96600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>179500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-54700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>241700</v>
+        <v>226200</v>
       </c>
       <c r="E8" s="3">
-        <v>164900</v>
+        <v>154300</v>
       </c>
       <c r="F8" s="3">
-        <v>122500</v>
+        <v>114700</v>
       </c>
       <c r="G8" s="3">
-        <v>154200</v>
+        <v>144300</v>
       </c>
       <c r="H8" s="3">
-        <v>225400</v>
+        <v>210900</v>
       </c>
       <c r="I8" s="3">
-        <v>142100</v>
+        <v>133000</v>
       </c>
       <c r="J8" s="3">
-        <v>106200</v>
+        <v>99400</v>
       </c>
       <c r="K8" s="3">
         <v>164700</v>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55100</v>
+        <v>51500</v>
       </c>
       <c r="E15" s="3">
-        <v>50600</v>
+        <v>47400</v>
       </c>
       <c r="F15" s="3">
-        <v>43500</v>
+        <v>40700</v>
       </c>
       <c r="G15" s="3">
-        <v>45000</v>
+        <v>42100</v>
       </c>
       <c r="H15" s="3">
-        <v>47100</v>
+        <v>44100</v>
       </c>
       <c r="I15" s="3">
-        <v>46100</v>
+        <v>43100</v>
       </c>
       <c r="J15" s="3">
-        <v>45300</v>
+        <v>42400</v>
       </c>
       <c r="K15" s="3">
         <v>48000</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>234700</v>
+        <v>219600</v>
       </c>
       <c r="E17" s="3">
-        <v>178100</v>
+        <v>166700</v>
       </c>
       <c r="F17" s="3">
-        <v>170400</v>
+        <v>159500</v>
       </c>
       <c r="G17" s="3">
-        <v>182300</v>
+        <v>170600</v>
       </c>
       <c r="H17" s="3">
-        <v>162100</v>
+        <v>151700</v>
       </c>
       <c r="I17" s="3">
-        <v>177400</v>
+        <v>166000</v>
       </c>
       <c r="J17" s="3">
-        <v>157000</v>
+        <v>146900</v>
       </c>
       <c r="K17" s="3">
         <v>169100</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="E18" s="3">
-        <v>-13200</v>
+        <v>-12400</v>
       </c>
       <c r="F18" s="3">
-        <v>-47900</v>
+        <v>-44800</v>
       </c>
       <c r="G18" s="3">
-        <v>-28100</v>
+        <v>-26300</v>
       </c>
       <c r="H18" s="3">
-        <v>63200</v>
+        <v>59200</v>
       </c>
       <c r="I18" s="3">
-        <v>-35300</v>
+        <v>-33000</v>
       </c>
       <c r="J18" s="3">
-        <v>-50700</v>
+        <v>-47500</v>
       </c>
       <c r="K18" s="3">
         <v>-4400</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H20" s="3">
-        <v>32100</v>
+        <v>30000</v>
       </c>
       <c r="I20" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="K20" s="3">
         <v>-26700</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>59300</v>
+        <v>55500</v>
       </c>
       <c r="E21" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="F21" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G21" s="3">
-        <v>21700</v>
+        <v>20300</v>
       </c>
       <c r="H21" s="3">
-        <v>142400</v>
+        <v>133300</v>
       </c>
       <c r="I21" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="J21" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K21" s="3">
         <v>16900</v>
@@ -1629,25 +1629,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J22" s="3">
         <v>6900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7300</v>
       </c>
       <c r="K22" s="3">
         <v>6900</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="E23" s="3">
-        <v>-25800</v>
+        <v>-24200</v>
       </c>
       <c r="F23" s="3">
-        <v>-54900</v>
+        <v>-51400</v>
       </c>
       <c r="G23" s="3">
-        <v>-30000</v>
+        <v>-28100</v>
       </c>
       <c r="H23" s="3">
-        <v>88900</v>
+        <v>83200</v>
       </c>
       <c r="I23" s="3">
-        <v>-35300</v>
+        <v>-33000</v>
       </c>
       <c r="J23" s="3">
-        <v>-60700</v>
+        <v>-56800</v>
       </c>
       <c r="K23" s="3">
         <v>-38000</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>-5600</v>
+        <v>-5200</v>
       </c>
       <c r="F24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="3">
-        <v>-9300</v>
+        <v>-8700</v>
       </c>
       <c r="H24" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>-12000</v>
+        <v>-11300</v>
       </c>
       <c r="K24" s="3">
         <v>-13700</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="F26" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="G26" s="3">
-        <v>-20700</v>
+        <v>-19400</v>
       </c>
       <c r="H26" s="3">
-        <v>93500</v>
+        <v>87500</v>
       </c>
       <c r="I26" s="3">
-        <v>-35100</v>
+        <v>-32900</v>
       </c>
       <c r="J26" s="3">
-        <v>-48600</v>
+        <v>-45500</v>
       </c>
       <c r="K26" s="3">
         <v>-24300</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="F27" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="G27" s="3">
-        <v>-20700</v>
+        <v>-19400</v>
       </c>
       <c r="H27" s="3">
-        <v>93500</v>
+        <v>87500</v>
       </c>
       <c r="I27" s="3">
-        <v>-35100</v>
+        <v>-32900</v>
       </c>
       <c r="J27" s="3">
-        <v>-48600</v>
+        <v>-45500</v>
       </c>
       <c r="K27" s="3">
         <v>-24300</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-83900</v>
+        <v>-78500</v>
       </c>
       <c r="G29" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="H29" s="3">
-        <v>-10300</v>
+        <v>-9600</v>
       </c>
       <c r="I29" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="J29" s="3">
         <v>1000</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="H32" s="3">
-        <v>-32100</v>
+        <v>-30000</v>
       </c>
       <c r="I32" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="J32" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K32" s="3">
         <v>26700</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="F33" s="3">
-        <v>-140300</v>
+        <v>-131300</v>
       </c>
       <c r="G33" s="3">
-        <v>-23600</v>
+        <v>-22100</v>
       </c>
       <c r="H33" s="3">
-        <v>83200</v>
+        <v>77900</v>
       </c>
       <c r="I33" s="3">
-        <v>-39500</v>
+        <v>-36900</v>
       </c>
       <c r="J33" s="3">
-        <v>-47600</v>
+        <v>-44500</v>
       </c>
       <c r="K33" s="3">
         <v>-30400</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="F35" s="3">
-        <v>-140300</v>
+        <v>-131300</v>
       </c>
       <c r="G35" s="3">
-        <v>-23600</v>
+        <v>-22100</v>
       </c>
       <c r="H35" s="3">
-        <v>83200</v>
+        <v>77900</v>
       </c>
       <c r="I35" s="3">
-        <v>-39500</v>
+        <v>-36900</v>
       </c>
       <c r="J35" s="3">
-        <v>-47600</v>
+        <v>-44500</v>
       </c>
       <c r="K35" s="3">
         <v>-30400</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>114000</v>
+        <v>106700</v>
       </c>
       <c r="E41" s="3">
-        <v>128600</v>
+        <v>120400</v>
       </c>
       <c r="F41" s="3">
-        <v>144300</v>
+        <v>135000</v>
       </c>
       <c r="G41" s="3">
-        <v>110400</v>
+        <v>103300</v>
       </c>
       <c r="H41" s="3">
-        <v>105100</v>
+        <v>98300</v>
       </c>
       <c r="I41" s="3">
-        <v>76800</v>
+        <v>71900</v>
       </c>
       <c r="J41" s="3">
-        <v>67200</v>
+        <v>62900</v>
       </c>
       <c r="K41" s="3">
         <v>120100</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164000</v>
+        <v>153500</v>
       </c>
       <c r="E43" s="3">
-        <v>110100</v>
+        <v>103000</v>
       </c>
       <c r="F43" s="3">
-        <v>120600</v>
+        <v>112800</v>
       </c>
       <c r="G43" s="3">
-        <v>111000</v>
+        <v>103800</v>
       </c>
       <c r="H43" s="3">
-        <v>169900</v>
+        <v>158900</v>
       </c>
       <c r="I43" s="3">
-        <v>128100</v>
+        <v>119900</v>
       </c>
       <c r="J43" s="3">
-        <v>213000</v>
+        <v>199300</v>
       </c>
       <c r="K43" s="3">
         <v>113300</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E44" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J44" s="3">
         <v>2700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2800</v>
       </c>
       <c r="K44" s="3">
         <v>3200</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="E45" s="3">
-        <v>35300</v>
+        <v>33000</v>
       </c>
       <c r="F45" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="G45" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="H45" s="3">
-        <v>23400</v>
+        <v>21900</v>
       </c>
       <c r="I45" s="3">
-        <v>28300</v>
+        <v>26500</v>
       </c>
       <c r="J45" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="K45" s="3">
         <v>15400</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>310400</v>
+        <v>290500</v>
       </c>
       <c r="E46" s="3">
-        <v>277600</v>
+        <v>259800</v>
       </c>
       <c r="F46" s="3">
-        <v>277600</v>
+        <v>259800</v>
       </c>
       <c r="G46" s="3">
-        <v>242000</v>
+        <v>226400</v>
       </c>
       <c r="H46" s="3">
-        <v>302000</v>
+        <v>282600</v>
       </c>
       <c r="I46" s="3">
-        <v>237800</v>
+        <v>222600</v>
       </c>
       <c r="J46" s="3">
-        <v>293100</v>
+        <v>274200</v>
       </c>
       <c r="K46" s="3">
         <v>252100</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>53500</v>
+        <v>50000</v>
       </c>
       <c r="E47" s="3">
-        <v>55700</v>
+        <v>52100</v>
       </c>
       <c r="F47" s="3">
-        <v>26600</v>
+        <v>24900</v>
       </c>
       <c r="G47" s="3">
-        <v>34400</v>
+        <v>32200</v>
       </c>
       <c r="H47" s="3">
-        <v>44800</v>
+        <v>41900</v>
       </c>
       <c r="I47" s="3">
-        <v>32700</v>
+        <v>30600</v>
       </c>
       <c r="J47" s="3">
-        <v>57000</v>
+        <v>53300</v>
       </c>
       <c r="K47" s="3">
         <v>56500</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>352000</v>
+        <v>329400</v>
       </c>
       <c r="E48" s="3">
-        <v>354200</v>
+        <v>331500</v>
       </c>
       <c r="F48" s="3">
-        <v>354600</v>
+        <v>331800</v>
       </c>
       <c r="G48" s="3">
-        <v>357600</v>
+        <v>334700</v>
       </c>
       <c r="H48" s="3">
-        <v>359500</v>
+        <v>336500</v>
       </c>
       <c r="I48" s="3">
-        <v>362400</v>
+        <v>339100</v>
       </c>
       <c r="J48" s="3">
-        <v>364800</v>
+        <v>341400</v>
       </c>
       <c r="K48" s="3">
         <v>378900</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1058800</v>
+        <v>990900</v>
       </c>
       <c r="E49" s="3">
-        <v>1106600</v>
+        <v>1035500</v>
       </c>
       <c r="F49" s="3">
-        <v>983500</v>
+        <v>920400</v>
       </c>
       <c r="G49" s="3">
-        <v>1012400</v>
+        <v>947400</v>
       </c>
       <c r="H49" s="3">
-        <v>1013500</v>
+        <v>948400</v>
       </c>
       <c r="I49" s="3">
-        <v>1017600</v>
+        <v>952300</v>
       </c>
       <c r="J49" s="3">
-        <v>1010500</v>
+        <v>945600</v>
       </c>
       <c r="K49" s="3">
         <v>1044600</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>81600</v>
+        <v>76300</v>
       </c>
       <c r="H52" s="3">
-        <v>81200</v>
+        <v>76000</v>
       </c>
       <c r="I52" s="3">
-        <v>72200</v>
+        <v>67600</v>
       </c>
       <c r="J52" s="3">
-        <v>78200</v>
+        <v>73200</v>
       </c>
       <c r="K52" s="3">
         <v>73500</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1780500</v>
+        <v>1666200</v>
       </c>
       <c r="E54" s="3">
-        <v>1800800</v>
+        <v>1685200</v>
       </c>
       <c r="F54" s="3">
-        <v>1642900</v>
+        <v>1537500</v>
       </c>
       <c r="G54" s="3">
-        <v>1727900</v>
+        <v>1617000</v>
       </c>
       <c r="H54" s="3">
-        <v>1801000</v>
+        <v>1685400</v>
       </c>
       <c r="I54" s="3">
-        <v>1722800</v>
+        <v>1612200</v>
       </c>
       <c r="J54" s="3">
-        <v>1803500</v>
+        <v>1687700</v>
       </c>
       <c r="K54" s="3">
         <v>1805500</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>270300</v>
+        <v>252900</v>
       </c>
       <c r="E57" s="3">
-        <v>304700</v>
+        <v>285100</v>
       </c>
       <c r="F57" s="3">
-        <v>251200</v>
+        <v>235000</v>
       </c>
       <c r="G57" s="3">
-        <v>235100</v>
+        <v>220000</v>
       </c>
       <c r="H57" s="3">
-        <v>225500</v>
+        <v>211100</v>
       </c>
       <c r="I57" s="3">
-        <v>246100</v>
+        <v>230300</v>
       </c>
       <c r="J57" s="3">
-        <v>281700</v>
+        <v>263600</v>
       </c>
       <c r="K57" s="3">
         <v>254500</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>138100</v>
+        <v>129200</v>
       </c>
       <c r="E58" s="3">
-        <v>82400</v>
+        <v>77100</v>
       </c>
       <c r="F58" s="3">
-        <v>86600</v>
+        <v>81100</v>
       </c>
       <c r="G58" s="3">
-        <v>82900</v>
+        <v>77600</v>
       </c>
       <c r="H58" s="3">
-        <v>85600</v>
+        <v>80100</v>
       </c>
       <c r="I58" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="J58" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="K58" s="3">
         <v>5300</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>208200</v>
+        <v>194800</v>
       </c>
       <c r="E59" s="3">
-        <v>256300</v>
+        <v>239800</v>
       </c>
       <c r="F59" s="3">
-        <v>162900</v>
+        <v>152400</v>
       </c>
       <c r="G59" s="3">
-        <v>160000</v>
+        <v>149700</v>
       </c>
       <c r="H59" s="3">
-        <v>195800</v>
+        <v>183300</v>
       </c>
       <c r="I59" s="3">
-        <v>225600</v>
+        <v>211100</v>
       </c>
       <c r="J59" s="3">
-        <v>228900</v>
+        <v>214200</v>
       </c>
       <c r="K59" s="3">
         <v>137700</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>616600</v>
+        <v>577000</v>
       </c>
       <c r="E60" s="3">
-        <v>643300</v>
+        <v>602000</v>
       </c>
       <c r="F60" s="3">
-        <v>500600</v>
+        <v>468500</v>
       </c>
       <c r="G60" s="3">
-        <v>478100</v>
+        <v>447400</v>
       </c>
       <c r="H60" s="3">
-        <v>507000</v>
+        <v>474400</v>
       </c>
       <c r="I60" s="3">
-        <v>475700</v>
+        <v>445100</v>
       </c>
       <c r="J60" s="3">
-        <v>519300</v>
+        <v>485900</v>
       </c>
       <c r="K60" s="3">
         <v>397500</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>625800</v>
+        <v>585600</v>
       </c>
       <c r="E61" s="3">
-        <v>624600</v>
+        <v>584500</v>
       </c>
       <c r="F61" s="3">
-        <v>610300</v>
+        <v>571100</v>
       </c>
       <c r="G61" s="3">
-        <v>611700</v>
+        <v>572400</v>
       </c>
       <c r="H61" s="3">
-        <v>618300</v>
+        <v>578600</v>
       </c>
       <c r="I61" s="3">
-        <v>652500</v>
+        <v>610600</v>
       </c>
       <c r="J61" s="3">
-        <v>682200</v>
+        <v>638400</v>
       </c>
       <c r="K61" s="3">
         <v>692800</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>216500</v>
+        <v>202600</v>
       </c>
       <c r="E62" s="3">
-        <v>211300</v>
+        <v>197700</v>
       </c>
       <c r="F62" s="3">
-        <v>176800</v>
+        <v>165500</v>
       </c>
       <c r="G62" s="3">
-        <v>143400</v>
+        <v>134200</v>
       </c>
       <c r="H62" s="3">
-        <v>147100</v>
+        <v>137600</v>
       </c>
       <c r="I62" s="3">
-        <v>152200</v>
+        <v>142500</v>
       </c>
       <c r="J62" s="3">
-        <v>144100</v>
+        <v>134900</v>
       </c>
       <c r="K62" s="3">
         <v>164000</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1458900</v>
+        <v>1365200</v>
       </c>
       <c r="E66" s="3">
-        <v>1479200</v>
+        <v>1384300</v>
       </c>
       <c r="F66" s="3">
-        <v>1287700</v>
+        <v>1205000</v>
       </c>
       <c r="G66" s="3">
-        <v>1233100</v>
+        <v>1154000</v>
       </c>
       <c r="H66" s="3">
-        <v>1272300</v>
+        <v>1190600</v>
       </c>
       <c r="I66" s="3">
-        <v>1280400</v>
+        <v>1198200</v>
       </c>
       <c r="J66" s="3">
-        <v>1345600</v>
+        <v>1259200</v>
       </c>
       <c r="K66" s="3">
         <v>1254400</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>272100</v>
+        <v>254600</v>
       </c>
       <c r="E72" s="3">
-        <v>273400</v>
+        <v>255800</v>
       </c>
       <c r="F72" s="3">
-        <v>306800</v>
+        <v>287100</v>
       </c>
       <c r="G72" s="3">
-        <v>447400</v>
+        <v>418700</v>
       </c>
       <c r="H72" s="3">
-        <v>484300</v>
+        <v>453200</v>
       </c>
       <c r="I72" s="3">
-        <v>400500</v>
+        <v>374800</v>
       </c>
       <c r="J72" s="3">
-        <v>438300</v>
+        <v>410200</v>
       </c>
       <c r="K72" s="3">
         <v>511700</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>321700</v>
+        <v>301000</v>
       </c>
       <c r="E76" s="3">
-        <v>321600</v>
+        <v>300900</v>
       </c>
       <c r="F76" s="3">
-        <v>355200</v>
+        <v>332400</v>
       </c>
       <c r="G76" s="3">
+        <v>463000</v>
+      </c>
+      <c r="H76" s="3">
         <v>494800</v>
       </c>
-      <c r="H76" s="3">
-        <v>528700</v>
-      </c>
       <c r="I76" s="3">
-        <v>442400</v>
+        <v>414000</v>
       </c>
       <c r="J76" s="3">
-        <v>457900</v>
+        <v>428500</v>
       </c>
       <c r="K76" s="3">
         <v>551100</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="F81" s="3">
-        <v>-140300</v>
+        <v>-131300</v>
       </c>
       <c r="G81" s="3">
-        <v>-23600</v>
+        <v>-22100</v>
       </c>
       <c r="H81" s="3">
-        <v>83200</v>
+        <v>77900</v>
       </c>
       <c r="I81" s="3">
-        <v>-39500</v>
+        <v>-36900</v>
       </c>
       <c r="J81" s="3">
-        <v>-47600</v>
+        <v>-44500</v>
       </c>
       <c r="K81" s="3">
         <v>-30400</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55100</v>
+        <v>51500</v>
       </c>
       <c r="E83" s="3">
-        <v>50600</v>
+        <v>47400</v>
       </c>
       <c r="F83" s="3">
-        <v>43500</v>
+        <v>40700</v>
       </c>
       <c r="G83" s="3">
-        <v>45000</v>
+        <v>42100</v>
       </c>
       <c r="H83" s="3">
-        <v>47100</v>
+        <v>44100</v>
       </c>
       <c r="I83" s="3">
-        <v>46100</v>
+        <v>43100</v>
       </c>
       <c r="J83" s="3">
-        <v>50300</v>
+        <v>47000</v>
       </c>
       <c r="K83" s="3">
         <v>48000</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41100</v>
+        <v>-38400</v>
       </c>
       <c r="E89" s="3">
-        <v>82900</v>
+        <v>77500</v>
       </c>
       <c r="F89" s="3">
-        <v>32300</v>
+        <v>30300</v>
       </c>
       <c r="G89" s="3">
-        <v>35200</v>
+        <v>32900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="I89" s="3">
-        <v>81200</v>
+        <v>76000</v>
       </c>
       <c r="J89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>35000</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="J91" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="K91" s="3">
         <v>-6200</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24300</v>
+        <v>-22800</v>
       </c>
       <c r="E94" s="3">
-        <v>-84400</v>
+        <v>-79000</v>
       </c>
       <c r="F94" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12600</v>
+        <v>-11800</v>
       </c>
       <c r="H94" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="I94" s="3">
-        <v>-69700</v>
+        <v>-65200</v>
       </c>
       <c r="J94" s="3">
-        <v>-11300</v>
+        <v>-10600</v>
       </c>
       <c r="K94" s="3">
         <v>-34400</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-13900</v>
+        <v>-13000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-15500</v>
+        <v>-14500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>51600</v>
+        <v>48300</v>
       </c>
       <c r="E100" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="F100" s="3">
         <v>-500</v>
       </c>
       <c r="G100" s="3">
-        <v>-14500</v>
+        <v>-13600</v>
       </c>
       <c r="H100" s="3">
-        <v>77700</v>
+        <v>72700</v>
       </c>
       <c r="I100" s="3">
         <v>-500</v>
       </c>
       <c r="J100" s="3">
-        <v>-39800</v>
+        <v>-37300</v>
       </c>
       <c r="K100" s="3">
         <v>-20100</v>
@@ -6615,22 +6615,22 @@
         <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H101" s="3">
         <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>5400</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14600</v>
       </c>
-      <c r="E102" s="3">
-        <v>-15600</v>
-      </c>
       <c r="F102" s="3">
-        <v>33800</v>
+        <v>31600</v>
       </c>
       <c r="G102" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H102" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="I102" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3">
-        <v>-50500</v>
+        <v>-47200</v>
       </c>
       <c r="K102" s="3">
         <v>-14100</v>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>226200</v>
+        <v>180700</v>
       </c>
       <c r="E8" s="3">
-        <v>154300</v>
+        <v>219300</v>
       </c>
       <c r="F8" s="3">
-        <v>114700</v>
+        <v>149600</v>
       </c>
       <c r="G8" s="3">
-        <v>144300</v>
+        <v>111200</v>
       </c>
       <c r="H8" s="3">
-        <v>210900</v>
+        <v>139900</v>
       </c>
       <c r="I8" s="3">
-        <v>133000</v>
+        <v>204500</v>
       </c>
       <c r="J8" s="3">
+        <v>128900</v>
+      </c>
+      <c r="K8" s="3">
         <v>99400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>164700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>184700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>185900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>202500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>275500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>178300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>157200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>190200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>231400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>187400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>229400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>167500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>207900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,22 +1163,25 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1169,127 +1189,133 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>25900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>51500</v>
+        <v>50800</v>
       </c>
       <c r="E15" s="3">
-        <v>47400</v>
+        <v>50000</v>
       </c>
       <c r="F15" s="3">
-        <v>40700</v>
+        <v>45900</v>
       </c>
       <c r="G15" s="3">
-        <v>42100</v>
+        <v>39500</v>
       </c>
       <c r="H15" s="3">
-        <v>44100</v>
+        <v>40800</v>
       </c>
       <c r="I15" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="J15" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K15" s="3">
         <v>42400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>47600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>47000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>50100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>45300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>52300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>50400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>42900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>48800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>219600</v>
+        <v>206600</v>
       </c>
       <c r="E17" s="3">
-        <v>166700</v>
+        <v>213000</v>
       </c>
       <c r="F17" s="3">
-        <v>159500</v>
+        <v>161600</v>
       </c>
       <c r="G17" s="3">
-        <v>170600</v>
+        <v>154600</v>
       </c>
       <c r="H17" s="3">
-        <v>151700</v>
+        <v>165400</v>
       </c>
       <c r="I17" s="3">
-        <v>166000</v>
+        <v>147100</v>
       </c>
       <c r="J17" s="3">
+        <v>161000</v>
+      </c>
+      <c r="K17" s="3">
         <v>146900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>169100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>180000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>169700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>217300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>183500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>217400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>187500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>180800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>176400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>164000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>175800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>172900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>158300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6500</v>
+        <v>-25800</v>
       </c>
       <c r="E18" s="3">
-        <v>-12400</v>
+        <v>6300</v>
       </c>
       <c r="F18" s="3">
-        <v>-44800</v>
+        <v>-12000</v>
       </c>
       <c r="G18" s="3">
-        <v>-26300</v>
+        <v>-43400</v>
       </c>
       <c r="H18" s="3">
-        <v>59200</v>
+        <v>-25500</v>
       </c>
       <c r="I18" s="3">
-        <v>-33000</v>
+        <v>57400</v>
       </c>
       <c r="J18" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-47500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>49800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-30300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>55000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>49600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-10100</v>
       </c>
       <c r="E20" s="3">
-        <v>-5400</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-5200</v>
       </c>
       <c r="G20" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>30000</v>
+        <v>4400</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>29100</v>
       </c>
       <c r="J20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>55500</v>
+        <v>14900</v>
       </c>
       <c r="E21" s="3">
-        <v>29600</v>
+        <v>53800</v>
       </c>
       <c r="F21" s="3">
-        <v>-4100</v>
+        <v>28700</v>
       </c>
       <c r="G21" s="3">
-        <v>20300</v>
+        <v>-3900</v>
       </c>
       <c r="H21" s="3">
-        <v>133300</v>
+        <v>19700</v>
       </c>
       <c r="I21" s="3">
-        <v>15500</v>
+        <v>129200</v>
       </c>
       <c r="J21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>65400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>104800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>68200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>61600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>108000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>79400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>98100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>39700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>89700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E22" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I22" s="3">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="J22" s="3">
-        <v>6900</v>
+        <v>5300</v>
       </c>
       <c r="K22" s="3">
         <v>6900</v>
       </c>
       <c r="L22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7100</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-42500</v>
       </c>
       <c r="E23" s="3">
-        <v>-24200</v>
+        <v>-2400</v>
       </c>
       <c r="F23" s="3">
-        <v>-51400</v>
+        <v>-23400</v>
       </c>
       <c r="G23" s="3">
-        <v>-28100</v>
+        <v>-49800</v>
       </c>
       <c r="H23" s="3">
-        <v>83200</v>
+        <v>-27200</v>
       </c>
       <c r="I23" s="3">
-        <v>-33000</v>
+        <v>80600</v>
       </c>
       <c r="J23" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-56800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-48300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>49600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>33800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F24" s="3">
-        <v>1500</v>
+        <v>-5100</v>
       </c>
       <c r="G24" s="3">
-        <v>-8700</v>
+        <v>1400</v>
       </c>
       <c r="H24" s="3">
-        <v>-4300</v>
+        <v>-8400</v>
       </c>
       <c r="I24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F26" s="3">
-        <v>-52800</v>
+        <v>-18400</v>
       </c>
       <c r="G26" s="3">
-        <v>-19400</v>
+        <v>-51200</v>
       </c>
       <c r="H26" s="3">
-        <v>87500</v>
+        <v>-18800</v>
       </c>
       <c r="I26" s="3">
-        <v>-32900</v>
+        <v>84800</v>
       </c>
       <c r="J26" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-45500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-44500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>31600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-52800</v>
+        <v>-18400</v>
       </c>
       <c r="G27" s="3">
-        <v>-19400</v>
+        <v>-51200</v>
       </c>
       <c r="H27" s="3">
-        <v>87500</v>
+        <v>-18800</v>
       </c>
       <c r="I27" s="3">
-        <v>-32900</v>
+        <v>84800</v>
       </c>
       <c r="J27" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-45500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-44500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>31600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2132,31 +2193,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-78500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-2700</v>
+        <v>-76100</v>
       </c>
       <c r="H29" s="3">
-        <v>-9600</v>
+        <v>-2600</v>
       </c>
       <c r="I29" s="3">
-        <v>-4000</v>
+        <v>-9300</v>
       </c>
       <c r="J29" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2164,21 +2225,21 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-63900</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>10100</v>
       </c>
       <c r="E32" s="3">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-30000</v>
+        <v>-4400</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-29100</v>
       </c>
       <c r="J32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-131300</v>
+        <v>-18400</v>
       </c>
       <c r="G33" s="3">
-        <v>-22100</v>
+        <v>-127400</v>
       </c>
       <c r="H33" s="3">
-        <v>77900</v>
+        <v>-21400</v>
       </c>
       <c r="I33" s="3">
-        <v>-36900</v>
+        <v>75500</v>
       </c>
       <c r="J33" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-44500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-44500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-25700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>31600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-131300</v>
+        <v>-18400</v>
       </c>
       <c r="G35" s="3">
-        <v>-22100</v>
+        <v>-127400</v>
       </c>
       <c r="H35" s="3">
-        <v>77900</v>
+        <v>-21400</v>
       </c>
       <c r="I35" s="3">
-        <v>-36900</v>
+        <v>75500</v>
       </c>
       <c r="J35" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-44500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-44500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-25700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>31600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>106700</v>
+        <v>113300</v>
       </c>
       <c r="E41" s="3">
-        <v>120400</v>
+        <v>103400</v>
       </c>
       <c r="F41" s="3">
-        <v>135000</v>
+        <v>116700</v>
       </c>
       <c r="G41" s="3">
-        <v>103300</v>
+        <v>130900</v>
       </c>
       <c r="H41" s="3">
-        <v>98300</v>
+        <v>100200</v>
       </c>
       <c r="I41" s="3">
-        <v>71900</v>
+        <v>95400</v>
       </c>
       <c r="J41" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K41" s="3">
         <v>62900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>191300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>435300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>258100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>251500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>326900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>312900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>209100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>202600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>282000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>378600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>201000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>161600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>153500</v>
+        <v>123200</v>
       </c>
       <c r="E43" s="3">
-        <v>103000</v>
+        <v>148900</v>
       </c>
       <c r="F43" s="3">
-        <v>112800</v>
+        <v>99900</v>
       </c>
       <c r="G43" s="3">
-        <v>103800</v>
+        <v>109400</v>
       </c>
       <c r="H43" s="3">
-        <v>158900</v>
+        <v>100700</v>
       </c>
       <c r="I43" s="3">
-        <v>119900</v>
+        <v>154100</v>
       </c>
       <c r="J43" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K43" s="3">
         <v>199300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>144100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>247800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>164900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>122400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>218300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>152200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>160500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>111200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>135300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>114100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>163800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="3">
         <v>3400</v>
       </c>
       <c r="F44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3">
-        <v>2900</v>
-      </c>
       <c r="H44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3400</v>
       </c>
-      <c r="I44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="R44" s="3">
         <v>3500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1800</v>
       </c>
       <c r="S44" s="3">
         <v>1800</v>
       </c>
       <c r="T44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U44" s="3">
         <v>2500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26800</v>
+        <v>25700</v>
       </c>
       <c r="E45" s="3">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="F45" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>26500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>290500</v>
+        <v>265400</v>
       </c>
       <c r="E46" s="3">
-        <v>259800</v>
+        <v>281700</v>
       </c>
       <c r="F46" s="3">
-        <v>259800</v>
+        <v>251900</v>
       </c>
       <c r="G46" s="3">
-        <v>226400</v>
+        <v>251900</v>
       </c>
       <c r="H46" s="3">
-        <v>282600</v>
+        <v>219600</v>
       </c>
       <c r="I46" s="3">
-        <v>222600</v>
+        <v>274000</v>
       </c>
       <c r="J46" s="3">
+        <v>215800</v>
+      </c>
+      <c r="K46" s="3">
         <v>274200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>252100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>303100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>341700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>549500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>509300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>420600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>453500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>534500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>366700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>369100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>399100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>520200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>322100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>332900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50000</v>
+        <v>41900</v>
       </c>
       <c r="E47" s="3">
-        <v>52100</v>
+        <v>48500</v>
       </c>
       <c r="F47" s="3">
-        <v>24900</v>
+        <v>50600</v>
       </c>
       <c r="G47" s="3">
-        <v>32200</v>
+        <v>24100</v>
       </c>
       <c r="H47" s="3">
-        <v>41900</v>
+        <v>31200</v>
       </c>
       <c r="I47" s="3">
-        <v>30600</v>
+        <v>40600</v>
       </c>
       <c r="J47" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K47" s="3">
         <v>53300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>57100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>14000</v>
       </c>
       <c r="O47" s="3">
         <v>14000</v>
       </c>
       <c r="P47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>14400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>329400</v>
+        <v>317700</v>
       </c>
       <c r="E48" s="3">
-        <v>331500</v>
+        <v>319400</v>
       </c>
       <c r="F48" s="3">
-        <v>331800</v>
+        <v>321400</v>
       </c>
       <c r="G48" s="3">
-        <v>334700</v>
+        <v>321700</v>
       </c>
       <c r="H48" s="3">
-        <v>336500</v>
+        <v>324500</v>
       </c>
       <c r="I48" s="3">
-        <v>339100</v>
+        <v>326200</v>
       </c>
       <c r="J48" s="3">
+        <v>328800</v>
+      </c>
+      <c r="K48" s="3">
         <v>341400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>378900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>386600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>384000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>383500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>346300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>344300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>345200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>353000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>352800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>661600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>340100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>337400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>339900</v>
       </c>
       <c r="X48" s="3">
         <v>339900</v>
       </c>
       <c r="Y48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="Z48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>990900</v>
+        <v>918600</v>
       </c>
       <c r="E49" s="3">
-        <v>1035500</v>
+        <v>960800</v>
       </c>
       <c r="F49" s="3">
-        <v>920400</v>
+        <v>1004100</v>
       </c>
       <c r="G49" s="3">
-        <v>947400</v>
+        <v>892500</v>
       </c>
       <c r="H49" s="3">
-        <v>948400</v>
+        <v>918600</v>
       </c>
       <c r="I49" s="3">
-        <v>952300</v>
+        <v>919700</v>
       </c>
       <c r="J49" s="3">
+        <v>923400</v>
+      </c>
+      <c r="K49" s="3">
         <v>945600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1044600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1034400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1071500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1088000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>956700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>976700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1013600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1033800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>972200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2008800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1050900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>935900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>931700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1018200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="F52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
-        <v>76300</v>
-      </c>
       <c r="H52" s="3">
-        <v>76000</v>
+        <v>74000</v>
       </c>
       <c r="I52" s="3">
-        <v>67600</v>
+        <v>73700</v>
       </c>
       <c r="J52" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K52" s="3">
         <v>73200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>73500</v>
       </c>
       <c r="L52" s="3">
         <v>73500</v>
       </c>
       <c r="M52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="N52" s="3">
         <v>75800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>77000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>88400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>88100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>104000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>102600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>177500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>186700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>192900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>194100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1666200</v>
+        <v>1551900</v>
       </c>
       <c r="E54" s="3">
-        <v>1685200</v>
+        <v>1615700</v>
       </c>
       <c r="F54" s="3">
-        <v>1537500</v>
+        <v>1634100</v>
       </c>
       <c r="G54" s="3">
-        <v>1617000</v>
+        <v>1490800</v>
       </c>
       <c r="H54" s="3">
-        <v>1685400</v>
+        <v>1567900</v>
       </c>
       <c r="I54" s="3">
-        <v>1612200</v>
+        <v>1634300</v>
       </c>
       <c r="J54" s="3">
+        <v>1563300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1687700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1805500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1852900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1930100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2117700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1903300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1835600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1914900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1998400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1786500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1832200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1980600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1806400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1890700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>252900</v>
+        <v>255700</v>
       </c>
       <c r="E57" s="3">
-        <v>285100</v>
+        <v>245300</v>
       </c>
       <c r="F57" s="3">
-        <v>235000</v>
+        <v>276500</v>
       </c>
       <c r="G57" s="3">
-        <v>220000</v>
+        <v>227900</v>
       </c>
       <c r="H57" s="3">
-        <v>211100</v>
+        <v>213400</v>
       </c>
       <c r="I57" s="3">
-        <v>230300</v>
+        <v>204700</v>
       </c>
       <c r="J57" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K57" s="3">
         <v>263600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>254500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>207400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>233800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>326000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>247300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>244400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>346500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>270000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>238600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>264200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>248200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>232300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>219500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129200</v>
+        <v>122900</v>
       </c>
       <c r="E58" s="3">
-        <v>77100</v>
+        <v>125300</v>
       </c>
       <c r="F58" s="3">
-        <v>81100</v>
+        <v>74700</v>
       </c>
       <c r="G58" s="3">
-        <v>77600</v>
+        <v>78600</v>
       </c>
       <c r="H58" s="3">
-        <v>80100</v>
+        <v>75300</v>
       </c>
       <c r="I58" s="3">
-        <v>3700</v>
+        <v>77700</v>
       </c>
       <c r="J58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K58" s="3">
         <v>8100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>194800</v>
+        <v>170200</v>
       </c>
       <c r="E59" s="3">
-        <v>239800</v>
+        <v>188900</v>
       </c>
       <c r="F59" s="3">
-        <v>152400</v>
+        <v>232600</v>
       </c>
       <c r="G59" s="3">
-        <v>149700</v>
+        <v>147800</v>
       </c>
       <c r="H59" s="3">
-        <v>183300</v>
+        <v>145200</v>
       </c>
       <c r="I59" s="3">
-        <v>211100</v>
+        <v>177700</v>
       </c>
       <c r="J59" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K59" s="3">
         <v>214200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>137700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>209000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>273100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>218600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>178900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>238400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>99100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>157200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>262900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>279700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>141200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>204600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>577000</v>
+        <v>548900</v>
       </c>
       <c r="E60" s="3">
-        <v>602000</v>
+        <v>559500</v>
       </c>
       <c r="F60" s="3">
-        <v>468500</v>
+        <v>583800</v>
       </c>
       <c r="G60" s="3">
-        <v>447400</v>
+        <v>454300</v>
       </c>
       <c r="H60" s="3">
-        <v>474400</v>
+        <v>433800</v>
       </c>
       <c r="I60" s="3">
-        <v>445100</v>
+        <v>460100</v>
       </c>
       <c r="J60" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K60" s="3">
         <v>485900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>397500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>425800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>524900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>606900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>468800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>424700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>547500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>596600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>376800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>407800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>535200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>535400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>377100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>432200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>585600</v>
+        <v>582200</v>
       </c>
       <c r="E61" s="3">
-        <v>584500</v>
+        <v>567800</v>
       </c>
       <c r="F61" s="3">
-        <v>571100</v>
+        <v>566800</v>
       </c>
       <c r="G61" s="3">
-        <v>572400</v>
+        <v>553800</v>
       </c>
       <c r="H61" s="3">
-        <v>578600</v>
+        <v>555100</v>
       </c>
       <c r="I61" s="3">
-        <v>610600</v>
+        <v>561000</v>
       </c>
       <c r="J61" s="3">
+        <v>592100</v>
+      </c>
+      <c r="K61" s="3">
         <v>638400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>692800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>668900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>717900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>715700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>656800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>663800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>650400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>629200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>590800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>619200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>623500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>649100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>679800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>692400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>202600</v>
+        <v>170600</v>
       </c>
       <c r="E62" s="3">
-        <v>197700</v>
+        <v>196500</v>
       </c>
       <c r="F62" s="3">
-        <v>165500</v>
+        <v>191700</v>
       </c>
       <c r="G62" s="3">
-        <v>134200</v>
+        <v>160400</v>
       </c>
       <c r="H62" s="3">
-        <v>137600</v>
+        <v>130100</v>
       </c>
       <c r="I62" s="3">
-        <v>142500</v>
+        <v>133500</v>
       </c>
       <c r="J62" s="3">
+        <v>138100</v>
+      </c>
+      <c r="K62" s="3">
         <v>134900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>129500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>127200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>207600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>149100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>145800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>220400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>189900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>181100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>172900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>189700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>146700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>150200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1365200</v>
+        <v>1301700</v>
       </c>
       <c r="E66" s="3">
-        <v>1384300</v>
+        <v>1323800</v>
       </c>
       <c r="F66" s="3">
-        <v>1205000</v>
+        <v>1342300</v>
       </c>
       <c r="G66" s="3">
-        <v>1154000</v>
+        <v>1168500</v>
       </c>
       <c r="H66" s="3">
-        <v>1190600</v>
+        <v>1119000</v>
       </c>
       <c r="I66" s="3">
-        <v>1198200</v>
+        <v>1154500</v>
       </c>
       <c r="J66" s="3">
+        <v>1161800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1259200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1254400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1224200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1370000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1530200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1299100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1237600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1343700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1446200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1157500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1208100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1331600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1374200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1203600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1274800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>254600</v>
+        <v>192900</v>
       </c>
       <c r="E72" s="3">
-        <v>255800</v>
+        <v>246900</v>
       </c>
       <c r="F72" s="3">
-        <v>287100</v>
+        <v>248100</v>
       </c>
       <c r="G72" s="3">
-        <v>418700</v>
+        <v>278400</v>
       </c>
       <c r="H72" s="3">
-        <v>453200</v>
+        <v>406000</v>
       </c>
       <c r="I72" s="3">
-        <v>374800</v>
+        <v>439500</v>
       </c>
       <c r="J72" s="3">
+        <v>363400</v>
+      </c>
+      <c r="K72" s="3">
         <v>410200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>511700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>570600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>522500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>540400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>553600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>554200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>518600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>498700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>556100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>565500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>590400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>577100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>562200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>582100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>301000</v>
+        <v>250200</v>
       </c>
       <c r="E76" s="3">
-        <v>300900</v>
+        <v>291900</v>
       </c>
       <c r="F76" s="3">
-        <v>332400</v>
+        <v>291800</v>
       </c>
       <c r="G76" s="3">
-        <v>463000</v>
+        <v>322400</v>
       </c>
       <c r="H76" s="3">
-        <v>494800</v>
+        <v>449000</v>
       </c>
       <c r="I76" s="3">
-        <v>414000</v>
+        <v>479800</v>
       </c>
       <c r="J76" s="3">
+        <v>401400</v>
+      </c>
+      <c r="K76" s="3">
         <v>428500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>551100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>628700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>560000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>587600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>604200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>598000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>571200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>552200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>629000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>624100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>649100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>626200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>602800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>615800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-19000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-131300</v>
+        <v>-18400</v>
       </c>
       <c r="G81" s="3">
-        <v>-22100</v>
+        <v>-127400</v>
       </c>
       <c r="H81" s="3">
-        <v>77900</v>
+        <v>-21400</v>
       </c>
       <c r="I81" s="3">
-        <v>-36900</v>
+        <v>75500</v>
       </c>
       <c r="J81" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-44500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-44500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-25700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>31600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51500</v>
+        <v>50800</v>
       </c>
       <c r="E83" s="3">
-        <v>47400</v>
+        <v>50000</v>
       </c>
       <c r="F83" s="3">
-        <v>40700</v>
+        <v>45900</v>
       </c>
       <c r="G83" s="3">
-        <v>42100</v>
+        <v>39500</v>
       </c>
       <c r="H83" s="3">
-        <v>44100</v>
+        <v>40800</v>
       </c>
       <c r="I83" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="J83" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-38400</v>
+        <v>27400</v>
       </c>
       <c r="E89" s="3">
-        <v>77500</v>
+        <v>-37300</v>
       </c>
       <c r="F89" s="3">
-        <v>30300</v>
+        <v>75200</v>
       </c>
       <c r="G89" s="3">
-        <v>32900</v>
+        <v>29300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1300</v>
+        <v>31900</v>
       </c>
       <c r="I89" s="3">
-        <v>76000</v>
+        <v>-1200</v>
       </c>
       <c r="J89" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>212500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>151600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>130000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-57900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>231800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>52400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-55900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22800</v>
+        <v>-4600</v>
       </c>
       <c r="E94" s="3">
-        <v>-79000</v>
+        <v>-22100</v>
       </c>
       <c r="F94" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-11800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-45400</v>
+        <v>-11400</v>
       </c>
       <c r="I94" s="3">
-        <v>-65200</v>
+        <v>-44100</v>
       </c>
       <c r="J94" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-220100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-143500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-116400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,19 +6484,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-12900</v>
       </c>
       <c r="E96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-12600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6275,11 +6509,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6287,11 +6521,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-16600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6299,11 +6533,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-14300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6311,19 +6545,22 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-15000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-15600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48300</v>
+        <v>-13400</v>
       </c>
       <c r="E100" s="3">
-        <v>-13500</v>
+        <v>46800</v>
       </c>
       <c r="F100" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
-        <v>-13600</v>
-      </c>
       <c r="H100" s="3">
-        <v>72700</v>
+        <v>-13200</v>
       </c>
       <c r="I100" s="3">
+        <v>70500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-37300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-500</v>
       </c>
       <c r="M100" s="3">
         <v>-500</v>
       </c>
       <c r="N100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O100" s="3">
         <v>-16600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
       <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-15100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>9000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13700</v>
+        <v>9900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14600</v>
+        <v>-13300</v>
       </c>
       <c r="F102" s="3">
-        <v>31600</v>
+        <v>-14200</v>
       </c>
       <c r="G102" s="3">
-        <v>5000</v>
+        <v>30700</v>
       </c>
       <c r="H102" s="3">
-        <v>26400</v>
+        <v>4800</v>
       </c>
       <c r="I102" s="3">
-        <v>9000</v>
+        <v>25600</v>
       </c>
       <c r="J102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-47200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-228200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>161000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>103800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-79500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-96600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>179500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-54700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>180700</v>
+        <v>138800</v>
       </c>
       <c r="E8" s="3">
-        <v>219300</v>
+        <v>179000</v>
       </c>
       <c r="F8" s="3">
-        <v>149600</v>
+        <v>217200</v>
       </c>
       <c r="G8" s="3">
-        <v>111200</v>
+        <v>148200</v>
       </c>
       <c r="H8" s="3">
-        <v>139900</v>
+        <v>110100</v>
       </c>
       <c r="I8" s="3">
-        <v>204500</v>
+        <v>138600</v>
       </c>
       <c r="J8" s="3">
+        <v>202500</v>
+      </c>
+      <c r="K8" s="3">
         <v>128900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>164700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>184700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>185900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>202500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>275500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>178300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>157200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>190200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>231400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>187400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>229400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>167500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>207900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,25 +1183,28 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="E14" s="3">
-        <v>11800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1192,130 +1212,136 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>25900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>50800</v>
+        <v>48900</v>
       </c>
       <c r="E15" s="3">
-        <v>50000</v>
+        <v>50300</v>
       </c>
       <c r="F15" s="3">
-        <v>45900</v>
+        <v>49500</v>
       </c>
       <c r="G15" s="3">
-        <v>39500</v>
+        <v>45500</v>
       </c>
       <c r="H15" s="3">
-        <v>40800</v>
+        <v>39100</v>
       </c>
       <c r="I15" s="3">
-        <v>42700</v>
+        <v>40400</v>
       </c>
       <c r="J15" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K15" s="3">
         <v>41800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>42400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>47600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>48900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>47000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>50100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>45800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>45300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>52300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>50400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>42900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>48800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>206600</v>
+        <v>210000</v>
       </c>
       <c r="E17" s="3">
-        <v>213000</v>
+        <v>204600</v>
       </c>
       <c r="F17" s="3">
-        <v>161600</v>
+        <v>210900</v>
       </c>
       <c r="G17" s="3">
-        <v>154600</v>
+        <v>160000</v>
       </c>
       <c r="H17" s="3">
-        <v>165400</v>
+        <v>153100</v>
       </c>
       <c r="I17" s="3">
-        <v>147100</v>
+        <v>163800</v>
       </c>
       <c r="J17" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K17" s="3">
         <v>161000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>169100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>180000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>169700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>217300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>183500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>217400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>187500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>180800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>176400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>164000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>175800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>172900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>158300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25800</v>
+        <v>-71200</v>
       </c>
       <c r="E18" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-12000</v>
-      </c>
       <c r="G18" s="3">
-        <v>-43400</v>
+        <v>-11900</v>
       </c>
       <c r="H18" s="3">
-        <v>-25500</v>
+        <v>-43000</v>
       </c>
       <c r="I18" s="3">
-        <v>57400</v>
+        <v>-25300</v>
       </c>
       <c r="J18" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-32000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-47500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>49800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-31400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-30300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>55000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>49600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10100</v>
+        <v>-27400</v>
       </c>
       <c r="E20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>29100</v>
+        <v>4300</v>
       </c>
       <c r="J20" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14900</v>
+        <v>-49700</v>
       </c>
       <c r="E21" s="3">
-        <v>53800</v>
+        <v>14800</v>
       </c>
       <c r="F21" s="3">
-        <v>28700</v>
+        <v>53300</v>
       </c>
       <c r="G21" s="3">
+        <v>28500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
-        <v>19700</v>
-      </c>
       <c r="I21" s="3">
-        <v>129200</v>
+        <v>19500</v>
       </c>
       <c r="J21" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K21" s="3">
         <v>15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>65400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>104800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>68200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>61600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>79400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>98100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>39700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>89700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6600</v>
+        <v>9000</v>
       </c>
       <c r="E22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6100</v>
-      </c>
       <c r="I22" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K22" s="3">
         <v>5300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6900</v>
       </c>
       <c r="L22" s="3">
         <v>6900</v>
       </c>
       <c r="M22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N22" s="3">
         <v>6500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7100</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>70600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-42500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>80600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-56800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>70600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-42500</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-48300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>49600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>33800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9700</v>
+        <v>-24600</v>
       </c>
       <c r="E24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
-        <v>-5100</v>
-      </c>
       <c r="G24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-13700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32800</v>
+        <v>-83000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1700</v>
+        <v>-32500</v>
       </c>
       <c r="F26" s="3">
-        <v>-18400</v>
+        <v>-1600</v>
       </c>
       <c r="G26" s="3">
-        <v>-51200</v>
+        <v>-18200</v>
       </c>
       <c r="H26" s="3">
-        <v>-18800</v>
+        <v>-50700</v>
       </c>
       <c r="I26" s="3">
-        <v>84800</v>
+        <v>-18600</v>
       </c>
       <c r="J26" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-44500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>31600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32800</v>
+        <v>-83000</v>
       </c>
       <c r="E27" s="3">
-        <v>-1700</v>
+        <v>-32500</v>
       </c>
       <c r="F27" s="3">
-        <v>-18400</v>
+        <v>-1600</v>
       </c>
       <c r="G27" s="3">
-        <v>-51200</v>
+        <v>-18200</v>
       </c>
       <c r="H27" s="3">
-        <v>-18800</v>
+        <v>-50700</v>
       </c>
       <c r="I27" s="3">
-        <v>84800</v>
+        <v>-18600</v>
       </c>
       <c r="J27" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-44500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>31600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,31 +2257,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-76100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2600</v>
       </c>
-      <c r="I29" s="3">
-        <v>-9300</v>
-      </c>
       <c r="J29" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2228,21 +2289,21 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-63900</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10100</v>
+        <v>27400</v>
       </c>
       <c r="E32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-29100</v>
+        <v>-4300</v>
       </c>
       <c r="J32" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32800</v>
+        <v>-83000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1700</v>
+        <v>-32500</v>
       </c>
       <c r="F33" s="3">
-        <v>-18400</v>
+        <v>-1600</v>
       </c>
       <c r="G33" s="3">
-        <v>-127400</v>
+        <v>-18200</v>
       </c>
       <c r="H33" s="3">
-        <v>-21400</v>
+        <v>-126100</v>
       </c>
       <c r="I33" s="3">
-        <v>75500</v>
+        <v>-21200</v>
       </c>
       <c r="J33" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-44500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-25700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32800</v>
+        <v>-83000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1700</v>
+        <v>-32500</v>
       </c>
       <c r="F35" s="3">
-        <v>-18400</v>
+        <v>-1600</v>
       </c>
       <c r="G35" s="3">
-        <v>-127400</v>
+        <v>-18200</v>
       </c>
       <c r="H35" s="3">
-        <v>-21400</v>
+        <v>-126100</v>
       </c>
       <c r="I35" s="3">
-        <v>75500</v>
+        <v>-21200</v>
       </c>
       <c r="J35" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-44500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-25700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113300</v>
+        <v>142000</v>
       </c>
       <c r="E41" s="3">
-        <v>103400</v>
+        <v>112200</v>
       </c>
       <c r="F41" s="3">
-        <v>116700</v>
+        <v>102400</v>
       </c>
       <c r="G41" s="3">
-        <v>130900</v>
+        <v>115600</v>
       </c>
       <c r="H41" s="3">
-        <v>100200</v>
+        <v>129600</v>
       </c>
       <c r="I41" s="3">
-        <v>95400</v>
+        <v>99200</v>
       </c>
       <c r="J41" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K41" s="3">
         <v>69700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>191300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>435300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>258100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>251500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>326900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>312900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>209100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>202600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>282000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>378600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>201000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>161600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>123200</v>
+        <v>107300</v>
       </c>
       <c r="E43" s="3">
-        <v>148900</v>
+        <v>122000</v>
       </c>
       <c r="F43" s="3">
-        <v>99900</v>
+        <v>147400</v>
       </c>
       <c r="G43" s="3">
-        <v>109400</v>
+        <v>98900</v>
       </c>
       <c r="H43" s="3">
-        <v>100700</v>
+        <v>108300</v>
       </c>
       <c r="I43" s="3">
-        <v>154100</v>
+        <v>99700</v>
       </c>
       <c r="J43" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K43" s="3">
         <v>116300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>199300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>144100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>125300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>247800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>164900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>122400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>218300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>152200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>160500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>111200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>135300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>114100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>163800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="R44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S44" s="3">
         <v>3500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1800</v>
       </c>
       <c r="T44" s="3">
         <v>1800</v>
       </c>
       <c r="U44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V44" s="3">
         <v>2500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>31700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K45" s="3">
         <v>25700</v>
       </c>
-      <c r="E45" s="3">
-        <v>26000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>25700</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265400</v>
+        <v>277800</v>
       </c>
       <c r="E46" s="3">
-        <v>281700</v>
+        <v>262800</v>
       </c>
       <c r="F46" s="3">
-        <v>251900</v>
+        <v>278900</v>
       </c>
       <c r="G46" s="3">
-        <v>251900</v>
+        <v>249400</v>
       </c>
       <c r="H46" s="3">
-        <v>219600</v>
+        <v>249400</v>
       </c>
       <c r="I46" s="3">
-        <v>274000</v>
+        <v>217400</v>
       </c>
       <c r="J46" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K46" s="3">
         <v>215800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>274200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>252100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>303100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>341700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>549500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>509300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>420600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>453500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>534500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>366700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>369100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>399100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>520200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>322100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>332900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41900</v>
+        <v>34900</v>
       </c>
       <c r="E47" s="3">
-        <v>48500</v>
+        <v>41500</v>
       </c>
       <c r="F47" s="3">
-        <v>50600</v>
+        <v>48100</v>
       </c>
       <c r="G47" s="3">
-        <v>24100</v>
+        <v>50100</v>
       </c>
       <c r="H47" s="3">
-        <v>31200</v>
+        <v>23900</v>
       </c>
       <c r="I47" s="3">
-        <v>40600</v>
+        <v>30900</v>
       </c>
       <c r="J47" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K47" s="3">
         <v>29700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>56500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>57100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>14000</v>
       </c>
       <c r="P47" s="3">
         <v>14000</v>
       </c>
       <c r="Q47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R47" s="3">
         <v>14400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>317700</v>
+        <v>312700</v>
       </c>
       <c r="E48" s="3">
-        <v>319400</v>
+        <v>314600</v>
       </c>
       <c r="F48" s="3">
-        <v>321400</v>
+        <v>316300</v>
       </c>
       <c r="G48" s="3">
-        <v>321700</v>
+        <v>318300</v>
       </c>
       <c r="H48" s="3">
-        <v>324500</v>
+        <v>318600</v>
       </c>
       <c r="I48" s="3">
-        <v>326200</v>
+        <v>321300</v>
       </c>
       <c r="J48" s="3">
+        <v>323100</v>
+      </c>
+      <c r="K48" s="3">
         <v>328800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>341400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>378900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>386600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>384000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>383500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>346300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>344300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>345200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>353000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>352800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>661600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>340100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>337400</v>
-      </c>
-      <c r="X48" s="3">
-        <v>339900</v>
       </c>
       <c r="Y48" s="3">
         <v>339900</v>
       </c>
       <c r="Z48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="AA48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>918600</v>
+        <v>870600</v>
       </c>
       <c r="E49" s="3">
-        <v>960800</v>
+        <v>909500</v>
       </c>
       <c r="F49" s="3">
-        <v>1004100</v>
+        <v>951400</v>
       </c>
       <c r="G49" s="3">
-        <v>892500</v>
+        <v>994300</v>
       </c>
       <c r="H49" s="3">
-        <v>918600</v>
+        <v>883700</v>
       </c>
       <c r="I49" s="3">
-        <v>919700</v>
+        <v>909600</v>
       </c>
       <c r="J49" s="3">
+        <v>910700</v>
+      </c>
+      <c r="K49" s="3">
         <v>923400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>945600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1044600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1034400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1071500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1088000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>956700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>976700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1013600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1033800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>972200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2008800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1050900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>935900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>931700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1018200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8300</v>
+        <v>19300</v>
       </c>
       <c r="E52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
-        <v>6100</v>
-      </c>
       <c r="G52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
-        <v>74000</v>
-      </c>
       <c r="I52" s="3">
-        <v>73700</v>
+        <v>73300</v>
       </c>
       <c r="J52" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K52" s="3">
         <v>65500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>73500</v>
       </c>
       <c r="M52" s="3">
         <v>73500</v>
       </c>
       <c r="N52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="O52" s="3">
         <v>75800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>82700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>77000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>88400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>88100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>104000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>102600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>177500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>186700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>192900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>194100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1551900</v>
+        <v>1515300</v>
       </c>
       <c r="E54" s="3">
-        <v>1615700</v>
+        <v>1536600</v>
       </c>
       <c r="F54" s="3">
-        <v>1634100</v>
+        <v>1599800</v>
       </c>
       <c r="G54" s="3">
-        <v>1490800</v>
+        <v>1618100</v>
       </c>
       <c r="H54" s="3">
-        <v>1567900</v>
+        <v>1476200</v>
       </c>
       <c r="I54" s="3">
-        <v>1634300</v>
+        <v>1552600</v>
       </c>
       <c r="J54" s="3">
+        <v>1618300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1563300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1687700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1805500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1852900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1930100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2117700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1903300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1835600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1914900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1998400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1786500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1832200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1980600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1806400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1890700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>255700</v>
+        <v>258400</v>
       </c>
       <c r="E57" s="3">
-        <v>245300</v>
+        <v>253200</v>
       </c>
       <c r="F57" s="3">
-        <v>276500</v>
+        <v>242900</v>
       </c>
       <c r="G57" s="3">
-        <v>227900</v>
+        <v>273700</v>
       </c>
       <c r="H57" s="3">
-        <v>213400</v>
+        <v>225700</v>
       </c>
       <c r="I57" s="3">
-        <v>204700</v>
+        <v>211300</v>
       </c>
       <c r="J57" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K57" s="3">
         <v>223300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>263600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>254500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>207400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>233800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>326000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>247300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>238500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>244400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>346500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>270000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>238600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>264200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>248200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>232300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>219500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>122900</v>
+        <v>125700</v>
       </c>
       <c r="E58" s="3">
-        <v>125300</v>
+        <v>121700</v>
       </c>
       <c r="F58" s="3">
-        <v>74700</v>
+        <v>124100</v>
       </c>
       <c r="G58" s="3">
-        <v>78600</v>
+        <v>74000</v>
       </c>
       <c r="H58" s="3">
-        <v>75300</v>
+        <v>77800</v>
       </c>
       <c r="I58" s="3">
-        <v>77700</v>
+        <v>74500</v>
       </c>
       <c r="J58" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>170200</v>
+        <v>195500</v>
       </c>
       <c r="E59" s="3">
-        <v>188900</v>
+        <v>168600</v>
       </c>
       <c r="F59" s="3">
-        <v>232600</v>
+        <v>187000</v>
       </c>
       <c r="G59" s="3">
-        <v>147800</v>
+        <v>230300</v>
       </c>
       <c r="H59" s="3">
-        <v>145200</v>
+        <v>146300</v>
       </c>
       <c r="I59" s="3">
-        <v>177700</v>
+        <v>143800</v>
       </c>
       <c r="J59" s="3">
+        <v>176000</v>
+      </c>
+      <c r="K59" s="3">
         <v>204700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>214200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>137700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>209000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>285700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>273100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>218600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>178900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>238400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>99100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>157200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>262900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>279700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>141200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>204600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>548900</v>
+        <v>579600</v>
       </c>
       <c r="E60" s="3">
-        <v>559500</v>
+        <v>543500</v>
       </c>
       <c r="F60" s="3">
-        <v>583800</v>
+        <v>554000</v>
       </c>
       <c r="G60" s="3">
-        <v>454300</v>
+        <v>578100</v>
       </c>
       <c r="H60" s="3">
-        <v>433800</v>
+        <v>449800</v>
       </c>
       <c r="I60" s="3">
-        <v>460100</v>
+        <v>429600</v>
       </c>
       <c r="J60" s="3">
+        <v>455500</v>
+      </c>
+      <c r="K60" s="3">
         <v>431600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>485900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>397500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>425800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>524900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>606900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>468800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>424700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>547500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>596600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>376800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>407800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>535200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>535400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>377100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>432200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>582200</v>
+        <v>624600</v>
       </c>
       <c r="E61" s="3">
-        <v>567800</v>
+        <v>576500</v>
       </c>
       <c r="F61" s="3">
-        <v>566800</v>
+        <v>562300</v>
       </c>
       <c r="G61" s="3">
-        <v>553800</v>
+        <v>561200</v>
       </c>
       <c r="H61" s="3">
-        <v>555100</v>
+        <v>548300</v>
       </c>
       <c r="I61" s="3">
-        <v>561000</v>
+        <v>549600</v>
       </c>
       <c r="J61" s="3">
+        <v>555500</v>
+      </c>
+      <c r="K61" s="3">
         <v>592100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>638400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>692800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>668900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>717900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>715700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>656800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>663800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>650400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>629200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>590800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>619200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>623500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>649100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>679800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>692400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>170600</v>
+        <v>161700</v>
       </c>
       <c r="E62" s="3">
-        <v>196500</v>
+        <v>169000</v>
       </c>
       <c r="F62" s="3">
-        <v>191700</v>
+        <v>194500</v>
       </c>
       <c r="G62" s="3">
-        <v>160400</v>
+        <v>189800</v>
       </c>
       <c r="H62" s="3">
-        <v>130100</v>
+        <v>158900</v>
       </c>
       <c r="I62" s="3">
-        <v>133500</v>
+        <v>128800</v>
       </c>
       <c r="J62" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K62" s="3">
         <v>138100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>134900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>129500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>127200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>207600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>149100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>145800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>220400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>189900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>181100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>172900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>189700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>146700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>150200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1301700</v>
+        <v>1365900</v>
       </c>
       <c r="E66" s="3">
-        <v>1323800</v>
+        <v>1288900</v>
       </c>
       <c r="F66" s="3">
-        <v>1342300</v>
+        <v>1310800</v>
       </c>
       <c r="G66" s="3">
-        <v>1168500</v>
+        <v>1329100</v>
       </c>
       <c r="H66" s="3">
-        <v>1119000</v>
+        <v>1157000</v>
       </c>
       <c r="I66" s="3">
-        <v>1154500</v>
+        <v>1108000</v>
       </c>
       <c r="J66" s="3">
+        <v>1143200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1161800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1259200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1254400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1224200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1370000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1530200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1299100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1237600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1343700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1446200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1157500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1208100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1331600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1374200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1203600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1274800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>192900</v>
+        <v>92500</v>
       </c>
       <c r="E72" s="3">
-        <v>246900</v>
+        <v>191100</v>
       </c>
       <c r="F72" s="3">
-        <v>248100</v>
+        <v>244500</v>
       </c>
       <c r="G72" s="3">
-        <v>278400</v>
+        <v>245600</v>
       </c>
       <c r="H72" s="3">
-        <v>406000</v>
+        <v>275700</v>
       </c>
       <c r="I72" s="3">
-        <v>439500</v>
+        <v>402000</v>
       </c>
       <c r="J72" s="3">
+        <v>435200</v>
+      </c>
+      <c r="K72" s="3">
         <v>363400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>410200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>511700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>570600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>522500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>540400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>553600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>554200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>518600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>498700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>556100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>565500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>590400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>577100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>562200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>582100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>250200</v>
+        <v>149400</v>
       </c>
       <c r="E76" s="3">
-        <v>291900</v>
+        <v>247700</v>
       </c>
       <c r="F76" s="3">
-        <v>291800</v>
+        <v>289000</v>
       </c>
       <c r="G76" s="3">
-        <v>322400</v>
+        <v>288900</v>
       </c>
       <c r="H76" s="3">
-        <v>449000</v>
+        <v>319200</v>
       </c>
       <c r="I76" s="3">
-        <v>479800</v>
+        <v>444600</v>
       </c>
       <c r="J76" s="3">
+        <v>475100</v>
+      </c>
+      <c r="K76" s="3">
         <v>401400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>428500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>551100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>628700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>560000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>587600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>604200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>598000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>571200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>552200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>629000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>624100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>649100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>626200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>602800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>615800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32800</v>
+        <v>-83000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1700</v>
+        <v>-32500</v>
       </c>
       <c r="F81" s="3">
-        <v>-18400</v>
+        <v>-1600</v>
       </c>
       <c r="G81" s="3">
-        <v>-127400</v>
+        <v>-18200</v>
       </c>
       <c r="H81" s="3">
-        <v>-21400</v>
+        <v>-126100</v>
       </c>
       <c r="I81" s="3">
-        <v>75500</v>
+        <v>-21200</v>
       </c>
       <c r="J81" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-44500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-25700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50800</v>
+        <v>48900</v>
       </c>
       <c r="E83" s="3">
-        <v>50000</v>
+        <v>50300</v>
       </c>
       <c r="F83" s="3">
-        <v>45900</v>
+        <v>49500</v>
       </c>
       <c r="G83" s="3">
-        <v>39500</v>
+        <v>45500</v>
       </c>
       <c r="H83" s="3">
-        <v>40800</v>
+        <v>39100</v>
       </c>
       <c r="I83" s="3">
-        <v>42700</v>
+        <v>40400</v>
       </c>
       <c r="J83" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K83" s="3">
         <v>41800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>42900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>74500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>29100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>73700</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>35000</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="P89" s="3">
+        <v>212500</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>29600</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="S89" s="3">
+        <v>151600</v>
+      </c>
+      <c r="T89" s="3">
+        <v>130000</v>
+      </c>
+      <c r="U89" s="3">
         <v>27400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>75200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>29300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>31900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>73700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>35000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>212500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>29600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-56000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>151600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>130000</v>
-      </c>
-      <c r="T89" s="3">
-        <v>27400</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-57900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>231800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>52400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-55900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="P91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-22100</v>
-      </c>
       <c r="F94" s="3">
-        <v>-76600</v>
+        <v>-21900</v>
       </c>
       <c r="G94" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-11400</v>
-      </c>
       <c r="I94" s="3">
-        <v>-44100</v>
+        <v>-11300</v>
       </c>
       <c r="J94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-63200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-220100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-143500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-116400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,22 +6718,23 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-12900</v>
+        <v>-14000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-12800</v>
       </c>
       <c r="F96" s="3">
-        <v>-12600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-12500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6512,11 +6746,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-14500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6524,11 +6758,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-16600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6536,11 +6770,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-14300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6548,19 +6782,22 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-15000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13400</v>
+        <v>-14200</v>
       </c>
       <c r="E100" s="3">
-        <v>46800</v>
+        <v>-13300</v>
       </c>
       <c r="F100" s="3">
-        <v>-13100</v>
+        <v>46300</v>
       </c>
       <c r="G100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
-        <v>-13200</v>
-      </c>
       <c r="I100" s="3">
-        <v>70500</v>
+        <v>-13000</v>
       </c>
       <c r="J100" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-500</v>
       </c>
       <c r="N100" s="3">
         <v>-500</v>
       </c>
       <c r="O100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P100" s="3">
         <v>-16600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-100</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
       </c>
       <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X100" s="3">
         <v>-15100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-100</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9900</v>
+        <v>29800</v>
       </c>
       <c r="E102" s="3">
-        <v>-13300</v>
+        <v>9800</v>
       </c>
       <c r="F102" s="3">
-        <v>-14200</v>
+        <v>-13200</v>
       </c>
       <c r="G102" s="3">
-        <v>30700</v>
+        <v>-14000</v>
       </c>
       <c r="H102" s="3">
+        <v>30400</v>
+      </c>
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
-        <v>25600</v>
-      </c>
       <c r="J102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K102" s="3">
         <v>8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-228200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>161000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>103800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-79500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-96600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>179500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-54700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138800</v>
+        <v>171400</v>
       </c>
       <c r="E8" s="3">
-        <v>179000</v>
+        <v>141300</v>
       </c>
       <c r="F8" s="3">
-        <v>217200</v>
+        <v>182200</v>
       </c>
       <c r="G8" s="3">
-        <v>148200</v>
+        <v>221100</v>
       </c>
       <c r="H8" s="3">
-        <v>110100</v>
+        <v>150900</v>
       </c>
       <c r="I8" s="3">
-        <v>138600</v>
+        <v>112100</v>
       </c>
       <c r="J8" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K8" s="3">
         <v>202500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>128900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>164700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>184700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>185900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>202500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>275500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>178300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>157200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>190200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>231400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>187400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>229400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>167500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>207900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,28 +1203,31 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>17200</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="F14" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1215,133 +1235,139 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>25900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>51200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>50400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>46300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>42300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>41800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>42400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>47600</v>
+      </c>
+      <c r="P15" s="3">
         <v>48900</v>
       </c>
-      <c r="E15" s="3">
-        <v>50300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>49500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>39100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>40400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>42300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>41800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>42400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>48000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>47600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>48900</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>47000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>50100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>45800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>45300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>52300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>50400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>41500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>42900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>48800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>210000</v>
+        <v>175300</v>
       </c>
       <c r="E17" s="3">
-        <v>204600</v>
+        <v>213800</v>
       </c>
       <c r="F17" s="3">
-        <v>210900</v>
+        <v>208300</v>
       </c>
       <c r="G17" s="3">
+        <v>214700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>162900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>155900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>145700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>161000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>146900</v>
+      </c>
+      <c r="N17" s="3">
+        <v>169100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>180000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>169700</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>217300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>183500</v>
+      </c>
+      <c r="S17" s="3">
+        <v>217400</v>
+      </c>
+      <c r="T17" s="3">
         <v>160000</v>
       </c>
-      <c r="H17" s="3">
-        <v>153100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>163800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>145700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>161000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>146900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>169100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>180000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>169700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>217300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>183500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>217400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>160000</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>187500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>180800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>176400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>164000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>175800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>172900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>158300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-71200</v>
+        <v>-4000</v>
       </c>
       <c r="E18" s="3">
-        <v>-25600</v>
+        <v>-72500</v>
       </c>
       <c r="F18" s="3">
-        <v>6300</v>
+        <v>-26100</v>
       </c>
       <c r="G18" s="3">
-        <v>-11900</v>
+        <v>6400</v>
       </c>
       <c r="H18" s="3">
-        <v>-43000</v>
+        <v>-12100</v>
       </c>
       <c r="I18" s="3">
-        <v>-25300</v>
+        <v>-43800</v>
       </c>
       <c r="J18" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K18" s="3">
         <v>56800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-47500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-30300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>55000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>53600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>49600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27400</v>
+        <v>-37000</v>
       </c>
       <c r="E20" s="3">
-        <v>-10000</v>
+        <v>-27900</v>
       </c>
       <c r="F20" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>28800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-49700</v>
+        <v>-36800</v>
       </c>
       <c r="E21" s="3">
-        <v>14800</v>
+        <v>-50600</v>
       </c>
       <c r="F21" s="3">
-        <v>53300</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="3">
-        <v>28500</v>
+        <v>54200</v>
       </c>
       <c r="H21" s="3">
-        <v>-3900</v>
+        <v>29000</v>
       </c>
       <c r="I21" s="3">
-        <v>19500</v>
+        <v>-4000</v>
       </c>
       <c r="J21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K21" s="3">
         <v>128000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>124600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>65400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>104800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>68200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>61600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>108000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>79400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>98100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>39700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>89700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>9000</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>6500</v>
+        <v>9200</v>
       </c>
       <c r="F22" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="G22" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H22" s="3">
         <v>6300</v>
       </c>
       <c r="I22" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>6900</v>
       </c>
       <c r="M22" s="3">
         <v>6900</v>
       </c>
       <c r="N22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O22" s="3">
         <v>6500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7100</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-107600</v>
+        <v>-41000</v>
       </c>
       <c r="E23" s="3">
-        <v>-42100</v>
+        <v>-109500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2400</v>
+        <v>-42800</v>
       </c>
       <c r="G23" s="3">
-        <v>-23200</v>
+        <v>-2500</v>
       </c>
       <c r="H23" s="3">
-        <v>-49300</v>
+        <v>-23600</v>
       </c>
       <c r="I23" s="3">
-        <v>-27000</v>
+        <v>-50200</v>
       </c>
       <c r="J23" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="K23" s="3">
         <v>79800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>70600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-48300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>49300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>49600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>33800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24600</v>
+        <v>-9400</v>
       </c>
       <c r="E24" s="3">
-        <v>-9600</v>
+        <v>-25000</v>
       </c>
       <c r="F24" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
-        <v>-8400</v>
-      </c>
       <c r="J24" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-83000</v>
+        <v>-31600</v>
       </c>
       <c r="E26" s="3">
-        <v>-32500</v>
+        <v>-84500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1600</v>
+        <v>-33100</v>
       </c>
       <c r="G26" s="3">
-        <v>-18200</v>
+        <v>-1700</v>
       </c>
       <c r="H26" s="3">
-        <v>-50700</v>
+        <v>-18500</v>
       </c>
       <c r="I26" s="3">
-        <v>-18600</v>
+        <v>-51600</v>
       </c>
       <c r="J26" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K26" s="3">
         <v>84000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-44500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>31600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-83000</v>
+        <v>-31600</v>
       </c>
       <c r="E27" s="3">
-        <v>-32500</v>
+        <v>-84500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1600</v>
+        <v>-33100</v>
       </c>
       <c r="G27" s="3">
-        <v>-18200</v>
+        <v>-1700</v>
       </c>
       <c r="H27" s="3">
-        <v>-50700</v>
+        <v>-18500</v>
       </c>
       <c r="I27" s="3">
-        <v>-18600</v>
+        <v>-51600</v>
       </c>
       <c r="J27" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K27" s="3">
         <v>84000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-44500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>31600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,13 +2300,16 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2260,31 +2321,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-75400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-2600</v>
+        <v>-76700</v>
       </c>
       <c r="J29" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2292,21 +2353,21 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-63900</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27400</v>
+        <v>37000</v>
       </c>
       <c r="E32" s="3">
-        <v>10000</v>
+        <v>27900</v>
       </c>
       <c r="F32" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-83000</v>
+        <v>-31600</v>
       </c>
       <c r="E33" s="3">
-        <v>-32500</v>
+        <v>-84500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1600</v>
+        <v>-33100</v>
       </c>
       <c r="G33" s="3">
-        <v>-18200</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>-126100</v>
+        <v>-18500</v>
       </c>
       <c r="I33" s="3">
-        <v>-21200</v>
+        <v>-128400</v>
       </c>
       <c r="J33" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K33" s="3">
         <v>74800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-44500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-25700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-83000</v>
+        <v>-31600</v>
       </c>
       <c r="E35" s="3">
-        <v>-32500</v>
+        <v>-84500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1600</v>
+        <v>-33100</v>
       </c>
       <c r="G35" s="3">
-        <v>-18200</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>-126100</v>
+        <v>-18500</v>
       </c>
       <c r="I35" s="3">
-        <v>-21200</v>
+        <v>-128400</v>
       </c>
       <c r="J35" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K35" s="3">
         <v>74800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-44500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-25700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142000</v>
+        <v>29000</v>
       </c>
       <c r="E41" s="3">
-        <v>112200</v>
+        <v>144600</v>
       </c>
       <c r="F41" s="3">
-        <v>102400</v>
+        <v>114200</v>
       </c>
       <c r="G41" s="3">
-        <v>115600</v>
+        <v>104300</v>
       </c>
       <c r="H41" s="3">
-        <v>129600</v>
+        <v>117700</v>
       </c>
       <c r="I41" s="3">
-        <v>99200</v>
+        <v>132000</v>
       </c>
       <c r="J41" s="3">
+        <v>101000</v>
+      </c>
+      <c r="K41" s="3">
         <v>94400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>191300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>435300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>258100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>251500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>326900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>312900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>209100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>202600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>282000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>378600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>201000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>161600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>107300</v>
+        <v>123800</v>
       </c>
       <c r="E43" s="3">
-        <v>122000</v>
+        <v>109200</v>
       </c>
       <c r="F43" s="3">
-        <v>147400</v>
+        <v>124200</v>
       </c>
       <c r="G43" s="3">
-        <v>98900</v>
+        <v>150100</v>
       </c>
       <c r="H43" s="3">
-        <v>108300</v>
+        <v>100700</v>
       </c>
       <c r="I43" s="3">
-        <v>99700</v>
+        <v>110300</v>
       </c>
       <c r="J43" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K43" s="3">
         <v>152600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>199300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>113300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>144100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>125300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>92300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>247800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>164900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>122400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>218300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>152200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>160500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>111200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>135300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>114100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>163800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="O44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="S44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T44" s="3">
         <v>3500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1800</v>
       </c>
       <c r="U44" s="3">
         <v>1800</v>
       </c>
       <c r="V44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W44" s="3">
         <v>2500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F45" s="3">
         <v>25900</v>
       </c>
-      <c r="E45" s="3">
-        <v>25500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>25800</v>
-      </c>
       <c r="G45" s="3">
-        <v>31700</v>
+        <v>26200</v>
       </c>
       <c r="H45" s="3">
-        <v>9000</v>
+        <v>32300</v>
       </c>
       <c r="I45" s="3">
-        <v>15700</v>
+        <v>9200</v>
       </c>
       <c r="J45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>277800</v>
+        <v>208600</v>
       </c>
       <c r="E46" s="3">
-        <v>262800</v>
+        <v>282800</v>
       </c>
       <c r="F46" s="3">
-        <v>278900</v>
+        <v>267600</v>
       </c>
       <c r="G46" s="3">
-        <v>249400</v>
+        <v>284000</v>
       </c>
       <c r="H46" s="3">
-        <v>249400</v>
+        <v>254000</v>
       </c>
       <c r="I46" s="3">
-        <v>217400</v>
+        <v>253900</v>
       </c>
       <c r="J46" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K46" s="3">
         <v>271400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>274200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>252100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>303100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>341700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>549500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>509300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>420600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>453500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>534500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>366700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>369100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>399100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>520200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>322100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>332900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34900</v>
+        <v>23000</v>
       </c>
       <c r="E47" s="3">
-        <v>41500</v>
+        <v>35500</v>
       </c>
       <c r="F47" s="3">
-        <v>48100</v>
+        <v>42200</v>
       </c>
       <c r="G47" s="3">
-        <v>50100</v>
+        <v>48900</v>
       </c>
       <c r="H47" s="3">
-        <v>23900</v>
+        <v>51000</v>
       </c>
       <c r="I47" s="3">
-        <v>30900</v>
+        <v>24300</v>
       </c>
       <c r="J47" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K47" s="3">
         <v>40200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>57100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>14000</v>
       </c>
       <c r="Q47" s="3">
         <v>14000</v>
       </c>
       <c r="R47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S47" s="3">
         <v>14400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>16200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>312700</v>
+        <v>320200</v>
       </c>
       <c r="E48" s="3">
-        <v>314600</v>
+        <v>318400</v>
       </c>
       <c r="F48" s="3">
-        <v>316300</v>
+        <v>320300</v>
       </c>
       <c r="G48" s="3">
-        <v>318300</v>
+        <v>322000</v>
       </c>
       <c r="H48" s="3">
-        <v>318600</v>
+        <v>324000</v>
       </c>
       <c r="I48" s="3">
-        <v>321300</v>
+        <v>324400</v>
       </c>
       <c r="J48" s="3">
+        <v>327100</v>
+      </c>
+      <c r="K48" s="3">
         <v>323100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>328800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>341400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>378900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>386600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>384000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>383500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>346300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>344300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>345200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>353000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>352800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>661600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>340100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>337400</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>339900</v>
       </c>
       <c r="Z48" s="3">
         <v>339900</v>
       </c>
       <c r="AA48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="AB48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>870600</v>
+        <v>1098200</v>
       </c>
       <c r="E49" s="3">
-        <v>909500</v>
+        <v>886400</v>
       </c>
       <c r="F49" s="3">
-        <v>951400</v>
+        <v>926000</v>
       </c>
       <c r="G49" s="3">
-        <v>994300</v>
+        <v>968600</v>
       </c>
       <c r="H49" s="3">
-        <v>883700</v>
+        <v>1012300</v>
       </c>
       <c r="I49" s="3">
-        <v>909600</v>
+        <v>899700</v>
       </c>
       <c r="J49" s="3">
+        <v>926100</v>
+      </c>
+      <c r="K49" s="3">
         <v>910700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>923400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>945600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1044600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1034400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1071500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1088000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>956700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>976700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1013600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1033800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>972200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2008800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1050900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>935900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>931700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1018200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19300</v>
+        <v>44500</v>
       </c>
       <c r="E52" s="3">
-        <v>8200</v>
+        <v>19600</v>
       </c>
       <c r="F52" s="3">
-        <v>5200</v>
+        <v>8300</v>
       </c>
       <c r="G52" s="3">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
-        <v>73300</v>
-      </c>
       <c r="J52" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K52" s="3">
         <v>73000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>73500</v>
       </c>
       <c r="N52" s="3">
         <v>73500</v>
       </c>
       <c r="O52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="P52" s="3">
         <v>75800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>82700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>88400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>88100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>104000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>102600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>177500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>186700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>192900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>194100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1515300</v>
+        <v>1694600</v>
       </c>
       <c r="E54" s="3">
-        <v>1536600</v>
+        <v>1542700</v>
       </c>
       <c r="F54" s="3">
-        <v>1599800</v>
+        <v>1564500</v>
       </c>
       <c r="G54" s="3">
-        <v>1618100</v>
+        <v>1628800</v>
       </c>
       <c r="H54" s="3">
-        <v>1476200</v>
+        <v>1647400</v>
       </c>
       <c r="I54" s="3">
-        <v>1552600</v>
+        <v>1502900</v>
       </c>
       <c r="J54" s="3">
+        <v>1580700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1618300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1563300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1687700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1805500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1852900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1930100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2117700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1903300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1835600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1914900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1998400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1786500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1832200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1980600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2000400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1806400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1890700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>258400</v>
+        <v>308200</v>
       </c>
       <c r="E57" s="3">
-        <v>253200</v>
+        <v>263100</v>
       </c>
       <c r="F57" s="3">
-        <v>242900</v>
+        <v>257800</v>
       </c>
       <c r="G57" s="3">
-        <v>273700</v>
+        <v>247300</v>
       </c>
       <c r="H57" s="3">
-        <v>225700</v>
+        <v>278700</v>
       </c>
       <c r="I57" s="3">
-        <v>211300</v>
+        <v>229800</v>
       </c>
       <c r="J57" s="3">
+        <v>215100</v>
+      </c>
+      <c r="K57" s="3">
         <v>202600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>223300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>263600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>254500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>207400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>233800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>326000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>247300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>238500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>244400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>346500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>270000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>238600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>264200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>248200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>232300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>219500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125700</v>
+        <v>123900</v>
       </c>
       <c r="E58" s="3">
-        <v>121700</v>
+        <v>128000</v>
       </c>
       <c r="F58" s="3">
-        <v>124100</v>
+        <v>123900</v>
       </c>
       <c r="G58" s="3">
-        <v>74000</v>
+        <v>126300</v>
       </c>
       <c r="H58" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="I58" s="3">
-        <v>74500</v>
+        <v>79200</v>
       </c>
       <c r="J58" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K58" s="3">
         <v>76900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>195500</v>
+        <v>205600</v>
       </c>
       <c r="E59" s="3">
-        <v>168600</v>
+        <v>199100</v>
       </c>
       <c r="F59" s="3">
-        <v>187000</v>
+        <v>171600</v>
       </c>
       <c r="G59" s="3">
-        <v>230300</v>
+        <v>190400</v>
       </c>
       <c r="H59" s="3">
-        <v>146300</v>
+        <v>234500</v>
       </c>
       <c r="I59" s="3">
-        <v>143800</v>
+        <v>149000</v>
       </c>
       <c r="J59" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K59" s="3">
         <v>176000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>204700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>214200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>137700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>209000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>285700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>273100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>218600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>178900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>238400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>99100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>157200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>262900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>279700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>141200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>204600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>579600</v>
+        <v>637700</v>
       </c>
       <c r="E60" s="3">
-        <v>543500</v>
+        <v>590100</v>
       </c>
       <c r="F60" s="3">
-        <v>554000</v>
+        <v>553400</v>
       </c>
       <c r="G60" s="3">
-        <v>578100</v>
+        <v>564000</v>
       </c>
       <c r="H60" s="3">
-        <v>449800</v>
+        <v>588500</v>
       </c>
       <c r="I60" s="3">
-        <v>429600</v>
+        <v>458000</v>
       </c>
       <c r="J60" s="3">
+        <v>437400</v>
+      </c>
+      <c r="K60" s="3">
         <v>455500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>431600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>485900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>397500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>425800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>524900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>606900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>468800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>424700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>547500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>596600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>376800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>407800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>535200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>535400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>377100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>432200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>624600</v>
+        <v>691600</v>
       </c>
       <c r="E61" s="3">
-        <v>576500</v>
+        <v>635900</v>
       </c>
       <c r="F61" s="3">
-        <v>562300</v>
+        <v>586900</v>
       </c>
       <c r="G61" s="3">
-        <v>561200</v>
+        <v>572500</v>
       </c>
       <c r="H61" s="3">
-        <v>548300</v>
+        <v>571400</v>
       </c>
       <c r="I61" s="3">
-        <v>549600</v>
+        <v>558300</v>
       </c>
       <c r="J61" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K61" s="3">
         <v>555500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>592100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>638400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>692800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>668900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>717900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>715700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>656800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>663800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>650400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>629200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>590800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>619200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>623500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>649100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>679800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>692400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>164700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>172000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>198100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>193300</v>
+      </c>
+      <c r="I62" s="3">
         <v>161700</v>
       </c>
-      <c r="E62" s="3">
-        <v>169000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>194500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>189800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>158900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>128800</v>
-      </c>
       <c r="J62" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K62" s="3">
         <v>132100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>138100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>134900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>164000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>129500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>127200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>207600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>173500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>149100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>145800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>220400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>189900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>181100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>172900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>189700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>146700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>150200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1365900</v>
+        <v>1573900</v>
       </c>
       <c r="E66" s="3">
-        <v>1288900</v>
+        <v>1390700</v>
       </c>
       <c r="F66" s="3">
-        <v>1310800</v>
+        <v>1312300</v>
       </c>
       <c r="G66" s="3">
-        <v>1329100</v>
+        <v>1334600</v>
       </c>
       <c r="H66" s="3">
-        <v>1157000</v>
+        <v>1353200</v>
       </c>
       <c r="I66" s="3">
-        <v>1108000</v>
+        <v>1178000</v>
       </c>
       <c r="J66" s="3">
+        <v>1128100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1143200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1161800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1259200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1254400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1224200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1370000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1530200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1299100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1237600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1343700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1446200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1157500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1208100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1331600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1374200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1203600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1274800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>92500</v>
+        <v>63200</v>
       </c>
       <c r="E72" s="3">
-        <v>191100</v>
+        <v>94200</v>
       </c>
       <c r="F72" s="3">
-        <v>244500</v>
+        <v>194500</v>
       </c>
       <c r="G72" s="3">
-        <v>245600</v>
+        <v>248900</v>
       </c>
       <c r="H72" s="3">
-        <v>275700</v>
+        <v>250100</v>
       </c>
       <c r="I72" s="3">
-        <v>402000</v>
+        <v>280700</v>
       </c>
       <c r="J72" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K72" s="3">
         <v>435200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>363400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>410200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>511700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>570600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>522500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>540400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>553600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>554200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>518600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>498700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>556100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>565500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>590400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>577100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>562200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>582100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>149400</v>
+        <v>120700</v>
       </c>
       <c r="E76" s="3">
-        <v>247700</v>
+        <v>152100</v>
       </c>
       <c r="F76" s="3">
-        <v>289000</v>
+        <v>252200</v>
       </c>
       <c r="G76" s="3">
-        <v>288900</v>
+        <v>294200</v>
       </c>
       <c r="H76" s="3">
-        <v>319200</v>
+        <v>294200</v>
       </c>
       <c r="I76" s="3">
-        <v>444600</v>
+        <v>325000</v>
       </c>
       <c r="J76" s="3">
+        <v>452600</v>
+      </c>
+      <c r="K76" s="3">
         <v>475100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>401400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>428500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>551100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>628700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>560000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>587600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>604200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>598000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>571200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>552200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>629000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>624100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>649100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>626200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>602800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>615800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-83000</v>
+        <v>-31600</v>
       </c>
       <c r="E81" s="3">
-        <v>-32500</v>
+        <v>-84500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1600</v>
+        <v>-33100</v>
       </c>
       <c r="G81" s="3">
-        <v>-18200</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>-126100</v>
+        <v>-18500</v>
       </c>
       <c r="I81" s="3">
-        <v>-21200</v>
+        <v>-128400</v>
       </c>
       <c r="J81" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K81" s="3">
         <v>74800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-44500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-25700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>51200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>50400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>46300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>42300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>41800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>47600</v>
+      </c>
+      <c r="P83" s="3">
         <v>48900</v>
       </c>
-      <c r="E83" s="3">
-        <v>50300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>49500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>45500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>39100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>40400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>42300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>41800</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="Q83" s="3">
         <v>47000</v>
       </c>
-      <c r="M83" s="3">
-        <v>48000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>47600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>48900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>47000</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>45300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>42900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>48800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48200</v>
+        <v>-7200</v>
       </c>
       <c r="E89" s="3">
-        <v>27200</v>
+        <v>49000</v>
       </c>
       <c r="F89" s="3">
-        <v>-36900</v>
+        <v>27600</v>
       </c>
       <c r="G89" s="3">
-        <v>74500</v>
+        <v>-37600</v>
       </c>
       <c r="H89" s="3">
-        <v>29100</v>
+        <v>75800</v>
       </c>
       <c r="I89" s="3">
-        <v>31600</v>
+        <v>29600</v>
       </c>
       <c r="J89" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>73700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>212500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>29600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-56000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>151600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>130000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-57900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>231800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>52400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-55900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-800</v>
-      </c>
       <c r="F91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1500</v>
+        <v>-4300</v>
       </c>
       <c r="I91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7200</v>
+        <v>-110600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4600</v>
+        <v>-7300</v>
       </c>
       <c r="F94" s="3">
-        <v>-21900</v>
+        <v>-4700</v>
       </c>
       <c r="G94" s="3">
-        <v>-75800</v>
+        <v>-22200</v>
       </c>
       <c r="H94" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-11300</v>
-      </c>
       <c r="J94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-220100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-143500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-20800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-116400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-31700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>5300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,25 +6952,26 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-12800</v>
+        <v>-14300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="G96" s="3">
-        <v>-12500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6749,11 +6983,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-14500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6761,11 +6995,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6773,11 +7007,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-14300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6785,19 +7019,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14200</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>47200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-13300</v>
       </c>
-      <c r="F100" s="3">
-        <v>46300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
+        <v>69800</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>69800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-500</v>
       </c>
       <c r="O100" s="3">
         <v>-500</v>
       </c>
       <c r="P100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-5000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-100</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
       </c>
       <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-100</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29800</v>
+        <v>-115600</v>
       </c>
       <c r="E102" s="3">
-        <v>9800</v>
+        <v>30300</v>
       </c>
       <c r="F102" s="3">
-        <v>-13200</v>
+        <v>10000</v>
       </c>
       <c r="G102" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="H102" s="3">
-        <v>30400</v>
+        <v>-14300</v>
       </c>
       <c r="I102" s="3">
-        <v>4800</v>
+        <v>30900</v>
       </c>
       <c r="J102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K102" s="3">
         <v>25400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-53800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-228200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>161000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-75400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>103800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-79500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-96600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>179500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>39400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-54700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>171400</v>
+        <v>207700</v>
       </c>
       <c r="E8" s="3">
-        <v>141300</v>
+        <v>178300</v>
       </c>
       <c r="F8" s="3">
-        <v>182200</v>
+        <v>147000</v>
       </c>
       <c r="G8" s="3">
-        <v>221100</v>
+        <v>189600</v>
       </c>
       <c r="H8" s="3">
-        <v>150900</v>
+        <v>230000</v>
       </c>
       <c r="I8" s="3">
-        <v>112100</v>
+        <v>157000</v>
       </c>
       <c r="J8" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K8" s="3">
         <v>141100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>202500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>128900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>164700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>184700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>185900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>202500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>275500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>178300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>157200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>190200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>231400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>187400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>229400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>167500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>207900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,31 +1222,34 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>17500</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="G14" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1238,56 +1257,59 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>25900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,79 +1317,82 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>49800</v>
+        <v>54100</v>
       </c>
       <c r="F15" s="3">
-        <v>51200</v>
+        <v>51800</v>
       </c>
       <c r="G15" s="3">
+        <v>53300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>52400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>41200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>42300</v>
+      </c>
+      <c r="M15" s="3">
+        <v>41800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>42400</v>
+      </c>
+      <c r="O15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="P15" s="3">
+        <v>47600</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>48900</v>
+      </c>
+      <c r="R15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="T15" s="3">
+        <v>48100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>50100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>45800</v>
+      </c>
+      <c r="W15" s="3">
+        <v>45300</v>
+      </c>
+      <c r="X15" s="3">
+        <v>52300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>50400</v>
       </c>
-      <c r="H15" s="3">
-        <v>46300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>41200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>42300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>41800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>42400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>48000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>47600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>48900</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>47000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>48100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>50100</v>
-      </c>
-      <c r="U15" s="3">
-        <v>45800</v>
-      </c>
-      <c r="V15" s="3">
-        <v>45300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>52300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>50400</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>41500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>42900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>48800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>175300</v>
+        <v>211200</v>
       </c>
       <c r="E17" s="3">
-        <v>213800</v>
+        <v>182400</v>
       </c>
       <c r="F17" s="3">
-        <v>208300</v>
+        <v>222400</v>
       </c>
       <c r="G17" s="3">
-        <v>214700</v>
+        <v>216700</v>
       </c>
       <c r="H17" s="3">
-        <v>162900</v>
+        <v>223400</v>
       </c>
       <c r="I17" s="3">
-        <v>155900</v>
+        <v>169500</v>
       </c>
       <c r="J17" s="3">
+        <v>162200</v>
+      </c>
+      <c r="K17" s="3">
         <v>166800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>161000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>146900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>169100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>180000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>169700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>217300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>183500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>217400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>160000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>187500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>180800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>176400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>164000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>175800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>172900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>158300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4000</v>
+        <v>-3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-72500</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
-        <v>-26100</v>
+        <v>-75400</v>
       </c>
       <c r="G18" s="3">
-        <v>6400</v>
+        <v>-27100</v>
       </c>
       <c r="H18" s="3">
-        <v>-12100</v>
+        <v>6700</v>
       </c>
       <c r="I18" s="3">
-        <v>-43800</v>
+        <v>-12600</v>
       </c>
       <c r="J18" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>56800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-47500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-31400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-30300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>55000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>53600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>49600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-37000</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>-27900</v>
+        <v>-29500</v>
       </c>
       <c r="F20" s="3">
-        <v>-10100</v>
+        <v>-29000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2500</v>
+        <v>-10500</v>
       </c>
       <c r="H20" s="3">
-        <v>-5200</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>27300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36800</v>
+        <v>17600</v>
       </c>
       <c r="E21" s="3">
-        <v>-50600</v>
+        <v>20400</v>
       </c>
       <c r="F21" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>56400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>128000</v>
+      </c>
+      <c r="M21" s="3">
         <v>15000</v>
       </c>
-      <c r="G21" s="3">
-        <v>54200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>19900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>128000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>124600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>65400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>104800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>68200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>61600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>108000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>79400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>98100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>39700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>89700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,239 +1791,248 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="F22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H22" s="3">
         <v>6600</v>
       </c>
-      <c r="G22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6300</v>
-      </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6900</v>
       </c>
       <c r="N22" s="3">
         <v>6900</v>
       </c>
       <c r="O22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P22" s="3">
         <v>6500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7100</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41000</v>
+        <v>11500</v>
       </c>
       <c r="E23" s="3">
-        <v>-109500</v>
+        <v>-42600</v>
       </c>
       <c r="F23" s="3">
-        <v>-42800</v>
+        <v>-113900</v>
       </c>
       <c r="G23" s="3">
-        <v>-2500</v>
+        <v>-44600</v>
       </c>
       <c r="H23" s="3">
-        <v>-23600</v>
+        <v>-2600</v>
       </c>
       <c r="I23" s="3">
-        <v>-50200</v>
+        <v>-24600</v>
       </c>
       <c r="J23" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-27500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-56800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-38000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>70600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-42500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-48300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>49300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>49600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>33800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9400</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-25000</v>
+        <v>-9700</v>
       </c>
       <c r="F24" s="3">
-        <v>-9800</v>
+        <v>-26000</v>
       </c>
       <c r="G24" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
-        <v>-5100</v>
-      </c>
       <c r="I24" s="3">
-        <v>1400</v>
+        <v>-5300</v>
       </c>
       <c r="J24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-8500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31600</v>
+        <v>7800</v>
       </c>
       <c r="E26" s="3">
-        <v>-84500</v>
+        <v>-32900</v>
       </c>
       <c r="F26" s="3">
-        <v>-33100</v>
+        <v>-87900</v>
       </c>
       <c r="G26" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-18500</v>
-      </c>
       <c r="I26" s="3">
-        <v>-51600</v>
+        <v>-19300</v>
       </c>
       <c r="J26" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-44500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>31600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31600</v>
+        <v>7800</v>
       </c>
       <c r="E27" s="3">
-        <v>-84500</v>
+        <v>-32900</v>
       </c>
       <c r="F27" s="3">
-        <v>-33100</v>
+        <v>-87900</v>
       </c>
       <c r="G27" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-18500</v>
-      </c>
       <c r="I27" s="3">
-        <v>-51600</v>
+        <v>-19300</v>
       </c>
       <c r="J27" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-44500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>31600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,16 +2360,19 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2324,31 +2384,31 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-76700</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-9200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2356,21 +2416,21 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-63900</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>37000</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>27900</v>
+        <v>29500</v>
       </c>
       <c r="F32" s="3">
-        <v>10100</v>
+        <v>29000</v>
       </c>
       <c r="G32" s="3">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="H32" s="3">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-27300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31600</v>
+        <v>7800</v>
       </c>
       <c r="E33" s="3">
-        <v>-84500</v>
+        <v>-32900</v>
       </c>
       <c r="F33" s="3">
-        <v>-33100</v>
+        <v>-87900</v>
       </c>
       <c r="G33" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-18500</v>
-      </c>
       <c r="I33" s="3">
-        <v>-128400</v>
+        <v>-19300</v>
       </c>
       <c r="J33" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-44500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-25700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>12500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31600</v>
+        <v>7800</v>
       </c>
       <c r="E35" s="3">
-        <v>-84500</v>
+        <v>-32900</v>
       </c>
       <c r="F35" s="3">
-        <v>-33100</v>
+        <v>-87900</v>
       </c>
       <c r="G35" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-18500</v>
-      </c>
       <c r="I35" s="3">
-        <v>-128400</v>
+        <v>-19300</v>
       </c>
       <c r="J35" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-44500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-25700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>12500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29000</v>
+        <v>38500</v>
       </c>
       <c r="E41" s="3">
-        <v>144600</v>
+        <v>30100</v>
       </c>
       <c r="F41" s="3">
-        <v>114200</v>
+        <v>150400</v>
       </c>
       <c r="G41" s="3">
-        <v>104300</v>
+        <v>118900</v>
       </c>
       <c r="H41" s="3">
-        <v>117700</v>
+        <v>108500</v>
       </c>
       <c r="I41" s="3">
-        <v>132000</v>
+        <v>122400</v>
       </c>
       <c r="J41" s="3">
+        <v>137300</v>
+      </c>
+      <c r="K41" s="3">
         <v>101000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>137500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>191300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>435300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>258100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>251500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>326900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>312900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>209100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>202600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>282000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>378600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>201000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>161600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>123800</v>
+        <v>219400</v>
       </c>
       <c r="E43" s="3">
-        <v>109200</v>
+        <v>128800</v>
       </c>
       <c r="F43" s="3">
-        <v>124200</v>
+        <v>113700</v>
       </c>
       <c r="G43" s="3">
-        <v>150100</v>
+        <v>129200</v>
       </c>
       <c r="H43" s="3">
-        <v>100700</v>
+        <v>156100</v>
       </c>
       <c r="I43" s="3">
-        <v>110300</v>
+        <v>104800</v>
       </c>
       <c r="J43" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K43" s="3">
         <v>101500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>199300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>144100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>125300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>92300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>247800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>164900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>122400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>218300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>152200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>160500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>111200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>135300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>114100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>163800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="E44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="K44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="P44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="U44" s="3">
         <v>3500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1800</v>
       </c>
       <c r="V44" s="3">
         <v>1800</v>
       </c>
       <c r="W44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X44" s="3">
         <v>2500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51300</v>
+        <v>42100</v>
       </c>
       <c r="E45" s="3">
-        <v>26400</v>
+        <v>53400</v>
       </c>
       <c r="F45" s="3">
-        <v>25900</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="H45" s="3">
-        <v>32300</v>
+        <v>27300</v>
       </c>
       <c r="I45" s="3">
-        <v>9200</v>
+        <v>33600</v>
       </c>
       <c r="J45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>208600</v>
+        <v>304100</v>
       </c>
       <c r="E46" s="3">
-        <v>282800</v>
+        <v>217000</v>
       </c>
       <c r="F46" s="3">
-        <v>267600</v>
+        <v>294300</v>
       </c>
       <c r="G46" s="3">
-        <v>284000</v>
+        <v>278400</v>
       </c>
       <c r="H46" s="3">
-        <v>254000</v>
+        <v>295500</v>
       </c>
       <c r="I46" s="3">
-        <v>253900</v>
+        <v>264200</v>
       </c>
       <c r="J46" s="3">
+        <v>264200</v>
+      </c>
+      <c r="K46" s="3">
         <v>221400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>271400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>274200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>252100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>303100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>341700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>549500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>509300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>420600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>453500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>534500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>366700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>369100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>399100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>520200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>322100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>332900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23000</v>
+        <v>26300</v>
       </c>
       <c r="E47" s="3">
-        <v>35500</v>
+        <v>24000</v>
       </c>
       <c r="F47" s="3">
-        <v>42200</v>
+        <v>36900</v>
       </c>
       <c r="G47" s="3">
-        <v>48900</v>
+        <v>44000</v>
       </c>
       <c r="H47" s="3">
-        <v>51000</v>
+        <v>50900</v>
       </c>
       <c r="I47" s="3">
-        <v>24300</v>
+        <v>53000</v>
       </c>
       <c r="J47" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K47" s="3">
         <v>31500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>56500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>57100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>14000</v>
       </c>
       <c r="R47" s="3">
         <v>14000</v>
       </c>
       <c r="S47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T47" s="3">
         <v>14400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>14100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>8600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>16200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>320200</v>
+        <v>331200</v>
       </c>
       <c r="E48" s="3">
-        <v>318400</v>
+        <v>333200</v>
       </c>
       <c r="F48" s="3">
-        <v>320300</v>
+        <v>331300</v>
       </c>
       <c r="G48" s="3">
-        <v>322000</v>
+        <v>333300</v>
       </c>
       <c r="H48" s="3">
-        <v>324000</v>
+        <v>335000</v>
       </c>
       <c r="I48" s="3">
-        <v>324400</v>
+        <v>337200</v>
       </c>
       <c r="J48" s="3">
+        <v>337500</v>
+      </c>
+      <c r="K48" s="3">
         <v>327100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>328800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>341400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>378900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>386600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>384000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>383500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>346300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>344300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>345200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>353000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>352800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>661600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>340100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>337400</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>339900</v>
       </c>
       <c r="AA48" s="3">
         <v>339900</v>
       </c>
       <c r="AB48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="AC48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1098200</v>
+        <v>1081400</v>
       </c>
       <c r="E49" s="3">
-        <v>886400</v>
+        <v>1142700</v>
       </c>
       <c r="F49" s="3">
-        <v>926000</v>
+        <v>922300</v>
       </c>
       <c r="G49" s="3">
-        <v>968600</v>
+        <v>963500</v>
       </c>
       <c r="H49" s="3">
-        <v>1012300</v>
+        <v>1007800</v>
       </c>
       <c r="I49" s="3">
-        <v>899700</v>
+        <v>1053300</v>
       </c>
       <c r="J49" s="3">
+        <v>936100</v>
+      </c>
+      <c r="K49" s="3">
         <v>926100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>910700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>923400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>945600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1044600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1034400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1071500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1088000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>956700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>976700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1013600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1033800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>972200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2008800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1050900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>935900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>931700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1018200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44500</v>
+        <v>27500</v>
       </c>
       <c r="E52" s="3">
-        <v>19600</v>
+        <v>46300</v>
       </c>
       <c r="F52" s="3">
-        <v>8300</v>
+        <v>20400</v>
       </c>
       <c r="G52" s="3">
-        <v>5300</v>
+        <v>8700</v>
       </c>
       <c r="H52" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="I52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>73500</v>
       </c>
       <c r="O52" s="3">
         <v>73500</v>
       </c>
       <c r="P52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>75800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>79500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>88400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>88100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>104000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>102600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>177500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>186700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>192900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>194100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1694600</v>
+        <v>1770600</v>
       </c>
       <c r="E54" s="3">
-        <v>1542700</v>
+        <v>1763200</v>
       </c>
       <c r="F54" s="3">
-        <v>1564500</v>
+        <v>1605200</v>
       </c>
       <c r="G54" s="3">
-        <v>1628800</v>
+        <v>1627800</v>
       </c>
       <c r="H54" s="3">
-        <v>1647400</v>
+        <v>1694800</v>
       </c>
       <c r="I54" s="3">
-        <v>1502900</v>
+        <v>1714100</v>
       </c>
       <c r="J54" s="3">
+        <v>1563800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1580700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1618300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1563300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1687700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1805500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1852900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1930100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2117700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1903300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1835600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1914900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1998400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1786500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1832200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1980600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2000400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1806400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1890700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>308200</v>
+        <v>282600</v>
       </c>
       <c r="E57" s="3">
-        <v>263100</v>
+        <v>320700</v>
       </c>
       <c r="F57" s="3">
-        <v>257800</v>
+        <v>273700</v>
       </c>
       <c r="G57" s="3">
+        <v>268200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>257300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>290000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>215100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>202600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>223300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>263600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>254500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>207400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>233800</v>
+      </c>
+      <c r="R57" s="3">
+        <v>326000</v>
+      </c>
+      <c r="S57" s="3">
         <v>247300</v>
       </c>
-      <c r="H57" s="3">
-        <v>278700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>229800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>215100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>202600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>223300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>263600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>254500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>207400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>233800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>326000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>247300</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>238500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>244400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>346500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>270000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>238600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>264200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>248200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>232300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>219500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>123900</v>
+        <v>256900</v>
       </c>
       <c r="E58" s="3">
-        <v>128000</v>
+        <v>128900</v>
       </c>
       <c r="F58" s="3">
-        <v>123900</v>
+        <v>133200</v>
       </c>
       <c r="G58" s="3">
-        <v>126300</v>
+        <v>129000</v>
       </c>
       <c r="H58" s="3">
-        <v>75400</v>
+        <v>131500</v>
       </c>
       <c r="I58" s="3">
-        <v>79200</v>
+        <v>78400</v>
       </c>
       <c r="J58" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K58" s="3">
         <v>75900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>205600</v>
+        <v>215200</v>
       </c>
       <c r="E59" s="3">
-        <v>199100</v>
+        <v>214000</v>
       </c>
       <c r="F59" s="3">
-        <v>171600</v>
+        <v>207100</v>
       </c>
       <c r="G59" s="3">
-        <v>190400</v>
+        <v>178600</v>
       </c>
       <c r="H59" s="3">
-        <v>234500</v>
+        <v>198100</v>
       </c>
       <c r="I59" s="3">
-        <v>149000</v>
+        <v>244000</v>
       </c>
       <c r="J59" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K59" s="3">
         <v>146400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>176000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>204700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>214200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>137700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>209000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>285700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>273100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>218600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>178900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>238400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>99100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>157200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>262900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>279700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>141200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>204600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>637700</v>
+        <v>754800</v>
       </c>
       <c r="E60" s="3">
-        <v>590100</v>
+        <v>663600</v>
       </c>
       <c r="F60" s="3">
-        <v>553400</v>
+        <v>614000</v>
       </c>
       <c r="G60" s="3">
-        <v>564000</v>
+        <v>575800</v>
       </c>
       <c r="H60" s="3">
-        <v>588500</v>
+        <v>586900</v>
       </c>
       <c r="I60" s="3">
-        <v>458000</v>
+        <v>612400</v>
       </c>
       <c r="J60" s="3">
+        <v>476500</v>
+      </c>
+      <c r="K60" s="3">
         <v>437400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>455500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>431600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>485900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>397500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>425800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>524900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>606900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>468800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>424700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>547500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>596600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>376800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>407800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>535200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>535400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>377100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>432200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>691600</v>
+        <v>667700</v>
       </c>
       <c r="E61" s="3">
-        <v>635900</v>
+        <v>719600</v>
       </c>
       <c r="F61" s="3">
-        <v>586900</v>
+        <v>661600</v>
       </c>
       <c r="G61" s="3">
-        <v>572500</v>
+        <v>610700</v>
       </c>
       <c r="H61" s="3">
-        <v>571400</v>
+        <v>595600</v>
       </c>
       <c r="I61" s="3">
-        <v>558300</v>
+        <v>594500</v>
       </c>
       <c r="J61" s="3">
+        <v>580900</v>
+      </c>
+      <c r="K61" s="3">
         <v>559600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>555500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>592100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>638400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>692800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>668900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>717900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>715700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>656800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>663800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>650400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>629200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>590800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>619200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>623500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>649100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>679800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>692400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>244500</v>
+        <v>211900</v>
       </c>
       <c r="E62" s="3">
-        <v>164700</v>
+        <v>254400</v>
       </c>
       <c r="F62" s="3">
-        <v>172000</v>
+        <v>171300</v>
       </c>
       <c r="G62" s="3">
-        <v>198100</v>
+        <v>179000</v>
       </c>
       <c r="H62" s="3">
-        <v>193300</v>
+        <v>206100</v>
       </c>
       <c r="I62" s="3">
-        <v>161700</v>
+        <v>201100</v>
       </c>
       <c r="J62" s="3">
+        <v>168300</v>
+      </c>
+      <c r="K62" s="3">
         <v>131100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>132100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>138100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>134900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>164000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>129500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>127200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>207600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>173500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>149100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>145800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>220400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>189900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>181100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>172900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>189700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>146700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>150200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1573900</v>
+        <v>1634400</v>
       </c>
       <c r="E66" s="3">
-        <v>1390700</v>
+        <v>1637600</v>
       </c>
       <c r="F66" s="3">
-        <v>1312300</v>
+        <v>1447000</v>
       </c>
       <c r="G66" s="3">
-        <v>1334600</v>
+        <v>1365400</v>
       </c>
       <c r="H66" s="3">
-        <v>1353200</v>
+        <v>1388600</v>
       </c>
       <c r="I66" s="3">
-        <v>1178000</v>
+        <v>1408000</v>
       </c>
       <c r="J66" s="3">
+        <v>1225700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1128100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1143200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1161800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1259200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1254400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1224200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1370000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1530200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1299100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1237600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1343700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1446200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1157500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1208100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1331600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1374200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1203600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1274800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>63200</v>
+        <v>74400</v>
       </c>
       <c r="E72" s="3">
-        <v>94200</v>
+        <v>65800</v>
       </c>
       <c r="F72" s="3">
-        <v>194500</v>
+        <v>98000</v>
       </c>
       <c r="G72" s="3">
-        <v>248900</v>
+        <v>202400</v>
       </c>
       <c r="H72" s="3">
-        <v>250100</v>
+        <v>259000</v>
       </c>
       <c r="I72" s="3">
-        <v>280700</v>
+        <v>260200</v>
       </c>
       <c r="J72" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K72" s="3">
         <v>409300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>435200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>363400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>410200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>511700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>570600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>522500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>540400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>553600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>554200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>518600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>498700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>556100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>565500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>590400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>577100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>562200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>582100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>120700</v>
+        <v>136200</v>
       </c>
       <c r="E76" s="3">
-        <v>152100</v>
+        <v>125600</v>
       </c>
       <c r="F76" s="3">
-        <v>252200</v>
+        <v>158200</v>
       </c>
       <c r="G76" s="3">
-        <v>294200</v>
+        <v>262400</v>
       </c>
       <c r="H76" s="3">
-        <v>294200</v>
+        <v>306200</v>
       </c>
       <c r="I76" s="3">
-        <v>325000</v>
+        <v>306100</v>
       </c>
       <c r="J76" s="3">
+        <v>338100</v>
+      </c>
+      <c r="K76" s="3">
         <v>452600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>475100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>401400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>428500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>551100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>628700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>560000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>587600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>604200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>598000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>571200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>552200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>629000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>624100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>649100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>626200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>602800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>615800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31600</v>
+        <v>7800</v>
       </c>
       <c r="E81" s="3">
-        <v>-84500</v>
+        <v>-32900</v>
       </c>
       <c r="F81" s="3">
-        <v>-33100</v>
+        <v>-87900</v>
       </c>
       <c r="G81" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-18500</v>
-      </c>
       <c r="I81" s="3">
-        <v>-128400</v>
+        <v>-19300</v>
       </c>
       <c r="J81" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-44500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-25700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>12500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,79 +6220,82 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>49800</v>
+        <v>54100</v>
       </c>
       <c r="F83" s="3">
-        <v>51200</v>
+        <v>51800</v>
       </c>
       <c r="G83" s="3">
+        <v>53300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>52400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>41200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>42300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>41800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="P83" s="3">
+        <v>47600</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>48900</v>
+      </c>
+      <c r="R83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="T83" s="3">
+        <v>48100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>50100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>45800</v>
+      </c>
+      <c r="W83" s="3">
+        <v>45300</v>
+      </c>
+      <c r="X83" s="3">
+        <v>52300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>50400</v>
       </c>
-      <c r="H83" s="3">
-        <v>46300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>41200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>42300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>41800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>47000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>48000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>47600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>48900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>47000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>48100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>50100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>45800</v>
-      </c>
-      <c r="V83" s="3">
-        <v>45300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>52300</v>
-      </c>
-      <c r="X83" s="3">
-        <v>50400</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>42900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>48800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7200</v>
+        <v>-76300</v>
       </c>
       <c r="E89" s="3">
-        <v>49000</v>
+        <v>-7500</v>
       </c>
       <c r="F89" s="3">
-        <v>27600</v>
+        <v>51000</v>
       </c>
       <c r="G89" s="3">
-        <v>-37600</v>
+        <v>28800</v>
       </c>
       <c r="H89" s="3">
-        <v>75800</v>
+        <v>-39100</v>
       </c>
       <c r="I89" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>32200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>73700</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="R89" s="3">
+        <v>212500</v>
+      </c>
+      <c r="S89" s="3">
         <v>29600</v>
       </c>
-      <c r="J89" s="3">
-        <v>32200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>73700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>35000</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>212500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>29600</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-56000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>151600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>130000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>27400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-57900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>231800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>52400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-55900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5200</v>
+        <v>-32600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2500</v>
+        <v>-104400</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-16200</v>
       </c>
       <c r="G91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="N91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="R91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-110600</v>
+        <v>-37800</v>
       </c>
       <c r="E94" s="3">
-        <v>-7300</v>
+        <v>-115100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4700</v>
+        <v>-7600</v>
       </c>
       <c r="G94" s="3">
-        <v>-22200</v>
+        <v>-4900</v>
       </c>
       <c r="H94" s="3">
-        <v>-77200</v>
+        <v>-23100</v>
       </c>
       <c r="I94" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-220100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-143500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-20800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-116400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-31700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>5300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,59 +7195,59 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-14300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7022,19 +7255,22 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>123400</v>
       </c>
       <c r="E100" s="3">
-        <v>-14400</v>
+        <v>-1100</v>
       </c>
       <c r="F100" s="3">
-        <v>-13500</v>
+        <v>-15000</v>
       </c>
       <c r="G100" s="3">
-        <v>47200</v>
+        <v>-14100</v>
       </c>
       <c r="H100" s="3">
-        <v>-13200</v>
+        <v>49100</v>
       </c>
       <c r="I100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>69800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-500</v>
       </c>
       <c r="P100" s="3">
         <v>-500</v>
       </c>
       <c r="Q100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R100" s="3">
         <v>-16600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-100</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>-100</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-115600</v>
+        <v>8400</v>
       </c>
       <c r="E102" s="3">
-        <v>30300</v>
+        <v>-120300</v>
       </c>
       <c r="F102" s="3">
-        <v>10000</v>
+        <v>31600</v>
       </c>
       <c r="G102" s="3">
-        <v>-13400</v>
+        <v>10400</v>
       </c>
       <c r="H102" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="I102" s="3">
-        <v>30900</v>
+        <v>-14900</v>
       </c>
       <c r="J102" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K102" s="3">
         <v>4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-53800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-228200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>161000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-75400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>103800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-79500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-96600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>179500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>39400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-54700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,212 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>207700</v>
+        <v>215400</v>
       </c>
       <c r="E8" s="3">
+        <v>212100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>182100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>193600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>235000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>116600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>141100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>202500</v>
+      </c>
+      <c r="N8" s="3">
+        <v>128900</v>
+      </c>
+      <c r="O8" s="3">
+        <v>99400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>164700</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>229800</v>
+      </c>
+      <c r="R8" s="3">
+        <v>184700</v>
+      </c>
+      <c r="S8" s="3">
+        <v>185900</v>
+      </c>
+      <c r="T8" s="3">
+        <v>202500</v>
+      </c>
+      <c r="U8" s="3">
+        <v>275500</v>
+      </c>
+      <c r="V8" s="3">
         <v>178300</v>
       </c>
-      <c r="F8" s="3">
-        <v>147000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>189600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>230000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>157000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>116600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>141100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>202500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>128900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>99400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>164700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>229800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>184700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>185900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>202500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>275500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>178300</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>157200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>190200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>231400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>187400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>229400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>167500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>207900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,34 +1242,37 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>18200</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="H14" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1260,139 +1280,145 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>25900</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>58800</v>
       </c>
       <c r="E15" s="3">
-        <v>54100</v>
+        <v>61600</v>
       </c>
       <c r="F15" s="3">
-        <v>51800</v>
+        <v>55300</v>
       </c>
       <c r="G15" s="3">
-        <v>53300</v>
+        <v>52900</v>
       </c>
       <c r="H15" s="3">
-        <v>52400</v>
+        <v>54400</v>
       </c>
       <c r="I15" s="3">
-        <v>48200</v>
+        <v>53500</v>
       </c>
       <c r="J15" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K15" s="3">
         <v>41400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>42300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>47600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>47000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>44300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>50100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>45800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>45300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>52300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>50400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>41500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>42900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>48800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>211200</v>
+        <v>221400</v>
       </c>
       <c r="E17" s="3">
-        <v>182400</v>
+        <v>215700</v>
       </c>
       <c r="F17" s="3">
-        <v>222400</v>
+        <v>186300</v>
       </c>
       <c r="G17" s="3">
-        <v>216700</v>
+        <v>227200</v>
       </c>
       <c r="H17" s="3">
-        <v>223400</v>
+        <v>221300</v>
       </c>
       <c r="I17" s="3">
-        <v>169500</v>
+        <v>228200</v>
       </c>
       <c r="J17" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K17" s="3">
         <v>162200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>161000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>146900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>169100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>180000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>169700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>217300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>183500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>217400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>160000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>187500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>180800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>176400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>164000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>175800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>172900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>158300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3500</v>
+        <v>-6000</v>
       </c>
       <c r="E18" s="3">
-        <v>-4100</v>
+        <v>-3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-75400</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>-27100</v>
+        <v>-77000</v>
       </c>
       <c r="H18" s="3">
-        <v>6700</v>
+        <v>-27700</v>
       </c>
       <c r="I18" s="3">
-        <v>-12600</v>
+        <v>6800</v>
       </c>
       <c r="J18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-45600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-47500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-31400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-30300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>55000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>53600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>49600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>10100</v>
       </c>
       <c r="E20" s="3">
-        <v>-29500</v>
+        <v>25700</v>
       </c>
       <c r="F20" s="3">
-        <v>-29000</v>
+        <v>-30200</v>
       </c>
       <c r="G20" s="3">
-        <v>-10500</v>
+        <v>-29600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-10800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5500</v>
+        <v>-2700</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>27300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17600</v>
+        <v>62900</v>
       </c>
       <c r="E21" s="3">
-        <v>20400</v>
+        <v>83700</v>
       </c>
       <c r="F21" s="3">
-        <v>-52600</v>
+        <v>20900</v>
       </c>
       <c r="G21" s="3">
-        <v>15700</v>
+        <v>-53700</v>
       </c>
       <c r="H21" s="3">
-        <v>56400</v>
+        <v>16000</v>
       </c>
       <c r="I21" s="3">
-        <v>30100</v>
+        <v>57600</v>
       </c>
       <c r="J21" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>65400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>104800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>68200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>61600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>108000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>79400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>98100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>39700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>89700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>11300</v>
       </c>
       <c r="E22" s="3">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="F22" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="G22" s="3">
-        <v>6900</v>
+        <v>9700</v>
       </c>
       <c r="H22" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="I22" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="3">
         <v>6700</v>
       </c>
       <c r="K22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6900</v>
       </c>
       <c r="O22" s="3">
         <v>6900</v>
       </c>
       <c r="P22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>6500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>7100</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11500</v>
+        <v>-7200</v>
       </c>
       <c r="E23" s="3">
-        <v>-42600</v>
+        <v>11700</v>
       </c>
       <c r="F23" s="3">
-        <v>-113900</v>
+        <v>-43600</v>
       </c>
       <c r="G23" s="3">
-        <v>-44600</v>
+        <v>-116400</v>
       </c>
       <c r="H23" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-24600</v>
-      </c>
       <c r="J23" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>79800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-56800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-38000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>70600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-42500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-48300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>49300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>49600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>33800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
-        <v>-9700</v>
-      </c>
       <c r="F24" s="3">
-        <v>-26000</v>
+        <v>-10000</v>
       </c>
       <c r="G24" s="3">
-        <v>-10200</v>
+        <v>-26600</v>
       </c>
       <c r="H24" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J24" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7800</v>
+        <v>-7000</v>
       </c>
       <c r="E26" s="3">
-        <v>-32900</v>
+        <v>8000</v>
       </c>
       <c r="F26" s="3">
-        <v>-87900</v>
+        <v>-33600</v>
       </c>
       <c r="G26" s="3">
-        <v>-34400</v>
+        <v>-89800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1700</v>
+        <v>-35100</v>
       </c>
       <c r="I26" s="3">
-        <v>-19300</v>
+        <v>-1800</v>
       </c>
       <c r="J26" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-53700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>35400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-44500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>31600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>23100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7800</v>
+        <v>-7000</v>
       </c>
       <c r="E27" s="3">
-        <v>-32900</v>
+        <v>8000</v>
       </c>
       <c r="F27" s="3">
-        <v>-87900</v>
+        <v>-33600</v>
       </c>
       <c r="G27" s="3">
-        <v>-34400</v>
+        <v>-89800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1700</v>
+        <v>-35100</v>
       </c>
       <c r="I27" s="3">
-        <v>-19300</v>
+        <v>-1800</v>
       </c>
       <c r="J27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-53700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-44500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>31600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>23100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2374,8 +2435,8 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2387,31 +2448,31 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-79900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-9200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2419,21 +2480,21 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-63900</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-10100</v>
       </c>
       <c r="E32" s="3">
-        <v>29500</v>
+        <v>-25700</v>
       </c>
       <c r="F32" s="3">
-        <v>29000</v>
+        <v>30200</v>
       </c>
       <c r="G32" s="3">
-        <v>10500</v>
+        <v>29600</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>10800</v>
       </c>
       <c r="I32" s="3">
-        <v>5500</v>
+        <v>2700</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>8700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7800</v>
+        <v>-7000</v>
       </c>
       <c r="E33" s="3">
-        <v>-32900</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="3">
-        <v>-87900</v>
+        <v>-33600</v>
       </c>
       <c r="G33" s="3">
-        <v>-34400</v>
+        <v>-89800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1700</v>
+        <v>-35100</v>
       </c>
       <c r="I33" s="3">
-        <v>-19300</v>
+        <v>-1800</v>
       </c>
       <c r="J33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-133600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-35800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-44500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>12500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>31600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>23100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7800</v>
+        <v>-7000</v>
       </c>
       <c r="E35" s="3">
-        <v>-32900</v>
+        <v>8000</v>
       </c>
       <c r="F35" s="3">
-        <v>-87900</v>
+        <v>-33600</v>
       </c>
       <c r="G35" s="3">
-        <v>-34400</v>
+        <v>-89800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1700</v>
+        <v>-35100</v>
       </c>
       <c r="I35" s="3">
-        <v>-19300</v>
+        <v>-1800</v>
       </c>
       <c r="J35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-133600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-35800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-44500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>12500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>31600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>23100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38500</v>
+        <v>93400</v>
       </c>
       <c r="E41" s="3">
-        <v>30100</v>
+        <v>39300</v>
       </c>
       <c r="F41" s="3">
-        <v>150400</v>
+        <v>30800</v>
       </c>
       <c r="G41" s="3">
-        <v>118900</v>
+        <v>153600</v>
       </c>
       <c r="H41" s="3">
-        <v>108500</v>
+        <v>121400</v>
       </c>
       <c r="I41" s="3">
-        <v>122400</v>
+        <v>110800</v>
       </c>
       <c r="J41" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K41" s="3">
         <v>137300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>101000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>120100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>137500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>191300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>435300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>258100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>251500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>326900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>312900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>209100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>202600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>282000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>378600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>201000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>161600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3350,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>219400</v>
+        <v>164300</v>
       </c>
       <c r="E43" s="3">
-        <v>128800</v>
+        <v>224100</v>
       </c>
       <c r="F43" s="3">
-        <v>113700</v>
+        <v>131600</v>
       </c>
       <c r="G43" s="3">
-        <v>129200</v>
+        <v>116100</v>
       </c>
       <c r="H43" s="3">
-        <v>156100</v>
+        <v>132000</v>
       </c>
       <c r="I43" s="3">
-        <v>104800</v>
+        <v>159500</v>
       </c>
       <c r="J43" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K43" s="3">
         <v>114800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>152600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>199300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>113300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>144100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>125300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>247800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>164900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>122400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>218300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>152200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>160500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>111200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>135300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>114100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>163800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3">
-        <v>4700</v>
-      </c>
       <c r="F44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="P44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="S44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="V44" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1800</v>
       </c>
       <c r="W44" s="3">
         <v>1800</v>
       </c>
       <c r="X44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y44" s="3">
         <v>2500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42100</v>
+        <v>28500</v>
       </c>
       <c r="E45" s="3">
-        <v>53400</v>
+        <v>43000</v>
       </c>
       <c r="F45" s="3">
-        <v>27500</v>
+        <v>54600</v>
       </c>
       <c r="G45" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>27600</v>
       </c>
       <c r="I45" s="3">
-        <v>33600</v>
+        <v>27900</v>
       </c>
       <c r="J45" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K45" s="3">
         <v>9600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>6000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>304100</v>
+        <v>289600</v>
       </c>
       <c r="E46" s="3">
-        <v>217000</v>
+        <v>310600</v>
       </c>
       <c r="F46" s="3">
-        <v>294300</v>
+        <v>221700</v>
       </c>
       <c r="G46" s="3">
-        <v>278400</v>
+        <v>300600</v>
       </c>
       <c r="H46" s="3">
-        <v>295500</v>
+        <v>284400</v>
       </c>
       <c r="I46" s="3">
+        <v>301800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>269900</v>
+      </c>
+      <c r="K46" s="3">
         <v>264200</v>
       </c>
-      <c r="J46" s="3">
-        <v>264200</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>221400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>271400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>274200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>252100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>303100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>341700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>549500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>509300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>420600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>453500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>534500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>366700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>369100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>399100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>520200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>322100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>332900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="E47" s="3">
-        <v>24000</v>
+        <v>26900</v>
       </c>
       <c r="F47" s="3">
-        <v>36900</v>
+        <v>24500</v>
       </c>
       <c r="G47" s="3">
-        <v>44000</v>
+        <v>37700</v>
       </c>
       <c r="H47" s="3">
-        <v>50900</v>
+        <v>44900</v>
       </c>
       <c r="I47" s="3">
-        <v>53000</v>
+        <v>52000</v>
       </c>
       <c r="J47" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K47" s="3">
         <v>25300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>57100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>14000</v>
       </c>
       <c r="S47" s="3">
         <v>14000</v>
       </c>
       <c r="T47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="U47" s="3">
         <v>14400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>8600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>16200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>20100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>331200</v>
+        <v>336800</v>
       </c>
       <c r="E48" s="3">
-        <v>333200</v>
+        <v>338300</v>
       </c>
       <c r="F48" s="3">
-        <v>331300</v>
+        <v>340300</v>
       </c>
       <c r="G48" s="3">
-        <v>333300</v>
+        <v>338400</v>
       </c>
       <c r="H48" s="3">
-        <v>335000</v>
+        <v>340400</v>
       </c>
       <c r="I48" s="3">
-        <v>337200</v>
+        <v>342200</v>
       </c>
       <c r="J48" s="3">
+        <v>344400</v>
+      </c>
+      <c r="K48" s="3">
         <v>337500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>327100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>328800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>341400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>378900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>386600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>384000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>383500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>346300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>344300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>345200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>353000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>352800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>661600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>340100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>337400</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>339900</v>
       </c>
       <c r="AB48" s="3">
         <v>339900</v>
       </c>
       <c r="AC48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="AD48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1081400</v>
+        <v>1068700</v>
       </c>
       <c r="E49" s="3">
-        <v>1142700</v>
+        <v>1104500</v>
       </c>
       <c r="F49" s="3">
-        <v>922300</v>
+        <v>1167100</v>
       </c>
       <c r="G49" s="3">
-        <v>963500</v>
+        <v>942000</v>
       </c>
       <c r="H49" s="3">
-        <v>1007800</v>
+        <v>984100</v>
       </c>
       <c r="I49" s="3">
-        <v>1053300</v>
+        <v>1029400</v>
       </c>
       <c r="J49" s="3">
+        <v>1075800</v>
+      </c>
+      <c r="K49" s="3">
         <v>936100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>926100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>910700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>923400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>945600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1044600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1034400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1071500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1088000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>956700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>976700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1013600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1033800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>972200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2008800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1050900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>935900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>931700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1018200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27500</v>
+        <v>19100</v>
       </c>
       <c r="E52" s="3">
-        <v>46300</v>
+        <v>28100</v>
       </c>
       <c r="F52" s="3">
-        <v>20400</v>
+        <v>47300</v>
       </c>
       <c r="G52" s="3">
-        <v>8700</v>
+        <v>20900</v>
       </c>
       <c r="H52" s="3">
-        <v>5500</v>
+        <v>8800</v>
       </c>
       <c r="I52" s="3">
-        <v>6400</v>
+        <v>5600</v>
       </c>
       <c r="J52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>73500</v>
       </c>
       <c r="P52" s="3">
         <v>73500</v>
       </c>
       <c r="Q52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="R52" s="3">
         <v>75800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>79500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>88400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>88100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>104000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>102600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>177500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>186700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>192900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>194100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1770600</v>
+        <v>1741400</v>
       </c>
       <c r="E54" s="3">
-        <v>1763200</v>
+        <v>1808400</v>
       </c>
       <c r="F54" s="3">
-        <v>1605200</v>
+        <v>1800900</v>
       </c>
       <c r="G54" s="3">
-        <v>1627800</v>
+        <v>1639500</v>
       </c>
       <c r="H54" s="3">
-        <v>1694800</v>
+        <v>1662600</v>
       </c>
       <c r="I54" s="3">
-        <v>1714100</v>
+        <v>1731000</v>
       </c>
       <c r="J54" s="3">
+        <v>1750700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1563800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1580700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1618300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1563300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1687700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1805500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1852900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1930100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2117700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1903300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1835600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1914900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1998400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1786500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1832200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1980600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2000400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1806400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1890700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>282600</v>
+        <v>298500</v>
       </c>
       <c r="E57" s="3">
-        <v>320700</v>
+        <v>288700</v>
       </c>
       <c r="F57" s="3">
-        <v>273700</v>
+        <v>327500</v>
       </c>
       <c r="G57" s="3">
-        <v>268200</v>
+        <v>279500</v>
       </c>
       <c r="H57" s="3">
-        <v>257300</v>
+        <v>274000</v>
       </c>
       <c r="I57" s="3">
-        <v>290000</v>
+        <v>262800</v>
       </c>
       <c r="J57" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K57" s="3">
         <v>239100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>215100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>223300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>263600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>254500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>207400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>233800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>326000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>247300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>238500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>244400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>346500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>270000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>238600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>264200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>248200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>232300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>219500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>256900</v>
+        <v>259100</v>
       </c>
       <c r="E58" s="3">
-        <v>128900</v>
+        <v>262400</v>
       </c>
       <c r="F58" s="3">
-        <v>133200</v>
+        <v>131700</v>
       </c>
       <c r="G58" s="3">
-        <v>129000</v>
+        <v>136000</v>
       </c>
       <c r="H58" s="3">
-        <v>131500</v>
+        <v>131700</v>
       </c>
       <c r="I58" s="3">
-        <v>78400</v>
+        <v>134300</v>
       </c>
       <c r="J58" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K58" s="3">
         <v>82400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>75900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>76900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>215200</v>
+        <v>180900</v>
       </c>
       <c r="E59" s="3">
-        <v>214000</v>
+        <v>219800</v>
       </c>
       <c r="F59" s="3">
-        <v>207100</v>
+        <v>218500</v>
       </c>
       <c r="G59" s="3">
-        <v>178600</v>
+        <v>211600</v>
       </c>
       <c r="H59" s="3">
-        <v>198100</v>
+        <v>182400</v>
       </c>
       <c r="I59" s="3">
-        <v>244000</v>
+        <v>202400</v>
       </c>
       <c r="J59" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K59" s="3">
         <v>155000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>146400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>214200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>137700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>209000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>285700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>273100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>218600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>178900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>238400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>99100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>157200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>262900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>279700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>141200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>204600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>754800</v>
+        <v>738500</v>
       </c>
       <c r="E60" s="3">
-        <v>663600</v>
+        <v>770900</v>
       </c>
       <c r="F60" s="3">
-        <v>614000</v>
+        <v>677700</v>
       </c>
       <c r="G60" s="3">
-        <v>575800</v>
+        <v>627100</v>
       </c>
       <c r="H60" s="3">
-        <v>586900</v>
+        <v>588100</v>
       </c>
       <c r="I60" s="3">
-        <v>612400</v>
+        <v>599400</v>
       </c>
       <c r="J60" s="3">
+        <v>625400</v>
+      </c>
+      <c r="K60" s="3">
         <v>476500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>437400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>455500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>431600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>485900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>397500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>425800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>524900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>606900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>468800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>424700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>547500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>596600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>376800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>407800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>535200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>535400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>377100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>432200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>667700</v>
+        <v>663900</v>
       </c>
       <c r="E61" s="3">
-        <v>719600</v>
+        <v>682000</v>
       </c>
       <c r="F61" s="3">
-        <v>661600</v>
+        <v>735000</v>
       </c>
       <c r="G61" s="3">
-        <v>610700</v>
+        <v>675800</v>
       </c>
       <c r="H61" s="3">
-        <v>595600</v>
+        <v>623700</v>
       </c>
       <c r="I61" s="3">
-        <v>594500</v>
+        <v>608400</v>
       </c>
       <c r="J61" s="3">
+        <v>607200</v>
+      </c>
+      <c r="K61" s="3">
         <v>580900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>559600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>555500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>592100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>638400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>692800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>668900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>717900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>715700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>656800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>663800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>650400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>629200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>590800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>619200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>623500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>649100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>679800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>692400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211900</v>
+        <v>206700</v>
       </c>
       <c r="E62" s="3">
-        <v>254400</v>
+        <v>216400</v>
       </c>
       <c r="F62" s="3">
-        <v>171300</v>
+        <v>259900</v>
       </c>
       <c r="G62" s="3">
-        <v>179000</v>
+        <v>175000</v>
       </c>
       <c r="H62" s="3">
-        <v>206100</v>
+        <v>182800</v>
       </c>
       <c r="I62" s="3">
-        <v>201100</v>
+        <v>210500</v>
       </c>
       <c r="J62" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K62" s="3">
         <v>168300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>132100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>138100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>134900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>164000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>129500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>127200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>207600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>173500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>149100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>145800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>220400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>189900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>181100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>172900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>189700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>146700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>150200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1634400</v>
+        <v>1609000</v>
       </c>
       <c r="E66" s="3">
-        <v>1637600</v>
+        <v>1669300</v>
       </c>
       <c r="F66" s="3">
-        <v>1447000</v>
+        <v>1672600</v>
       </c>
       <c r="G66" s="3">
-        <v>1365400</v>
+        <v>1477900</v>
       </c>
       <c r="H66" s="3">
-        <v>1388600</v>
+        <v>1394600</v>
       </c>
       <c r="I66" s="3">
-        <v>1408000</v>
+        <v>1418300</v>
       </c>
       <c r="J66" s="3">
+        <v>1438100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1225700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1128100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1143200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1161800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1259200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1254400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1224200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1370000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1530200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1299100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1237600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1343700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1446200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1157500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1208100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1331600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1374200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1203600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1274800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74400</v>
+        <v>69600</v>
       </c>
       <c r="E72" s="3">
-        <v>65800</v>
+        <v>76000</v>
       </c>
       <c r="F72" s="3">
-        <v>98000</v>
+        <v>67200</v>
       </c>
       <c r="G72" s="3">
-        <v>202400</v>
+        <v>100100</v>
       </c>
       <c r="H72" s="3">
-        <v>259000</v>
+        <v>206700</v>
       </c>
       <c r="I72" s="3">
-        <v>260200</v>
+        <v>264500</v>
       </c>
       <c r="J72" s="3">
+        <v>265800</v>
+      </c>
+      <c r="K72" s="3">
         <v>292100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>409300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>435200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>363400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>410200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>511700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>570600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>522500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>540400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>553600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>554200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>518600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>498700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>556100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>565500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>590400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>577100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>562200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>582100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>136200</v>
+        <v>132400</v>
       </c>
       <c r="E76" s="3">
-        <v>125600</v>
+        <v>139100</v>
       </c>
       <c r="F76" s="3">
-        <v>158200</v>
+        <v>128300</v>
       </c>
       <c r="G76" s="3">
-        <v>262400</v>
+        <v>161600</v>
       </c>
       <c r="H76" s="3">
-        <v>306200</v>
+        <v>268000</v>
       </c>
       <c r="I76" s="3">
-        <v>306100</v>
+        <v>312700</v>
       </c>
       <c r="J76" s="3">
+        <v>312600</v>
+      </c>
+      <c r="K76" s="3">
         <v>338100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>452600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>475100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>401400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>428500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>551100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>628700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>560000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>587600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>604200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>598000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>571200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>552200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>629000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>624100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>649100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>626200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>602800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>615800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7800</v>
+        <v>-7000</v>
       </c>
       <c r="E81" s="3">
-        <v>-32900</v>
+        <v>8000</v>
       </c>
       <c r="F81" s="3">
-        <v>-87900</v>
+        <v>-33600</v>
       </c>
       <c r="G81" s="3">
-        <v>-34400</v>
+        <v>-89800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1700</v>
+        <v>-35100</v>
       </c>
       <c r="I81" s="3">
-        <v>-19300</v>
+        <v>-1800</v>
       </c>
       <c r="J81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-133600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-35800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-44500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>12500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>31600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>23100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>58800</v>
       </c>
       <c r="E83" s="3">
-        <v>54100</v>
+        <v>61600</v>
       </c>
       <c r="F83" s="3">
-        <v>51800</v>
+        <v>55300</v>
       </c>
       <c r="G83" s="3">
-        <v>53300</v>
+        <v>52900</v>
       </c>
       <c r="H83" s="3">
-        <v>52400</v>
+        <v>54400</v>
       </c>
       <c r="I83" s="3">
-        <v>48200</v>
+        <v>53500</v>
       </c>
       <c r="J83" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K83" s="3">
         <v>41400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>45800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>45300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>50400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>42900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>48800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-76300</v>
+        <v>68500</v>
       </c>
       <c r="E89" s="3">
-        <v>-7500</v>
+        <v>-78000</v>
       </c>
       <c r="F89" s="3">
-        <v>51000</v>
+        <v>-7700</v>
       </c>
       <c r="G89" s="3">
-        <v>28800</v>
+        <v>52100</v>
       </c>
       <c r="H89" s="3">
-        <v>-39100</v>
+        <v>29400</v>
       </c>
       <c r="I89" s="3">
-        <v>78900</v>
+        <v>-39900</v>
       </c>
       <c r="J89" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K89" s="3">
         <v>30800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>73700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>212500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-56000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>151600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>130000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>27400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-57900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>23400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>231800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>52400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-55900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-104400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37800</v>
+        <v>-14500</v>
       </c>
       <c r="E94" s="3">
-        <v>-115100</v>
+        <v>-38700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7600</v>
+        <v>-117500</v>
       </c>
       <c r="G94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-80300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-220100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-43100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-143500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-20800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-116400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-31700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>5300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7198,20 +7432,20 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-14900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-13500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7222,11 +7456,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-14500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7234,11 +7468,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-16600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7246,11 +7480,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-14300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7258,19 +7492,22 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>123400</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-15000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-14100</v>
+        <v>-15400</v>
       </c>
       <c r="H100" s="3">
-        <v>49100</v>
+        <v>-14400</v>
       </c>
       <c r="I100" s="3">
-        <v>-13800</v>
+        <v>50100</v>
       </c>
       <c r="J100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>69800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-500</v>
       </c>
       <c r="Q100" s="3">
         <v>-500</v>
       </c>
       <c r="R100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S100" s="3">
         <v>-16600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
       <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-15100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>-100</v>
       </c>
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
-        <v>3400</v>
-      </c>
       <c r="F101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>9000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8400</v>
+        <v>54100</v>
       </c>
       <c r="E102" s="3">
-        <v>-120300</v>
+        <v>8600</v>
       </c>
       <c r="F102" s="3">
-        <v>31600</v>
+        <v>-122900</v>
       </c>
       <c r="G102" s="3">
-        <v>10400</v>
+        <v>32200</v>
       </c>
       <c r="H102" s="3">
-        <v>-13900</v>
+        <v>10600</v>
       </c>
       <c r="I102" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="J102" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K102" s="3">
         <v>32200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-53800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-228200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>161000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-75400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>103800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-79500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-96600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>179500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>39400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-54700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-85500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MANU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>MANU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>215400</v>
+        <v>207600</v>
       </c>
       <c r="E8" s="3">
-        <v>212100</v>
+        <v>210900</v>
       </c>
       <c r="F8" s="3">
-        <v>182100</v>
+        <v>207700</v>
       </c>
       <c r="G8" s="3">
-        <v>150200</v>
+        <v>178300</v>
       </c>
       <c r="H8" s="3">
-        <v>193600</v>
+        <v>147000</v>
       </c>
       <c r="I8" s="3">
-        <v>235000</v>
+        <v>189600</v>
       </c>
       <c r="J8" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K8" s="3">
         <v>160300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>141100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>202500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>128900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>99400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>164700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>184700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>185900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>202500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>275500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>178300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>157200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>190200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>231400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>187400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>229400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>167500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>207900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,37 +1262,40 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>18600</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="I14" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1283,142 +1303,148 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>25900</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>58800</v>
+        <v>59500</v>
       </c>
       <c r="E15" s="3">
-        <v>61600</v>
+        <v>57600</v>
       </c>
       <c r="F15" s="3">
-        <v>55300</v>
+        <v>60300</v>
       </c>
       <c r="G15" s="3">
-        <v>52900</v>
+        <v>54100</v>
       </c>
       <c r="H15" s="3">
-        <v>54400</v>
+        <v>51800</v>
       </c>
       <c r="I15" s="3">
-        <v>53500</v>
+        <v>53300</v>
       </c>
       <c r="J15" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K15" s="3">
         <v>49200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>47600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>47000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>44300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>48100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>50100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>45800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>45300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>52300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>50400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>41500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>42900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>48800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>221400</v>
+        <v>207900</v>
       </c>
       <c r="E17" s="3">
-        <v>215700</v>
+        <v>216800</v>
       </c>
       <c r="F17" s="3">
-        <v>186300</v>
+        <v>211200</v>
       </c>
       <c r="G17" s="3">
-        <v>227200</v>
+        <v>182400</v>
       </c>
       <c r="H17" s="3">
-        <v>221300</v>
+        <v>222400</v>
       </c>
       <c r="I17" s="3">
-        <v>228200</v>
+        <v>216700</v>
       </c>
       <c r="J17" s="3">
+        <v>223400</v>
+      </c>
+      <c r="K17" s="3">
         <v>173100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>161000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>146900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>169100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>180000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>169700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>217300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>183500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>217400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>160000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>187500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>180800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>176400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>164000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>175800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>172900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>158300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6000</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-3600</v>
+        <v>-5900</v>
       </c>
       <c r="F18" s="3">
-        <v>-4200</v>
+        <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-77000</v>
+        <v>-4100</v>
       </c>
       <c r="H18" s="3">
-        <v>-27700</v>
+        <v>-75400</v>
       </c>
       <c r="I18" s="3">
-        <v>6800</v>
+        <v>-27100</v>
       </c>
       <c r="J18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-45600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-47500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>49800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-31400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-30300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>55000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>53600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>49600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10100</v>
+        <v>11100</v>
       </c>
       <c r="E20" s="3">
-        <v>25700</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
-        <v>-30200</v>
+        <v>25100</v>
       </c>
       <c r="G20" s="3">
-        <v>-29600</v>
+        <v>-29500</v>
       </c>
       <c r="H20" s="3">
-        <v>-10800</v>
+        <v>-29000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2700</v>
+        <v>-10500</v>
       </c>
       <c r="J20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-8700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62900</v>
+        <v>70200</v>
       </c>
       <c r="E21" s="3">
-        <v>83700</v>
+        <v>61500</v>
       </c>
       <c r="F21" s="3">
-        <v>20900</v>
+        <v>81900</v>
       </c>
       <c r="G21" s="3">
-        <v>-53700</v>
+        <v>20400</v>
       </c>
       <c r="H21" s="3">
-        <v>16000</v>
+        <v>-52600</v>
       </c>
       <c r="I21" s="3">
-        <v>57600</v>
+        <v>15700</v>
       </c>
       <c r="J21" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K21" s="3">
         <v>30800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>65400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>104800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>68200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>61600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>108000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>79400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>98100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>39700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>89700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11300</v>
+        <v>12900</v>
       </c>
       <c r="E22" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="F22" s="3">
-        <v>9200</v>
+        <v>10100</v>
       </c>
       <c r="G22" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="H22" s="3">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="I22" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="K22" s="3">
         <v>6700</v>
       </c>
       <c r="L22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6900</v>
       </c>
       <c r="P22" s="3">
         <v>6900</v>
       </c>
       <c r="Q22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R22" s="3">
         <v>6500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7100</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7200</v>
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
-        <v>11700</v>
+        <v>-7000</v>
       </c>
       <c r="F23" s="3">
-        <v>-43600</v>
+        <v>11500</v>
       </c>
       <c r="G23" s="3">
-        <v>-116400</v>
+        <v>-42600</v>
       </c>
       <c r="H23" s="3">
-        <v>-45500</v>
+        <v>-113900</v>
       </c>
       <c r="I23" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-56800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>70600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-42500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-48300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>49300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>49600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-9700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>33800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-10000</v>
-      </c>
       <c r="G24" s="3">
-        <v>-26600</v>
+        <v>-9700</v>
       </c>
       <c r="H24" s="3">
-        <v>-10400</v>
+        <v>-26000</v>
       </c>
       <c r="I24" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>18000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-4800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7000</v>
+        <v>-3600</v>
       </c>
       <c r="E26" s="3">
-        <v>8000</v>
+        <v>-6900</v>
       </c>
       <c r="F26" s="3">
-        <v>-33600</v>
+        <v>7800</v>
       </c>
       <c r="G26" s="3">
-        <v>-89800</v>
+        <v>-32900</v>
       </c>
       <c r="H26" s="3">
-        <v>-35100</v>
+        <v>-87900</v>
       </c>
       <c r="I26" s="3">
-        <v>-1800</v>
+        <v>-34400</v>
       </c>
       <c r="J26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>84000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>35400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-44500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>31600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>23100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7000</v>
+        <v>-3600</v>
       </c>
       <c r="E27" s="3">
-        <v>8000</v>
+        <v>-6900</v>
       </c>
       <c r="F27" s="3">
-        <v>-33600</v>
+        <v>7800</v>
       </c>
       <c r="G27" s="3">
-        <v>-89800</v>
+        <v>-32900</v>
       </c>
       <c r="H27" s="3">
-        <v>-35100</v>
+        <v>-87900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1800</v>
+        <v>-34400</v>
       </c>
       <c r="J27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-53700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-44500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>38200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>31600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>23100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,13 +2482,16 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -2438,8 +2499,8 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2451,31 +2512,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-79900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-9200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2483,21 +2544,21 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-63900</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10100</v>
+        <v>-11100</v>
       </c>
       <c r="E32" s="3">
-        <v>-25700</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
-        <v>30200</v>
+        <v>-25100</v>
       </c>
       <c r="G32" s="3">
-        <v>29600</v>
+        <v>29500</v>
       </c>
       <c r="H32" s="3">
-        <v>10800</v>
+        <v>29000</v>
       </c>
       <c r="I32" s="3">
-        <v>2700</v>
+        <v>10500</v>
       </c>
       <c r="J32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>8700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7000</v>
+        <v>-3600</v>
       </c>
       <c r="E33" s="3">
-        <v>8000</v>
+        <v>-6900</v>
       </c>
       <c r="F33" s="3">
-        <v>-33600</v>
+        <v>7800</v>
       </c>
       <c r="G33" s="3">
-        <v>-89800</v>
+        <v>-32900</v>
       </c>
       <c r="H33" s="3">
-        <v>-35100</v>
+        <v>-87900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1800</v>
+        <v>-34400</v>
       </c>
       <c r="J33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-133600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>35400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-44500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>12500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>31600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>23100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7000</v>
+        <v>-3600</v>
       </c>
       <c r="E35" s="3">
-        <v>8000</v>
+        <v>-6900</v>
       </c>
       <c r="F35" s="3">
-        <v>-33600</v>
+        <v>7800</v>
       </c>
       <c r="G35" s="3">
-        <v>-89800</v>
+        <v>-32900</v>
       </c>
       <c r="H35" s="3">
-        <v>-35100</v>
+        <v>-87900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1800</v>
+        <v>-34400</v>
       </c>
       <c r="J35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-133600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>35400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-44500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>12500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>31600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>23100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93400</v>
+        <v>94300</v>
       </c>
       <c r="E41" s="3">
-        <v>39300</v>
+        <v>91500</v>
       </c>
       <c r="F41" s="3">
-        <v>30800</v>
+        <v>38500</v>
       </c>
       <c r="G41" s="3">
-        <v>153600</v>
+        <v>30100</v>
       </c>
       <c r="H41" s="3">
-        <v>121400</v>
+        <v>150400</v>
       </c>
       <c r="I41" s="3">
-        <v>110800</v>
+        <v>118800</v>
       </c>
       <c r="J41" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K41" s="3">
         <v>125000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>120100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>137500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>191300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>435300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>258100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>251500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>326900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>312900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>209100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>202600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>282000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>378600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>201000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>161600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,610 +3443,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164300</v>
+        <v>111300</v>
       </c>
       <c r="E43" s="3">
-        <v>224100</v>
+        <v>160800</v>
       </c>
       <c r="F43" s="3">
-        <v>131600</v>
+        <v>219400</v>
       </c>
       <c r="G43" s="3">
-        <v>116100</v>
+        <v>128800</v>
       </c>
       <c r="H43" s="3">
-        <v>132000</v>
+        <v>113600</v>
       </c>
       <c r="I43" s="3">
-        <v>159500</v>
+        <v>129200</v>
       </c>
       <c r="J43" s="3">
+        <v>156100</v>
+      </c>
+      <c r="K43" s="3">
         <v>107000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>114800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>152600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>199300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>113300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>144100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>92300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>247800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>164900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>122400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>218300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>152200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>160500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>111200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>135300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>114100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>163800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="W44" s="3">
         <v>3500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>1800</v>
       </c>
       <c r="X44" s="3">
         <v>1800</v>
       </c>
       <c r="Y44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z44" s="3">
         <v>2500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>30800</v>
       </c>
       <c r="E45" s="3">
-        <v>43000</v>
+        <v>27900</v>
       </c>
       <c r="F45" s="3">
-        <v>54600</v>
+        <v>42100</v>
       </c>
       <c r="G45" s="3">
-        <v>28000</v>
+        <v>53400</v>
       </c>
       <c r="H45" s="3">
-        <v>27600</v>
+        <v>27500</v>
       </c>
       <c r="I45" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="J45" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K45" s="3">
         <v>34300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>6000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>289600</v>
+        <v>240300</v>
       </c>
       <c r="E46" s="3">
-        <v>310600</v>
+        <v>283500</v>
       </c>
       <c r="F46" s="3">
-        <v>221700</v>
+        <v>304100</v>
       </c>
       <c r="G46" s="3">
-        <v>300600</v>
+        <v>217000</v>
       </c>
       <c r="H46" s="3">
-        <v>284400</v>
+        <v>294200</v>
       </c>
       <c r="I46" s="3">
-        <v>301800</v>
+        <v>278400</v>
       </c>
       <c r="J46" s="3">
+        <v>295400</v>
+      </c>
+      <c r="K46" s="3">
         <v>269900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>264200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>221400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>271400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>215800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>274200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>252100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>303100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>341700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>549500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>509300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>420600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>453500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>534500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>366700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>369100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>399100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>520200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>322100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>332900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>315500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="E47" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="F47" s="3">
-        <v>24500</v>
+        <v>26300</v>
       </c>
       <c r="G47" s="3">
-        <v>37700</v>
+        <v>24000</v>
       </c>
       <c r="H47" s="3">
-        <v>44900</v>
+        <v>36900</v>
       </c>
       <c r="I47" s="3">
-        <v>52000</v>
+        <v>43900</v>
       </c>
       <c r="J47" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K47" s="3">
         <v>54200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>57100</v>
-      </c>
-      <c r="S47" s="3">
-        <v>14000</v>
       </c>
       <c r="T47" s="3">
         <v>14000</v>
       </c>
       <c r="U47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="V47" s="3">
         <v>14400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>8600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>16200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>20100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>19700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>336800</v>
+        <v>349900</v>
       </c>
       <c r="E48" s="3">
-        <v>338300</v>
+        <v>329700</v>
       </c>
       <c r="F48" s="3">
-        <v>340300</v>
+        <v>331100</v>
       </c>
       <c r="G48" s="3">
-        <v>338400</v>
+        <v>333100</v>
       </c>
       <c r="H48" s="3">
-        <v>340400</v>
+        <v>331200</v>
       </c>
       <c r="I48" s="3">
-        <v>342200</v>
+        <v>333200</v>
       </c>
       <c r="J48" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K48" s="3">
         <v>344400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>337500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>327100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>323100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>328800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>341400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>378900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>386600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>384000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>383500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>346300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>344300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>345200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>353000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>352800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>661600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>340100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>337400</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>339900</v>
       </c>
       <c r="AC48" s="3">
         <v>339900</v>
       </c>
       <c r="AD48" s="3">
+        <v>339900</v>
+      </c>
+      <c r="AE48" s="3">
         <v>341100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1068700</v>
+        <v>1007800</v>
       </c>
       <c r="E49" s="3">
-        <v>1104500</v>
+        <v>1046200</v>
       </c>
       <c r="F49" s="3">
-        <v>1167100</v>
+        <v>1081200</v>
       </c>
       <c r="G49" s="3">
-        <v>942000</v>
+        <v>1142500</v>
       </c>
       <c r="H49" s="3">
-        <v>984100</v>
+        <v>922100</v>
       </c>
       <c r="I49" s="3">
-        <v>1029400</v>
+        <v>963400</v>
       </c>
       <c r="J49" s="3">
+        <v>1007700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1075800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>936100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>926100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>910700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>923400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>945600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1044600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1034400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1071500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1088000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>956700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>976700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1013600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1033800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>972200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2008800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1050900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>935900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>931700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1018200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1053800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19100</v>
+        <v>9300</v>
       </c>
       <c r="E52" s="3">
-        <v>28100</v>
+        <v>18700</v>
       </c>
       <c r="F52" s="3">
-        <v>47300</v>
+        <v>27500</v>
       </c>
       <c r="G52" s="3">
-        <v>20900</v>
+        <v>46300</v>
       </c>
       <c r="H52" s="3">
-        <v>8800</v>
+        <v>20400</v>
       </c>
       <c r="I52" s="3">
-        <v>5600</v>
+        <v>8700</v>
       </c>
       <c r="J52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>73500</v>
       </c>
       <c r="Q52" s="3">
         <v>73500</v>
       </c>
       <c r="R52" s="3">
+        <v>73500</v>
+      </c>
+      <c r="S52" s="3">
         <v>75800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>82700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>79500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>88400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>88100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>104000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>102600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>177500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>186700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>192900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>194100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>199300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1741400</v>
+        <v>1635000</v>
       </c>
       <c r="E54" s="3">
-        <v>1808400</v>
+        <v>1704800</v>
       </c>
       <c r="F54" s="3">
-        <v>1800900</v>
+        <v>1770300</v>
       </c>
       <c r="G54" s="3">
-        <v>1639500</v>
+        <v>1762900</v>
       </c>
       <c r="H54" s="3">
-        <v>1662600</v>
+        <v>1604900</v>
       </c>
       <c r="I54" s="3">
-        <v>1731000</v>
+        <v>1627600</v>
       </c>
       <c r="J54" s="3">
+        <v>1694500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1750700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1563800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1580700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1618300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1563300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1687700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1805500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1852900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1930100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2117700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1903300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1835600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1914900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1998400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1786500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1832200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1980600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2000400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1806400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1890700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1915000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>298500</v>
+        <v>293400</v>
       </c>
       <c r="E57" s="3">
-        <v>288700</v>
+        <v>292200</v>
       </c>
       <c r="F57" s="3">
-        <v>327500</v>
+        <v>282600</v>
       </c>
       <c r="G57" s="3">
-        <v>279500</v>
+        <v>320600</v>
       </c>
       <c r="H57" s="3">
-        <v>274000</v>
+        <v>273700</v>
       </c>
       <c r="I57" s="3">
-        <v>262800</v>
+        <v>268200</v>
       </c>
       <c r="J57" s="3">
+        <v>257200</v>
+      </c>
+      <c r="K57" s="3">
         <v>296200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>239100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>215100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>202600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>223300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>263600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>254500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>207400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>233800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>326000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>247300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>238500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>244400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>346500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>270000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>238600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>264200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>248200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>232300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>219500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>259100</v>
+        <v>132700</v>
       </c>
       <c r="E58" s="3">
-        <v>262400</v>
+        <v>253600</v>
       </c>
       <c r="F58" s="3">
-        <v>131700</v>
+        <v>256900</v>
       </c>
       <c r="G58" s="3">
-        <v>136000</v>
+        <v>128900</v>
       </c>
       <c r="H58" s="3">
-        <v>131700</v>
+        <v>133100</v>
       </c>
       <c r="I58" s="3">
-        <v>134300</v>
+        <v>128900</v>
       </c>
       <c r="J58" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K58" s="3">
         <v>80100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>75900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>76900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>11900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>180900</v>
+        <v>227500</v>
       </c>
       <c r="E59" s="3">
-        <v>219800</v>
+        <v>177100</v>
       </c>
       <c r="F59" s="3">
-        <v>218500</v>
+        <v>215200</v>
       </c>
       <c r="G59" s="3">
-        <v>211600</v>
+        <v>213900</v>
       </c>
       <c r="H59" s="3">
-        <v>182400</v>
+        <v>207100</v>
       </c>
       <c r="I59" s="3">
-        <v>202400</v>
+        <v>178500</v>
       </c>
       <c r="J59" s="3">
+        <v>198100</v>
+      </c>
+      <c r="K59" s="3">
         <v>249200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>155000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>146400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>176000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>214200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>137700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>209000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>285700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>273100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>218600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>178900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>238400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>99100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>157200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>262900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>279700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>141200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>204600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>266400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>738500</v>
+        <v>653600</v>
       </c>
       <c r="E60" s="3">
-        <v>770900</v>
+        <v>722900</v>
       </c>
       <c r="F60" s="3">
-        <v>677700</v>
+        <v>754600</v>
       </c>
       <c r="G60" s="3">
-        <v>627100</v>
+        <v>663500</v>
       </c>
       <c r="H60" s="3">
-        <v>588100</v>
+        <v>613900</v>
       </c>
       <c r="I60" s="3">
-        <v>599400</v>
+        <v>575700</v>
       </c>
       <c r="J60" s="3">
+        <v>586800</v>
+      </c>
+      <c r="K60" s="3">
         <v>625400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>476500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>437400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>455500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>431600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>485900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>397500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>425800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>524900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>606900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>468800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>424700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>547500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>596600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>376800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>407800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>535200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>535400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>377100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>432200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>494800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>663900</v>
+        <v>639100</v>
       </c>
       <c r="E61" s="3">
-        <v>682000</v>
+        <v>649900</v>
       </c>
       <c r="F61" s="3">
-        <v>735000</v>
+        <v>667600</v>
       </c>
       <c r="G61" s="3">
-        <v>675800</v>
+        <v>719500</v>
       </c>
       <c r="H61" s="3">
-        <v>623700</v>
+        <v>661500</v>
       </c>
       <c r="I61" s="3">
-        <v>608400</v>
+        <v>610600</v>
       </c>
       <c r="J61" s="3">
+        <v>595500</v>
+      </c>
+      <c r="K61" s="3">
         <v>607200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>580900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>559600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>555500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>592100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>638400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>692800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>668900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>717900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>715700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>656800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>663800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>650400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>629200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>590800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>619200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>623500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>649100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>679800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>692400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>657500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>206700</v>
+        <v>213300</v>
       </c>
       <c r="E62" s="3">
-        <v>216400</v>
+        <v>202300</v>
       </c>
       <c r="F62" s="3">
-        <v>259900</v>
+        <v>211900</v>
       </c>
       <c r="G62" s="3">
-        <v>175000</v>
+        <v>254400</v>
       </c>
       <c r="H62" s="3">
-        <v>182800</v>
+        <v>171300</v>
       </c>
       <c r="I62" s="3">
-        <v>210500</v>
+        <v>178900</v>
       </c>
       <c r="J62" s="3">
+        <v>206000</v>
+      </c>
+      <c r="K62" s="3">
         <v>205400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>168300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>132100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>138100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>134900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>164000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>129500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>127200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>207600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>173500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>149100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>145800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>220400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>189900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>181100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>172900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>189700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>146700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>150200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1609000</v>
+        <v>1506100</v>
       </c>
       <c r="E66" s="3">
-        <v>1669300</v>
+        <v>1575100</v>
       </c>
       <c r="F66" s="3">
-        <v>1672600</v>
+        <v>1634100</v>
       </c>
       <c r="G66" s="3">
-        <v>1477900</v>
+        <v>1637300</v>
       </c>
       <c r="H66" s="3">
-        <v>1394600</v>
+        <v>1446700</v>
       </c>
       <c r="I66" s="3">
-        <v>1418300</v>
+        <v>1365200</v>
       </c>
       <c r="J66" s="3">
+        <v>1388400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1438100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1225700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1128100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1143200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1161800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1259200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1254400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1224200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1370000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1530200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1299100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1237600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1343700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1446200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1157500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1208100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1331600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1374200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1203600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1274800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1315500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>69600</v>
+        <v>65000</v>
       </c>
       <c r="E72" s="3">
-        <v>76000</v>
+        <v>68200</v>
       </c>
       <c r="F72" s="3">
-        <v>67200</v>
+        <v>74400</v>
       </c>
       <c r="G72" s="3">
-        <v>100100</v>
+        <v>65800</v>
       </c>
       <c r="H72" s="3">
-        <v>206700</v>
+        <v>98000</v>
       </c>
       <c r="I72" s="3">
-        <v>264500</v>
+        <v>202400</v>
       </c>
       <c r="J72" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K72" s="3">
         <v>265800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>292100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>409300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>435200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>363400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>410200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>511700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>570600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>522500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>540400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>553600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>554200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>518600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>498700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>556100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>565500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>590400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>577100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>562200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>582100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>132400</v>
+        <v>129000</v>
       </c>
       <c r="E76" s="3">
-        <v>139100</v>
+        <v>129700</v>
       </c>
       <c r="F76" s="3">
-        <v>128300</v>
+        <v>136200</v>
       </c>
       <c r="G76" s="3">
-        <v>161600</v>
+        <v>125600</v>
       </c>
       <c r="H76" s="3">
-        <v>268000</v>
+        <v>158200</v>
       </c>
       <c r="I76" s="3">
-        <v>312700</v>
+        <v>262400</v>
       </c>
       <c r="J76" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K76" s="3">
         <v>312600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>338100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>452600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>475100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>401400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>428500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>551100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>628700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>560000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>587600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>604200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>598000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>571200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>552200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>629000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>624100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>649100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>626200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>602800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>615800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>599500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7000</v>
+        <v>-3600</v>
       </c>
       <c r="E81" s="3">
-        <v>8000</v>
+        <v>-6900</v>
       </c>
       <c r="F81" s="3">
-        <v>-33600</v>
+        <v>7800</v>
       </c>
       <c r="G81" s="3">
-        <v>-89800</v>
+        <v>-32900</v>
       </c>
       <c r="H81" s="3">
-        <v>-35100</v>
+        <v>-87900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1800</v>
+        <v>-34400</v>
       </c>
       <c r="J81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-133600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>35400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-44500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-25700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>12500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>31600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>23100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>58800</v>
+        <v>59500</v>
       </c>
       <c r="E83" s="3">
-        <v>61600</v>
+        <v>57600</v>
       </c>
       <c r="F83" s="3">
-        <v>55300</v>
+        <v>60300</v>
       </c>
       <c r="G83" s="3">
-        <v>52900</v>
+        <v>54100</v>
       </c>
       <c r="H83" s="3">
-        <v>54400</v>
+        <v>51800</v>
       </c>
       <c r="I83" s="3">
-        <v>53500</v>
+        <v>53300</v>
       </c>
       <c r="J83" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K83" s="3">
         <v>49200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>45800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>45300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>50400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>42900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>48800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>68500</v>
+        <v>135500</v>
       </c>
       <c r="E89" s="3">
-        <v>-78000</v>
+        <v>67100</v>
       </c>
       <c r="F89" s="3">
-        <v>-7700</v>
+        <v>-76300</v>
       </c>
       <c r="G89" s="3">
-        <v>52100</v>
+        <v>-7500</v>
       </c>
       <c r="H89" s="3">
-        <v>29400</v>
+        <v>51000</v>
       </c>
       <c r="I89" s="3">
-        <v>-39900</v>
+        <v>28800</v>
       </c>
       <c r="J89" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="K89" s="3">
         <v>80600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>73700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>212500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>29600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-56000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>151600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>130000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>27400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-57900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>231800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>52400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-55900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>69300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-104400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-75800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-9900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-211200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14500</v>
+        <v>-6800</v>
       </c>
       <c r="E94" s="3">
-        <v>-38700</v>
+        <v>-14200</v>
       </c>
       <c r="F94" s="3">
-        <v>-117500</v>
+        <v>-37800</v>
       </c>
       <c r="G94" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-116400</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-7700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-82100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-220100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-43100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-143500</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="X94" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-116400</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>5300</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-164500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7435,20 +7669,20 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-15200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-13800</v>
+        <v>-14900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-13500</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7459,11 +7693,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-14500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7471,11 +7705,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-16600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7483,11 +7717,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-14300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7495,19 +7729,22 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-15600</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>126000</v>
-      </c>
       <c r="F100" s="3">
+        <v>123400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-15400</v>
-      </c>
       <c r="H100" s="3">
-        <v>-14400</v>
+        <v>-15000</v>
       </c>
       <c r="I100" s="3">
-        <v>50100</v>
+        <v>-14100</v>
       </c>
       <c r="J100" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>69800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-500</v>
       </c>
       <c r="R100" s="3">
         <v>-500</v>
       </c>
       <c r="S100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T100" s="3">
         <v>-16600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-5000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14300</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-100</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
       <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-15100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15700</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>-100</v>
       </c>
       <c r="AD100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
-        <v>3500</v>
-      </c>
       <c r="G101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H101" s="3">
         <v>3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>9000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>54100</v>
+        <v>2800</v>
       </c>
       <c r="E102" s="3">
-        <v>8600</v>
+        <v>53000</v>
       </c>
       <c r="F102" s="3">
-        <v>-122900</v>
+        <v>8400</v>
       </c>
       <c r="G102" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>31600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="L102" s="3">
         <v>32200</v>
       </c>
-      <c r="H102" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>32200</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-53800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-228200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>161000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-75400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>103800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-79500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-96600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>179500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>39400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-54700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-85500</v>
       </c>
     </row>
